--- a/Test data/TestData.xlsx
+++ b/Test data/TestData.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Seleniumworkspace\Maven_Xcelerate\Test data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Mercury" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="3" r:id="rId3"/>
+    <sheet name="CollPeriodBalances_MCC" sheetId="4" r:id="rId4"/>
+    <sheet name="CollPeriodBalances_MCP" sheetId="5" r:id="rId5"/>
+    <sheet name="CollectionImport" sheetId="6" r:id="rId6"/>
+    <sheet name="PaymentImport" sheetId="7" r:id="rId7"/>
+    <sheet name="NewUser_creation" sheetId="9" r:id="rId8"/>
+    <sheet name="NewEntity_creation" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="110">
   <si>
     <t>Password</t>
   </si>
@@ -134,16 +136,232 @@
   </si>
   <si>
     <t>http://172.20.92.19/Login/LogOn?ReturnUrl=%2f</t>
+  </si>
+  <si>
+    <t>lancen</t>
+  </si>
+  <si>
+    <t>Tc_06_NewEntityCreation</t>
+  </si>
+  <si>
+    <t>asiyas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Entity_Name</t>
+  </si>
+  <si>
+    <t>ABC concepts</t>
+  </si>
+  <si>
+    <t>clarendon</t>
+  </si>
+  <si>
+    <t>Agreement_Name</t>
+  </si>
+  <si>
+    <t>BucketID</t>
+  </si>
+  <si>
+    <t>srini</t>
+  </si>
+  <si>
+    <t>Branchcode</t>
+  </si>
+  <si>
+    <t>BankAccType</t>
+  </si>
+  <si>
+    <t>IntRef</t>
+  </si>
+  <si>
+    <t>TransRef</t>
+  </si>
+  <si>
+    <t>Tc_02_ManualcapturePayment</t>
+  </si>
+  <si>
+    <t>IntRefPmtCap</t>
+  </si>
+  <si>
+    <t>Transtype</t>
+  </si>
+  <si>
+    <t>Commission</t>
+  </si>
+  <si>
+    <t>PmtSubtype</t>
+  </si>
+  <si>
+    <t>Commission only</t>
+  </si>
+  <si>
+    <t>Tc_03_CollectionImport</t>
+  </si>
+  <si>
+    <t>Tc_04_PaymentImport</t>
+  </si>
+  <si>
+    <t>Tc_05_NewUserCcreation</t>
+  </si>
+  <si>
+    <t>EntitySearch</t>
+  </si>
+  <si>
+    <t>Insure group managers</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>IDNumber</t>
+  </si>
+  <si>
+    <t>g4109063</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>srinivas@repalas.com</t>
+  </si>
+  <si>
+    <t>EMailAddress</t>
+  </si>
+  <si>
+    <t>Messanger</t>
+  </si>
+  <si>
+    <t>MSN</t>
+  </si>
+  <si>
+    <t>PositionID</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Physical Address, IOM HOUSE, 6 ST GILESs, RANDBURG, RANDBURG, Gauteng</t>
+  </si>
+  <si>
+    <t>EntityAddressID</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>LEntityType</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>EnityTypeID</t>
+  </si>
+  <si>
+    <t>Insurer</t>
+  </si>
+  <si>
+    <t>RegRIdType</t>
+  </si>
+  <si>
+    <t>Gauteng</t>
+  </si>
+  <si>
+    <t>ProvinceId</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>IOM House</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>6 St Giles street</t>
+  </si>
+  <si>
+    <t>Suburb</t>
+  </si>
+  <si>
+    <t>Johannesburg</t>
+  </si>
+  <si>
+    <t>Midrand</t>
+  </si>
+  <si>
+    <t>Town</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>U1237856</t>
+  </si>
+  <si>
+    <t>ELtype</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Absa Life Limited</t>
+  </si>
+  <si>
+    <t>CTU - CTU - ST FSP</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>2018-01-01 TO 2018-02-15</t>
+  </si>
+  <si>
+    <t>siri189</t>
+  </si>
+  <si>
+    <t>Test_Entity256</t>
+  </si>
+  <si>
+    <t>1989/122628/76</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +396,12 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -225,7 +449,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -233,6 +457,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -294,7 +519,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,26 +552,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,23 +587,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -861,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,6 +1066,166 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6"/>
+    <hyperlink ref="C4" r:id="rId7"/>
+    <hyperlink ref="E5" r:id="rId8"/>
+    <hyperlink ref="C5" r:id="rId9"/>
+    <hyperlink ref="E6" r:id="rId10"/>
+    <hyperlink ref="C6" r:id="rId11"/>
+    <hyperlink ref="C7" r:id="rId12"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
@@ -883,13 +1234,7 @@
         <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -900,18 +1245,744 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>47</v>
+      </c>
+      <c r="F2">
+        <v>1173782</v>
+      </c>
+      <c r="G2">
+        <v>1155</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>1125</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3">
+        <v>62239543269</v>
+      </c>
+      <c r="G3">
+        <v>255005</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>1245</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1" display="P@ssw0rd"/>
+    <hyperlink ref="E3" r:id="rId2" display="P@ssw0rd"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2">
+        <v>62239543269</v>
+      </c>
+      <c r="G2">
+        <v>255005</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>2550</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E3" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="P@ssw0rd"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H14:H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2">
+        <v>112539761</v>
+      </c>
+      <c r="J2">
+        <v>8433543669</v>
+      </c>
+      <c r="K2">
+        <v>123697854</v>
+      </c>
+      <c r="L2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="18" max="20" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2">
+        <v>1686</v>
+      </c>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R2">
+        <v>112539768</v>
+      </c>
+      <c r="S2">
+        <v>843353667</v>
+      </c>
+      <c r="T2">
+        <v>117893246</v>
+      </c>
+      <c r="U2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="P@ssw0rd"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test data/TestData.xlsx
+++ b/Test data/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="110">
   <si>
     <t>Password</t>
   </si>
@@ -345,13 +345,13 @@
     <t>2018-01-01 TO 2018-02-15</t>
   </si>
   <si>
-    <t>siri189</t>
-  </si>
-  <si>
-    <t>Test_Entity256</t>
-  </si>
-  <si>
-    <t>1989/122628/76</t>
+    <t>siri196</t>
+  </si>
+  <si>
+    <t>Test_Entity266</t>
+  </si>
+  <si>
+    <t>1989/122628/86</t>
   </si>
 </sst>
 </file>
@@ -1211,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -1266,7 +1266,7 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
@@ -1278,7 +1278,7 @@
         <v>58</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
@@ -1286,12 +1286,23 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>59</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1305,7 +1316,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1373,7 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1397,7 +1408,7 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>104</v>
@@ -1619,7 +1630,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,7 +1680,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H14:H15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,7 +1808,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test data/TestData.xlsx
+++ b/Test data/TestData.xlsx
@@ -4,25 +4,32 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mercury" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
     <sheet name="Dashboard" sheetId="3" r:id="rId3"/>
     <sheet name="CollPeriodBalances_MCC" sheetId="4" r:id="rId4"/>
-    <sheet name="CollPeriodBalances_MCP" sheetId="5" r:id="rId5"/>
-    <sheet name="CollectionImport" sheetId="6" r:id="rId6"/>
-    <sheet name="PaymentImport" sheetId="7" r:id="rId7"/>
-    <sheet name="NewUser_creation" sheetId="9" r:id="rId8"/>
-    <sheet name="NewEntity_creation" sheetId="10" r:id="rId9"/>
+    <sheet name="CollPeriodBalances_MCC_Ext" sheetId="15" r:id="rId5"/>
+    <sheet name="CollPeriodBalances_MCP" sheetId="5" r:id="rId6"/>
+    <sheet name="CollPeriodBalances_MCP_Ext" sheetId="16" r:id="rId7"/>
+    <sheet name="CollectionImport" sheetId="6" r:id="rId8"/>
+    <sheet name="CollectionImport_Ext" sheetId="17" r:id="rId9"/>
+    <sheet name="PaymentImport" sheetId="7" r:id="rId10"/>
+    <sheet name="PaymentImport_Ext" sheetId="18" r:id="rId11"/>
+    <sheet name="NewUser_creation" sheetId="9" r:id="rId12"/>
+    <sheet name="NominatedPayments" sheetId="11" r:id="rId13"/>
+    <sheet name="Journals" sheetId="12" r:id="rId14"/>
+    <sheet name="Journals_Ext" sheetId="19" r:id="rId15"/>
+    <sheet name="NewEntity_creation" sheetId="10" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="146">
   <si>
     <t>Password</t>
   </si>
@@ -222,6 +229,9 @@
     <t>Surname</t>
   </si>
   <si>
+    <t>repala</t>
+  </si>
+  <si>
     <t>Designation</t>
   </si>
   <si>
@@ -339,19 +349,124 @@
     <t>CTU - CTU - ST FSP</t>
   </si>
   <si>
+    <t>2018-01-01 TO 2018-02-15</t>
+  </si>
+  <si>
+    <t>EntLnkType</t>
+  </si>
+  <si>
+    <t>AIRMS</t>
+  </si>
+  <si>
+    <t>EntityName1</t>
+  </si>
+  <si>
+    <t>Tc_07_NominatedPayments</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>DebitAmount</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>BucketID2</t>
+  </si>
+  <si>
+    <t>Amount2</t>
+  </si>
+  <si>
+    <t>Description2</t>
+  </si>
+  <si>
+    <t>Tc_08_Journals</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
-    <t>2018-01-01 TO 2018-02-15</t>
-  </si>
-  <si>
-    <t>siri196</t>
-  </si>
-  <si>
-    <t>Test_Entity266</t>
-  </si>
-  <si>
-    <t>1989/122628/86</t>
+    <t>01/02/2018 TO 15/03/2018</t>
+  </si>
+  <si>
+    <t>Tc_09_ManualcaptureCollection_Ext</t>
+  </si>
+  <si>
+    <t>anitae</t>
+  </si>
+  <si>
+    <t>Claims</t>
+  </si>
+  <si>
+    <t>Tc_10_ManualcapturePayment_Ext</t>
+  </si>
+  <si>
+    <t>Tc_11_CollectionImport_Ext</t>
+  </si>
+  <si>
+    <t>Tc_12_PaymentImport_Ext</t>
+  </si>
+  <si>
+    <t>Tc_13_Journals_Ext</t>
+  </si>
+  <si>
+    <t>Tc_14_Authorization_Collections</t>
+  </si>
+  <si>
+    <t>queenb</t>
+  </si>
+  <si>
+    <t>2018-02-01 TO 2018-03-15</t>
+  </si>
+  <si>
+    <t>siri236</t>
+  </si>
+  <si>
+    <t>Non-Insurance</t>
+  </si>
+  <si>
+    <t>Test3_Entity02</t>
+  </si>
+  <si>
+    <t>2953/298603/02</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>2953/298603/03</t>
+  </si>
+  <si>
+    <t>Test3_Entity03</t>
+  </si>
+  <si>
+    <t>Broker</t>
+  </si>
+  <si>
+    <t>Test3_Entity07</t>
+  </si>
+  <si>
+    <t>2953/298603/07</t>
+  </si>
+  <si>
+    <t>Tc_15_Recall_Collection</t>
+  </si>
+  <si>
+    <t>Tc_16_Recall_Payments</t>
+  </si>
+  <si>
+    <t>Test3_Entity16</t>
+  </si>
+  <si>
+    <t>2953/298603/16</t>
+  </si>
+  <si>
+    <t>Tc_17_Recall_Journals</t>
   </si>
 </sst>
 </file>
@@ -361,7 +476,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +518,29 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -418,7 +556,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -441,6 +579,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -449,7 +645,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -457,7 +653,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1050,637 +1286,248 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="C2" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="E3" r:id="rId5"/>
-    <hyperlink ref="E4" r:id="rId6"/>
-    <hyperlink ref="C4" r:id="rId7"/>
-    <hyperlink ref="E5" r:id="rId8"/>
-    <hyperlink ref="C5" r:id="rId9"/>
-    <hyperlink ref="E6" r:id="rId10"/>
-    <hyperlink ref="C6" r:id="rId11"/>
-    <hyperlink ref="C7" r:id="rId12"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>1173782</v>
-      </c>
-      <c r="G2">
-        <v>1155</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2">
-        <v>1125</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3">
-        <v>62239543269</v>
-      </c>
-      <c r="G3">
-        <v>255005</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3">
-        <v>1245</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="P@ssw0rd"/>
-    <hyperlink ref="E3" r:id="rId2" display="P@ssw0rd"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>62239543269</v>
-      </c>
-      <c r="G2">
-        <v>255005</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2">
-        <v>2550</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E3" s="4"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="P@ssw0rd"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,108 +1541,278 @@
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="69.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="I2" s="12">
+        <v>112539761</v>
+      </c>
+      <c r="J2" s="12">
+        <v>8433543669</v>
+      </c>
+      <c r="K2" s="12">
+        <v>123697854</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="M1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="M2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2">
-        <v>112539761</v>
-      </c>
-      <c r="J2">
-        <v>8433543669</v>
-      </c>
-      <c r="K2">
-        <v>123697854</v>
-      </c>
-      <c r="L2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" t="s">
-        <v>79</v>
-      </c>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1803,11 +1820,631 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="20">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="20">
+        <v>2000</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="20">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="20">
+        <v>200</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="20">
+        <v>200</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="22">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="22">
+        <v>300</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="22">
+        <v>300</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="20">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="20">
+        <v>200</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="20">
+        <v>200</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="22">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="22">
+        <v>300</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="22">
+        <v>300</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1829,167 +2466,2180 @@
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
     <col min="18" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="12">
+        <v>1686</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" s="12">
+        <v>112539768</v>
+      </c>
+      <c r="S2" s="12">
+        <v>843353667</v>
+      </c>
+      <c r="T2" s="12">
+        <v>117893246</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E3" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="12">
+        <v>1686</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="12">
+        <v>112539768</v>
+      </c>
+      <c r="S3" s="12">
+        <v>843353667</v>
+      </c>
+      <c r="T3" s="12">
+        <v>117893246</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Z3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="H1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H4" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I4" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J4" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="L1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="L4" s="12">
+        <v>1686</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="R1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="Q4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" s="12">
+        <v>112539768</v>
+      </c>
+      <c r="S4" s="12">
+        <v>843353667</v>
+      </c>
+      <c r="T4" s="12">
+        <v>117893246</v>
+      </c>
+      <c r="U4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="V1" t="s">
-        <v>75</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="V4" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="X1" t="s">
+      <c r="W4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="X4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1686</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="Z1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="R5" s="12">
+        <v>112539768</v>
+      </c>
+      <c r="S5" s="12">
+        <v>843353667</v>
+      </c>
+      <c r="T5" s="12">
+        <v>117893246</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="P@ssw0rd"/>
+    <hyperlink ref="E4" r:id="rId2" display="P@ssw0rd"/>
+    <hyperlink ref="E5" r:id="rId3" display="P@ssw0rd"/>
+    <hyperlink ref="E2" r:id="rId4" display="P@ssw0rd"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B2">
+      <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2">
-        <v>1686</v>
-      </c>
-      <c r="M2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" t="s">
-        <v>99</v>
-      </c>
-      <c r="P2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>100</v>
-      </c>
-      <c r="R2">
-        <v>112539768</v>
-      </c>
-      <c r="S2">
-        <v>843353667</v>
-      </c>
-      <c r="T2">
-        <v>117893246</v>
-      </c>
-      <c r="U2" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" t="s">
-        <v>76</v>
-      </c>
-      <c r="W2" t="s">
-        <v>78</v>
-      </c>
-      <c r="X2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>103</v>
-      </c>
+      <c r="C7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6"/>
+    <hyperlink ref="C4" r:id="rId7"/>
+    <hyperlink ref="E5" r:id="rId8"/>
+    <hyperlink ref="C5" r:id="rId9"/>
+    <hyperlink ref="E6" r:id="rId10"/>
+    <hyperlink ref="C6" r:id="rId11"/>
+    <hyperlink ref="C7" r:id="rId12"/>
+    <hyperlink ref="E8" r:id="rId13"/>
+    <hyperlink ref="C8" r:id="rId14"/>
+    <hyperlink ref="E9" r:id="rId15"/>
+    <hyperlink ref="C9" r:id="rId16"/>
+    <hyperlink ref="E10" r:id="rId17"/>
+    <hyperlink ref="C10" r:id="rId18"/>
+    <hyperlink ref="E11" r:id="rId19"/>
+    <hyperlink ref="C11" r:id="rId20"/>
+    <hyperlink ref="E12" r:id="rId21"/>
+    <hyperlink ref="C12" r:id="rId22"/>
+    <hyperlink ref="E13" r:id="rId23"/>
+    <hyperlink ref="C13" r:id="rId24"/>
+    <hyperlink ref="E14" r:id="rId25"/>
+    <hyperlink ref="C14" r:id="rId26"/>
+    <hyperlink ref="E15" r:id="rId27"/>
+    <hyperlink ref="C15" r:id="rId28"/>
+    <hyperlink ref="E16" r:id="rId29"/>
+    <hyperlink ref="C16" r:id="rId30"/>
+    <hyperlink ref="E17" r:id="rId31"/>
+    <hyperlink ref="C17" r:id="rId32"/>
+    <hyperlink ref="E18" r:id="rId33"/>
+    <hyperlink ref="C18" r:id="rId34"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="12">
+        <v>1173782</v>
+      </c>
+      <c r="H2" s="12">
+        <v>1155</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="12">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1173782</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1155</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1100</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="P@ssw0rd"/>
+    <hyperlink ref="F3" r:id="rId2" display="P@ssw0rd"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="12">
+        <v>1173782</v>
+      </c>
+      <c r="H2" s="12">
+        <v>1155</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="12">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1173782</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1155</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1100</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="P@ssw0rd"/>
+    <hyperlink ref="F3" r:id="rId2" display="P@ssw0rd"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="12">
+        <v>1173782</v>
+      </c>
+      <c r="H2" s="12">
+        <v>1155</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="12">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="P@ssw0rd"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1173782</v>
+      </c>
+      <c r="G2" s="12">
+        <v>1155</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1997,4 +4647,223 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test data/TestData.xlsx
+++ b/Test data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="24" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Mercury" sheetId="1" r:id="rId1"/>
@@ -45,14 +45,15 @@
     <sheet name="Journals_Ext_MUMD" sheetId="40" r:id="rId36"/>
     <sheet name="Journals_Ext_SUMD" sheetId="41" r:id="rId37"/>
     <sheet name="NewEntity_creation" sheetId="10" r:id="rId38"/>
-    <sheet name="ISOPAIN" sheetId="51" r:id="rId39"/>
+    <sheet name="BankAccountCreation" sheetId="52" r:id="rId39"/>
+    <sheet name="ISOPAIN" sheetId="51" r:id="rId40"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="226">
   <si>
     <t>Password</t>
   </si>
@@ -624,64 +625,112 @@
     <t>User_Descriptiom</t>
   </si>
   <si>
-    <t>ShortDesp_Name</t>
-  </si>
-  <si>
-    <t>LongDesp_Name</t>
-  </si>
-  <si>
-    <t>IPADD_Name</t>
-  </si>
-  <si>
-    <t>172.20.92.22</t>
-  </si>
-  <si>
-    <t>TESTER1231211</t>
-  </si>
-  <si>
-    <t>TESTER1121121</t>
-  </si>
-  <si>
     <t>Internal</t>
   </si>
   <si>
-    <t>Authorization_Transactions</t>
-  </si>
-  <si>
     <t>patriciam</t>
   </si>
   <si>
-    <t>Test3_Entity23</t>
-  </si>
-  <si>
-    <t>2953/298619/16</t>
-  </si>
-  <si>
     <t>suem</t>
   </si>
   <si>
-    <t>siri1433</t>
-  </si>
-  <si>
-    <t>SQL Test1</t>
-  </si>
-  <si>
     <t>Environment</t>
   </si>
   <si>
     <t>Client</t>
   </si>
   <si>
-    <t>Xcelerate</t>
-  </si>
-  <si>
     <t>Abc</t>
   </si>
   <si>
-    <t>Xcelerate_SMI-28802</t>
-  </si>
-  <si>
     <t>Insure group</t>
+  </si>
+  <si>
+    <t>Xcelerate_UAT</t>
+  </si>
+  <si>
+    <t>08433543667</t>
+  </si>
+  <si>
+    <t>AccountDesp</t>
+  </si>
+  <si>
+    <t>SubAcc</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>B2BUser</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Test10 - Test01</t>
+  </si>
+  <si>
+    <t>Test101 - Test011</t>
+  </si>
+  <si>
+    <t>Test102 - Test012</t>
+  </si>
+  <si>
+    <t>Test12 - Test023</t>
+  </si>
+  <si>
+    <t>Test14 - Test024</t>
+  </si>
+  <si>
+    <t>SubAc - Sub Account 1</t>
+  </si>
+  <si>
+    <t>255005</t>
+  </si>
+  <si>
+    <t>TESTE111R116</t>
+  </si>
+  <si>
+    <t>ACBUserCode</t>
+  </si>
+  <si>
+    <t>FTPUsername</t>
+  </si>
+  <si>
+    <t>FTPPassword</t>
+  </si>
+  <si>
+    <t>L099</t>
+  </si>
+  <si>
+    <t>2953/298601/06</t>
+  </si>
+  <si>
+    <t>siri1000</t>
+  </si>
+  <si>
+    <t>Test3_Entity41</t>
+  </si>
+  <si>
+    <t>2953/281941/16</t>
+  </si>
+  <si>
+    <t>Xcelerate_SMI-28858</t>
+  </si>
+  <si>
+    <t>Test044</t>
+  </si>
+  <si>
+    <t>SQL Test44</t>
+  </si>
+  <si>
+    <t>Test44</t>
+  </si>
+  <si>
+    <t>Test44 - Test044</t>
   </si>
 </sst>
 </file>
@@ -691,7 +740,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,8 +805,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,6 +822,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,7 +1010,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1020,14 +1081,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1040,6 +1095,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1633,7 +1693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -4586,10 +4646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N92" sqref="N92"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4616,14 +4676,14 @@
       <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>205</v>
+      <c r="F1" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4639,11 +4699,11 @@
       <c r="D2" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>42</v>
@@ -4662,14 +4722,14 @@
       <c r="D3" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4685,7 +4745,7 @@
       <c r="D4" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="7"/>
@@ -4704,7 +4764,7 @@
       <c r="D5" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="7"/>
@@ -4721,13 +4781,17 @@
         <v>37</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -4742,10 +4806,12 @@
       <c r="D7" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4761,7 +4827,7 @@
       <c r="D8" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="7"/>
@@ -4780,7 +4846,7 @@
       <c r="D9" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="7"/>
@@ -4799,7 +4865,7 @@
       <c r="D10" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="7"/>
@@ -4818,7 +4884,7 @@
       <c r="D11" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="7"/>
@@ -4837,7 +4903,7 @@
       <c r="D12" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="7"/>
@@ -4856,7 +4922,7 @@
       <c r="D13" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="7"/>
@@ -4875,7 +4941,7 @@
       <c r="D14" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="7"/>
@@ -4894,7 +4960,7 @@
       <c r="D15" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="7"/>
@@ -4913,7 +4979,7 @@
       <c r="D16" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="7"/>
@@ -4932,7 +4998,7 @@
       <c r="D17" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="7"/>
@@ -4951,7 +5017,7 @@
       <c r="D18" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="7"/>
@@ -4970,7 +5036,7 @@
       <c r="D19" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="7"/>
@@ -4989,7 +5055,7 @@
       <c r="D20" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="7"/>
@@ -5008,7 +5074,7 @@
       <c r="D21" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="7"/>
@@ -5027,7 +5093,7 @@
       <c r="D22" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="7"/>
@@ -5044,9 +5110,9 @@
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="7"/>
@@ -5065,7 +5131,7 @@
       <c r="D24" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="7"/>
@@ -5084,7 +5150,7 @@
       <c r="D25" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="7"/>
@@ -5103,7 +5169,7 @@
       <c r="D26" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="7"/>
@@ -5122,7 +5188,7 @@
       <c r="D27" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F27" s="7"/>
@@ -5141,7 +5207,7 @@
       <c r="D28" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F28" s="7"/>
@@ -5158,9 +5224,9 @@
         <v>37</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="7"/>
@@ -5179,7 +5245,7 @@
       <c r="D30" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="7"/>
@@ -5198,7 +5264,7 @@
       <c r="D31" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="7"/>
@@ -5217,7 +5283,7 @@
       <c r="D32" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="7"/>
@@ -5236,7 +5302,7 @@
       <c r="D33" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="7"/>
@@ -5255,7 +5321,7 @@
       <c r="D34" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="7"/>
@@ -5274,7 +5340,7 @@
       <c r="D35" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="7"/>
@@ -5293,7 +5359,7 @@
       <c r="D36" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="51" t="s">
+      <c r="E36" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="7"/>
@@ -5310,9 +5376,9 @@
         <v>37</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E37" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F37" s="7"/>
@@ -5331,7 +5397,7 @@
       <c r="D38" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E38" s="50" t="s">
+      <c r="E38" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="7"/>
@@ -5350,7 +5416,7 @@
       <c r="D39" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="E39" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F39" s="7"/>
@@ -5369,7 +5435,7 @@
       <c r="D40" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F40" s="7"/>
@@ -5388,7 +5454,7 @@
       <c r="D41" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E41" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="7"/>
@@ -5407,7 +5473,7 @@
       <c r="D42" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E42" s="50" t="s">
+      <c r="E42" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F42" s="7"/>
@@ -5426,7 +5492,7 @@
       <c r="D43" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E43" s="51" t="s">
+      <c r="E43" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="7"/>
@@ -5443,9 +5509,9 @@
         <v>37</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E44" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F44" s="7"/>
@@ -5464,7 +5530,7 @@
       <c r="D45" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="E45" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F45" s="7"/>
@@ -5483,7 +5549,7 @@
       <c r="D46" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E46" s="50" t="s">
+      <c r="E46" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F46" s="7"/>
@@ -5502,7 +5568,7 @@
       <c r="D47" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="E47" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F47" s="7"/>
@@ -5521,7 +5587,7 @@
       <c r="D48" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E48" s="50" t="s">
+      <c r="E48" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F48" s="7"/>
@@ -5540,7 +5606,7 @@
       <c r="D49" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E49" s="50" t="s">
+      <c r="E49" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F49" s="7"/>
@@ -5559,7 +5625,7 @@
       <c r="D50" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="51" t="s">
+      <c r="E50" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F50" s="7"/>
@@ -5576,9 +5642,9 @@
         <v>37</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E51" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F51" s="7"/>
@@ -5597,7 +5663,7 @@
       <c r="D52" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E52" s="50" t="s">
+      <c r="E52" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F52" s="7"/>
@@ -5616,7 +5682,7 @@
       <c r="D53" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E53" s="50" t="s">
+      <c r="E53" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F53" s="7"/>
@@ -5635,7 +5701,7 @@
       <c r="D54" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E54" s="50" t="s">
+      <c r="E54" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F54" s="7"/>
@@ -5654,7 +5720,7 @@
       <c r="D55" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E55" s="50" t="s">
+      <c r="E55" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F55" s="7"/>
@@ -5673,7 +5739,7 @@
       <c r="D56" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E56" s="50" t="s">
+      <c r="E56" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F56" s="7"/>
@@ -5692,7 +5758,7 @@
       <c r="D57" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E57" s="51" t="s">
+      <c r="E57" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="7"/>
@@ -5709,9 +5775,9 @@
         <v>37</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E58" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="7"/>
@@ -5730,7 +5796,7 @@
       <c r="D59" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E59" s="50" t="s">
+      <c r="E59" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="7"/>
@@ -5749,7 +5815,7 @@
       <c r="D60" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E60" s="50" t="s">
+      <c r="E60" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="7"/>
@@ -5768,7 +5834,7 @@
       <c r="D61" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E61" s="50" t="s">
+      <c r="E61" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F61" s="7"/>
@@ -5787,7 +5853,7 @@
       <c r="D62" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E62" s="50" t="s">
+      <c r="E62" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F62" s="7"/>
@@ -5806,7 +5872,7 @@
       <c r="D63" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E63" s="50" t="s">
+      <c r="E63" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F63" s="7"/>
@@ -5825,7 +5891,7 @@
       <c r="D64" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E64" s="51" t="s">
+      <c r="E64" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F64" s="7"/>
@@ -5844,7 +5910,7 @@
       <c r="D65" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E65" s="50" t="s">
+      <c r="E65" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F65" s="7"/>
@@ -5863,7 +5929,7 @@
       <c r="D66" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E66" s="50" t="s">
+      <c r="E66" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F66" s="7"/>
@@ -5882,7 +5948,7 @@
       <c r="D67" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E67" s="50" t="s">
+      <c r="E67" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F67" s="7"/>
@@ -5901,7 +5967,7 @@
       <c r="D68" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E68" s="50" t="s">
+      <c r="E68" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F68" s="7"/>
@@ -5920,7 +5986,7 @@
       <c r="D69" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E69" s="50" t="s">
+      <c r="E69" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F69" s="7"/>
@@ -5939,7 +6005,7 @@
       <c r="D70" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E70" s="50" t="s">
+      <c r="E70" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F70" s="7"/>
@@ -5958,7 +6024,7 @@
       <c r="D71" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E71" s="51" t="s">
+      <c r="E71" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F71" s="7"/>
@@ -5977,7 +6043,7 @@
       <c r="D72" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E72" s="50" t="s">
+      <c r="E72" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F72" s="7"/>
@@ -5996,7 +6062,7 @@
       <c r="D73" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E73" s="50" t="s">
+      <c r="E73" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F73" s="7"/>
@@ -6015,7 +6081,7 @@
       <c r="D74" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E74" s="50" t="s">
+      <c r="E74" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F74" s="7"/>
@@ -6034,7 +6100,7 @@
       <c r="D75" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E75" s="50" t="s">
+      <c r="E75" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F75" s="7"/>
@@ -6053,7 +6119,7 @@
       <c r="D76" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E76" s="50" t="s">
+      <c r="E76" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F76" s="7"/>
@@ -6072,7 +6138,7 @@
       <c r="D77" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E77" s="50" t="s">
+      <c r="E77" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F77" s="7"/>
@@ -6091,7 +6157,7 @@
       <c r="D78" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E78" s="50" t="s">
+      <c r="E78" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F78" s="7"/>
@@ -6110,7 +6176,7 @@
       <c r="D79" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E79" s="51" t="s">
+      <c r="E79" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="7"/>
@@ -6129,7 +6195,7 @@
       <c r="D80" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E80" s="50" t="s">
+      <c r="E80" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F80" s="7"/>
@@ -6148,7 +6214,7 @@
       <c r="D81" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E81" s="50" t="s">
+      <c r="E81" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F81" s="7"/>
@@ -6167,7 +6233,7 @@
       <c r="D82" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E82" s="50" t="s">
+      <c r="E82" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F82" s="7"/>
@@ -6186,7 +6252,7 @@
       <c r="D83" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E83" s="50" t="s">
+      <c r="E83" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F83" s="7"/>
@@ -6205,7 +6271,7 @@
       <c r="D84" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E84" s="50" t="s">
+      <c r="E84" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F84" s="7"/>
@@ -6224,7 +6290,7 @@
       <c r="D85" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E85" s="50" t="s">
+      <c r="E85" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F85" s="7"/>
@@ -6243,7 +6309,7 @@
       <c r="D86" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E86" s="51" t="s">
+      <c r="E86" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F86" s="7"/>
@@ -6262,7 +6328,7 @@
       <c r="D87" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E87" s="50" t="s">
+      <c r="E87" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F87" s="7"/>
@@ -6281,7 +6347,7 @@
       <c r="D88" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E88" s="50" t="s">
+      <c r="E88" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F88" s="7"/>
@@ -6300,7 +6366,7 @@
       <c r="D89" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E89" s="50" t="s">
+      <c r="E89" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F89" s="7"/>
@@ -6319,7 +6385,7 @@
       <c r="D90" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E90" s="50" t="s">
+      <c r="E90" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F90" s="7"/>
@@ -6338,7 +6404,7 @@
       <c r="D91" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E91" s="50" t="s">
+      <c r="E91" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F91" s="7"/>
@@ -6357,7 +6423,7 @@
       <c r="D92" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E92" s="50" t="s">
+      <c r="E92" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F92" s="7"/>
@@ -6376,7 +6442,7 @@
       <c r="D93" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E93" s="51" t="s">
+      <c r="E93" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F93" s="7"/>
@@ -6395,7 +6461,7 @@
       <c r="D94" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E94" s="50" t="s">
+      <c r="E94" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F94" s="7"/>
@@ -6414,7 +6480,7 @@
       <c r="D95" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E95" s="50" t="s">
+      <c r="E95" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F95" s="7"/>
@@ -6433,13 +6499,13 @@
       <c r="D96" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E96" s="50" t="s">
+      <c r="E96" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>171</v>
       </c>
@@ -6452,13 +6518,13 @@
       <c r="D97" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E97" s="50" t="s">
+      <c r="E97" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>172</v>
       </c>
@@ -6471,13 +6537,13 @@
       <c r="D98" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E98" s="50" t="s">
+      <c r="E98" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>184</v>
       </c>
@@ -6490,34 +6556,18 @@
       <c r="D99" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E99" s="52" t="s">
+      <c r="E99" s="50" t="s">
         <v>16</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H99" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B100" s="42">
-        <v>1</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E100" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6716,8 +6766,6 @@
     <hyperlink ref="E98" r:id="rId193"/>
     <hyperlink ref="C98" r:id="rId194"/>
     <hyperlink ref="E99" r:id="rId195"/>
-    <hyperlink ref="E100" r:id="rId196"/>
-    <hyperlink ref="C100" r:id="rId197"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7668,7 +7716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -8119,7 +8167,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8133,7 +8181,7 @@
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="55" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -8170,7 +8218,7 @@
       <c r="I1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="52" t="s">
         <v>70</v>
       </c>
       <c r="K1" s="14" t="s">
@@ -8203,7 +8251,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>64</v>
@@ -8217,8 +8265,8 @@
       <c r="I2" s="11">
         <v>112539761</v>
       </c>
-      <c r="J2" s="11">
-        <v>8433543669</v>
+      <c r="J2" s="53" t="s">
+        <v>198</v>
       </c>
       <c r="K2" s="11">
         <v>123697854</v>
@@ -8246,7 +8294,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="J3" s="54"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -8263,7 +8311,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="J4" s="54"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -8280,7 +8328,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="54"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -8297,7 +8345,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="J6" s="54"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -8314,7 +8362,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -8331,7 +8379,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="54"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -8348,7 +8396,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="J9" s="54"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -8365,7 +8413,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="J10" s="54"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -8382,7 +8430,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="J11" s="54"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -8399,7 +8447,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="J12" s="54"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -9767,10 +9815,10 @@
       <c r="D1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="45" t="s">
         <v>44</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -11593,16 +11641,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>82</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>86</v>
@@ -12152,137 +12200,520 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="J1" s="44"/>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="21">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="J2" s="37"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="21">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="21">
-        <v>3</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="37"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="21">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="21">
-        <v>6</v>
-      </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="37"/>
+      <c r="C1" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="11">
+        <v>1686</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="R2" s="11">
+        <v>112539768</v>
+      </c>
+      <c r="S2" s="11">
+        <v>843353667</v>
+      </c>
+      <c r="T2" s="11">
+        <v>117893246</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="P@ssw0rd"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12677,6 +13108,257 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="J2" s="20">
+        <v>62239543269</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="21">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="21">
+        <v>3</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="21">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="21">
+        <v>6</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="N4" s="39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="39" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Test data/TestData.xlsx
+++ b/Test data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="24" activeTab="24"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mercury" sheetId="1" r:id="rId1"/>
@@ -47,13 +47,14 @@
     <sheet name="NewEntity_creation" sheetId="10" r:id="rId38"/>
     <sheet name="BankAccountCreation" sheetId="52" r:id="rId39"/>
     <sheet name="ISOPAIN" sheetId="51" r:id="rId40"/>
+    <sheet name="FeeRun" sheetId="53" r:id="rId41"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="256">
   <si>
     <t>Password</t>
   </si>
@@ -697,18 +698,6 @@
     <t>ACBUserCode</t>
   </si>
   <si>
-    <t>FTPUsername</t>
-  </si>
-  <si>
-    <t>FTPPassword</t>
-  </si>
-  <si>
-    <t>L099</t>
-  </si>
-  <si>
-    <t>2953/298601/06</t>
-  </si>
-  <si>
     <t>siri1000</t>
   </si>
   <si>
@@ -718,19 +707,121 @@
     <t>2953/281941/16</t>
   </si>
   <si>
-    <t>Xcelerate_SMI-28858</t>
-  </si>
-  <si>
-    <t>Test044</t>
-  </si>
-  <si>
-    <t>SQL Test44</t>
-  </si>
-  <si>
-    <t>Test44</t>
-  </si>
-  <si>
-    <t>Test44 - Test044</t>
+    <t>Test45 - Test045</t>
+  </si>
+  <si>
+    <t>Tc_23_FeeTest</t>
+  </si>
+  <si>
+    <t>theab</t>
+  </si>
+  <si>
+    <t>Month_Name</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>FTPUserName</t>
+  </si>
+  <si>
+    <t>FTPPWD</t>
+  </si>
+  <si>
+    <t>Linga</t>
+  </si>
+  <si>
+    <t>ACBUserID</t>
+  </si>
+  <si>
+    <t>DebTransLim</t>
+  </si>
+  <si>
+    <t>DebAgreeLim</t>
+  </si>
+  <si>
+    <t>CreTransLim</t>
+  </si>
+  <si>
+    <t>CreAgreeLim</t>
+  </si>
+  <si>
+    <t>UserCode</t>
+  </si>
+  <si>
+    <t>001155</t>
+  </si>
+  <si>
+    <t>ServiceId</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>ServiceTypeId</t>
+  </si>
+  <si>
+    <t>Same Day</t>
+  </si>
+  <si>
+    <t>NAEDO</t>
+  </si>
+  <si>
+    <t>Realtime</t>
+  </si>
+  <si>
+    <t>Corp SSV</t>
+  </si>
+  <si>
+    <t>Real-Time gross settlement (payment greater than R5mil)</t>
+  </si>
+  <si>
+    <t>ServiceId1</t>
+  </si>
+  <si>
+    <t>ServiceTypeId1</t>
+  </si>
+  <si>
+    <t>2018-03-01 TO 2018-04-15</t>
+  </si>
+  <si>
+    <t>2018-03-01 TO 2018-04-16</t>
+  </si>
+  <si>
+    <t>2018-03-01 TO 2018-04-17</t>
+  </si>
+  <si>
+    <t>2018-03-01 TO 2018-04-18</t>
+  </si>
+  <si>
+    <t>2018-03-01 TO 2018-04-19</t>
+  </si>
+  <si>
+    <t>01/04/2018 TO 15/05/2018</t>
+  </si>
+  <si>
+    <t>Tc_22_ISOPAIN_Fintegrate_Project</t>
+  </si>
+  <si>
+    <t>Test048</t>
+  </si>
+  <si>
+    <t>SQL Test48</t>
+  </si>
+  <si>
+    <t>Test48</t>
+  </si>
+  <si>
+    <t>Test48 - Test048</t>
+  </si>
+  <si>
+    <t>L130</t>
+  </si>
+  <si>
+    <t>Tc_14_Reports_Module</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1190,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1694,7 +1785,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,8 +1863,8 @@
       <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>126</v>
+      <c r="E2" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -1968,6 +2059,7 @@
     <hyperlink ref="F2" r:id="rId1" display="P@ssw0rd"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1976,7 +2068,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,8 +2151,8 @@
         <v>103</v>
       </c>
       <c r="E2" s="28"/>
-      <c r="F2" s="28" t="s">
-        <v>126</v>
+      <c r="F2" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>45</v>
@@ -2104,8 +2196,8 @@
       <c r="E3" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>126</v>
+      <c r="F3" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>45</v>
@@ -2151,8 +2243,8 @@
       <c r="E4" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>126</v>
+      <c r="F4" s="36" t="s">
+        <v>244</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>45</v>
@@ -2196,8 +2288,8 @@
         <v>103</v>
       </c>
       <c r="E5" s="29"/>
-      <c r="F5" s="28" t="s">
-        <v>126</v>
+      <c r="F5" s="36" t="s">
+        <v>245</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>45</v>
@@ -2241,8 +2333,8 @@
       <c r="E6" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>126</v>
+      <c r="F6" s="36" t="s">
+        <v>246</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>45</v>
@@ -2286,8 +2378,8 @@
         <v>103</v>
       </c>
       <c r="E7" s="29"/>
-      <c r="F7" s="28" t="s">
-        <v>126</v>
+      <c r="F7" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>45</v>
@@ -2480,7 +2572,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2572,8 +2664,8 @@
       <c r="F2" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>126</v>
+      <c r="G2" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>45</v>
@@ -2620,8 +2712,8 @@
         <v>103</v>
       </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="28" t="s">
-        <v>126</v>
+      <c r="G3" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>45</v>
@@ -2666,8 +2758,8 @@
         <v>175</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="28" t="s">
-        <v>126</v>
+      <c r="G4" s="36" t="s">
+        <v>244</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>174</v>
@@ -2714,8 +2806,8 @@
         <v>103</v>
       </c>
       <c r="F5" s="29"/>
-      <c r="G5" s="28" t="s">
-        <v>126</v>
+      <c r="G5" s="36" t="s">
+        <v>245</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>45</v>
@@ -2762,8 +2854,8 @@
       <c r="F6" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>126</v>
+      <c r="G6" s="36" t="s">
+        <v>246</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>45</v>
@@ -2810,8 +2902,8 @@
         <v>103</v>
       </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="28" t="s">
-        <v>126</v>
+      <c r="G7" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>45</v>
@@ -2856,8 +2948,8 @@
         <v>180</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="28" t="s">
-        <v>126</v>
+      <c r="G8" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>181</v>
@@ -2901,7 +2993,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2972,8 +3064,8 @@
       <c r="C2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>126</v>
+      <c r="D2" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>45</v>
@@ -3005,7 +3097,9 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="D3" s="36" t="s">
+        <v>243</v>
+      </c>
       <c r="E3" s="9"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -3020,7 +3114,9 @@
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="36" t="s">
+        <v>244</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -3035,7 +3131,9 @@
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="36" t="s">
+        <v>245</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -3050,7 +3148,9 @@
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="36" t="s">
+        <v>246</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -3065,7 +3165,9 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="D7" s="36" t="s">
+        <v>247</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -3164,7 +3266,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G7"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3235,8 +3337,8 @@
       <c r="C2" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>126</v>
+      <c r="D2" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>45</v>
@@ -3276,8 +3378,8 @@
       <c r="C3" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>126</v>
+      <c r="D3" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>45</v>
@@ -3317,8 +3419,8 @@
       <c r="C4" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>126</v>
+      <c r="D4" s="36" t="s">
+        <v>244</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>45</v>
@@ -3358,8 +3460,8 @@
       <c r="C5" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>126</v>
+      <c r="D5" s="36" t="s">
+        <v>245</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>45</v>
@@ -3399,8 +3501,8 @@
       <c r="C6" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>126</v>
+      <c r="D6" s="36" t="s">
+        <v>246</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>45</v>
@@ -3440,8 +3542,8 @@
       <c r="C7" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>126</v>
+      <c r="D7" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>45</v>
@@ -3564,7 +3666,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H7"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3633,8 +3735,8 @@
       <c r="D2" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>126</v>
+      <c r="E2" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -3677,8 +3779,8 @@
       <c r="D3" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>126</v>
+      <c r="E3" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>45</v>
@@ -3721,8 +3823,8 @@
       <c r="D4" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>126</v>
+      <c r="E4" s="36" t="s">
+        <v>244</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>45</v>
@@ -3765,8 +3867,8 @@
       <c r="D5" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>126</v>
+      <c r="E5" s="36" t="s">
+        <v>245</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>45</v>
@@ -3809,8 +3911,8 @@
       <c r="D6" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>126</v>
+      <c r="E6" s="36" t="s">
+        <v>246</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>45</v>
@@ -3853,8 +3955,8 @@
       <c r="D7" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>126</v>
+      <c r="E7" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>45</v>
@@ -4003,7 +4105,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4054,8 +4156,8 @@
       <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>126</v>
+      <c r="E2" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -4064,35 +4166,45 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="36" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="36" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="36" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="36" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="36" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -4125,7 +4237,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4174,8 +4286,8 @@
       <c r="E2" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>126</v>
+      <c r="F2" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4192,8 +4304,8 @@
         <v>103</v>
       </c>
       <c r="E3" s="29"/>
-      <c r="F3" s="28" t="s">
-        <v>126</v>
+      <c r="F3" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4212,8 +4324,8 @@
       <c r="E4" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>126</v>
+      <c r="F4" s="36" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4230,8 +4342,8 @@
         <v>103</v>
       </c>
       <c r="E5" s="29"/>
-      <c r="F5" s="28" t="s">
-        <v>126</v>
+      <c r="F5" s="36" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4250,8 +4362,8 @@
       <c r="E6" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>126</v>
+      <c r="F6" s="36" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4268,8 +4380,8 @@
         <v>103</v>
       </c>
       <c r="E7" s="29"/>
-      <c r="F7" s="28" t="s">
-        <v>126</v>
+      <c r="F7" s="36" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4306,7 +4418,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4360,8 +4472,8 @@
       <c r="F2" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>126</v>
+      <c r="G2" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4381,8 +4493,8 @@
         <v>103</v>
       </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="28" t="s">
-        <v>126</v>
+      <c r="G3" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4404,8 +4516,8 @@
       <c r="F4" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>126</v>
+      <c r="G4" s="36" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4425,8 +4537,8 @@
         <v>103</v>
       </c>
       <c r="F5" s="29"/>
-      <c r="G5" s="28" t="s">
-        <v>126</v>
+      <c r="G5" s="36" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4448,8 +4560,8 @@
       <c r="F6" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>126</v>
+      <c r="G6" s="36" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4469,8 +4581,8 @@
         <v>103</v>
       </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="28" t="s">
-        <v>126</v>
+      <c r="G7" s="36" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4552,7 +4664,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4587,39 +4699,49 @@
       <c r="C2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>126</v>
+      <c r="D2" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="D3" s="36" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="36" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="36" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="36" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="D7" s="36" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -4646,10 +4768,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4930,7 +5052,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>123</v>
+        <v>255</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
@@ -4939,7 +5061,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="E14" s="48" t="s">
         <v>16</v>
@@ -4948,19 +5070,19 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" s="49" t="s">
+      <c r="D15" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="7"/>
@@ -4968,7 +5090,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="7">
         <v>1</v>
@@ -4985,9 +5107,9 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
@@ -5004,9 +5126,9 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
@@ -5014,8 +5136,8 @@
       <c r="C18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>118</v>
+      <c r="D18" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="E18" s="49" t="s">
         <v>16</v>
@@ -5023,9 +5145,9 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="7">
         <v>1</v>
@@ -5042,9 +5164,9 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="7">
         <v>1</v>
@@ -5061,9 +5183,9 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B21" s="7">
         <v>1</v>
@@ -5072,7 +5194,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="E21" s="49" t="s">
         <v>16</v>
@@ -5080,75 +5202,82 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="11">
-        <v>1</v>
-      </c>
-      <c r="C22" s="12" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E22" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="11">
-        <v>2</v>
-      </c>
-      <c r="C23" s="12" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" s="42">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B24" s="11">
-        <v>3</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="48" t="s">
+      <c r="D24" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>149</v>
       </c>
       <c r="B25" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E25" s="48" t="s">
         <v>16</v>
@@ -5156,18 +5285,18 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>149</v>
       </c>
       <c r="B26" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>143</v>
+      <c r="D26" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="E26" s="48" t="s">
         <v>16</v>
@@ -5175,18 +5304,18 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>149</v>
       </c>
       <c r="B27" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E27" s="48" t="s">
         <v>16</v>
@@ -5194,18 +5323,18 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B28" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E28" s="48" t="s">
         <v>16</v>
@@ -5213,37 +5342,37 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="7">
-        <v>1</v>
-      </c>
-      <c r="C29" s="9" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="11">
+        <v>5</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" s="49" t="s">
+      <c r="D29" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B30" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>125</v>
+      <c r="D30" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="E30" s="48" t="s">
         <v>16</v>
@@ -5251,18 +5380,18 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B31" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E31" s="48" t="s">
         <v>16</v>
@@ -5270,20 +5399,20 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="11">
-        <v>4</v>
-      </c>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="48" t="s">
+      <c r="D32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="7"/>
@@ -5294,13 +5423,13 @@
         <v>153</v>
       </c>
       <c r="B33" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>143</v>
+      <c r="D33" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="E33" s="48" t="s">
         <v>16</v>
@@ -5313,13 +5442,13 @@
         <v>153</v>
       </c>
       <c r="B34" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E34" s="48" t="s">
         <v>16</v>
@@ -5329,16 +5458,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E35" s="48" t="s">
         <v>16</v>
@@ -5347,36 +5476,36 @@
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36" s="7">
-        <v>1</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="A36" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="11">
+        <v>5</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" s="49" t="s">
+      <c r="D36" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>155</v>
+      <c r="A37" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="B37" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>191</v>
+      <c r="D37" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="E37" s="48" t="s">
         <v>16</v>
@@ -5385,17 +5514,17 @@
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>155</v>
+      <c r="A38" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="B38" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E38" s="48" t="s">
         <v>16</v>
@@ -5407,16 +5536,16 @@
       <c r="A39" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B39" s="11">
-        <v>4</v>
-      </c>
-      <c r="C39" s="12" t="s">
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E39" s="48" t="s">
+      <c r="D39" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F39" s="7"/>
@@ -5427,13 +5556,13 @@
         <v>155</v>
       </c>
       <c r="B40" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>143</v>
+      <c r="D40" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="E40" s="48" t="s">
         <v>16</v>
@@ -5446,13 +5575,13 @@
         <v>155</v>
       </c>
       <c r="B41" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E41" s="48" t="s">
         <v>16</v>
@@ -5461,17 +5590,17 @@
       <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>156</v>
+      <c r="A42" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="B42" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E42" s="48" t="s">
         <v>16</v>
@@ -5481,35 +5610,35 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B43" s="7">
-        <v>1</v>
-      </c>
-      <c r="C43" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="11">
+        <v>5</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="49" t="s">
+      <c r="D43" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>157</v>
+      <c r="A44" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="B44" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>191</v>
+      <c r="D44" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="E44" s="48" t="s">
         <v>16</v>
@@ -5519,16 +5648,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B45" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E45" s="48" t="s">
         <v>16</v>
@@ -5537,19 +5666,19 @@
       <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="11">
-        <v>4</v>
-      </c>
-      <c r="C46" s="12" t="s">
+      <c r="B46" s="7">
+        <v>1</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="48" t="s">
+      <c r="D46" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F46" s="7"/>
@@ -5560,13 +5689,13 @@
         <v>157</v>
       </c>
       <c r="B47" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>143</v>
+      <c r="D47" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="E47" s="48" t="s">
         <v>16</v>
@@ -5579,13 +5708,13 @@
         <v>157</v>
       </c>
       <c r="B48" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E48" s="48" t="s">
         <v>16</v>
@@ -5595,16 +5724,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B49" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E49" s="48" t="s">
         <v>16</v>
@@ -5613,36 +5742,36 @@
       <c r="G49" s="7"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B50" s="7">
-        <v>1</v>
-      </c>
-      <c r="C50" s="9" t="s">
+      <c r="A50" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="11">
+        <v>5</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E50" s="49" t="s">
+      <c r="D50" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>159</v>
+      <c r="A51" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="B51" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>191</v>
+      <c r="D51" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="E51" s="48" t="s">
         <v>16</v>
@@ -5651,17 +5780,17 @@
       <c r="G51" s="7"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>159</v>
+      <c r="A52" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="B52" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E52" s="48" t="s">
         <v>16</v>
@@ -5673,16 +5802,16 @@
       <c r="A53" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B53" s="11">
-        <v>4</v>
-      </c>
-      <c r="C53" s="12" t="s">
+      <c r="B53" s="7">
+        <v>1</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E53" s="48" t="s">
+      <c r="D53" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F53" s="7"/>
@@ -5693,13 +5822,13 @@
         <v>159</v>
       </c>
       <c r="B54" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>143</v>
+      <c r="D54" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="E54" s="48" t="s">
         <v>16</v>
@@ -5712,13 +5841,13 @@
         <v>159</v>
       </c>
       <c r="B55" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E55" s="48" t="s">
         <v>16</v>
@@ -5728,16 +5857,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B56" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E56" s="48" t="s">
         <v>16</v>
@@ -5747,18 +5876,18 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B57" s="7">
-        <v>1</v>
-      </c>
-      <c r="C57" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="11">
+        <v>5</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E57" s="49" t="s">
+      <c r="D57" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="7"/>
@@ -5766,16 +5895,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B58" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>191</v>
+      <c r="D58" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="E58" s="48" t="s">
         <v>16</v>
@@ -5785,16 +5914,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B59" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E59" s="48" t="s">
         <v>16</v>
@@ -5806,16 +5935,16 @@
       <c r="A60" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B60" s="11">
-        <v>4</v>
-      </c>
-      <c r="C60" s="12" t="s">
+      <c r="B60" s="7">
+        <v>1</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E60" s="48" t="s">
+      <c r="D60" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="7"/>
@@ -5826,13 +5955,13 @@
         <v>161</v>
       </c>
       <c r="B61" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="11" t="s">
-        <v>143</v>
+      <c r="D61" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="E61" s="48" t="s">
         <v>16</v>
@@ -5845,13 +5974,13 @@
         <v>161</v>
       </c>
       <c r="B62" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E62" s="48" t="s">
         <v>16</v>
@@ -5861,16 +5990,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B63" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E63" s="48" t="s">
         <v>16</v>
@@ -5880,18 +6009,18 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B64" s="7">
-        <v>1</v>
-      </c>
-      <c r="C64" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" s="11">
+        <v>5</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E64" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F64" s="7"/>
@@ -5899,16 +6028,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B65" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="E65" s="48" t="s">
         <v>16</v>
@@ -5918,16 +6047,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B66" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="E66" s="48" t="s">
         <v>16</v>
@@ -5939,16 +6068,16 @@
       <c r="A67" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B67" s="11">
-        <v>4</v>
-      </c>
-      <c r="C67" s="12" t="s">
+      <c r="B67" s="7">
+        <v>1</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E67" s="48" t="s">
+      <c r="E67" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F67" s="7"/>
@@ -5959,7 +6088,7 @@
         <v>163</v>
       </c>
       <c r="B68" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>37</v>
@@ -5978,7 +6107,7 @@
         <v>163</v>
       </c>
       <c r="B69" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>37</v>
@@ -5994,10 +6123,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B70" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>37</v>
@@ -6013,18 +6142,18 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B71" s="7">
-        <v>1</v>
-      </c>
-      <c r="C71" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="11">
+        <v>5</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E71" s="49" t="s">
+      <c r="E71" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F71" s="7"/>
@@ -6032,10 +6161,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B72" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>37</v>
@@ -6051,10 +6180,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B73" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>37</v>
@@ -6072,16 +6201,16 @@
       <c r="A74" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B74" s="11">
-        <v>4</v>
-      </c>
-      <c r="C74" s="12" t="s">
+      <c r="B74" s="7">
+        <v>1</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E74" s="48" t="s">
+      <c r="E74" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F74" s="7"/>
@@ -6092,7 +6221,7 @@
         <v>165</v>
       </c>
       <c r="B75" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>37</v>
@@ -6111,7 +6240,7 @@
         <v>165</v>
       </c>
       <c r="B76" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>37</v>
@@ -6127,10 +6256,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B77" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>37</v>
@@ -6146,10 +6275,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B78" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>37</v>
@@ -6165,18 +6294,18 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B79" s="7">
-        <v>2</v>
-      </c>
-      <c r="C79" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="11">
+        <v>6</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E79" s="49" t="s">
+      <c r="E79" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="7"/>
@@ -6184,10 +6313,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B80" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>37</v>
@@ -6206,7 +6335,7 @@
         <v>167</v>
       </c>
       <c r="B81" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>37</v>
@@ -6224,16 +6353,16 @@
       <c r="A82" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B82" s="11">
-        <v>5</v>
-      </c>
-      <c r="C82" s="12" t="s">
+      <c r="B82" s="7">
+        <v>2</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E82" s="48" t="s">
+      <c r="E82" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F82" s="7"/>
@@ -6244,7 +6373,7 @@
         <v>167</v>
       </c>
       <c r="B83" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>37</v>
@@ -6260,10 +6389,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B84" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>37</v>
@@ -6279,10 +6408,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B85" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>37</v>
@@ -6298,18 +6427,18 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" s="7">
-        <v>2</v>
-      </c>
-      <c r="C86" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" s="11">
+        <v>6</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E86" s="49" t="s">
+      <c r="E86" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F86" s="7"/>
@@ -6317,10 +6446,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B87" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>37</v>
@@ -6339,7 +6468,7 @@
         <v>169</v>
       </c>
       <c r="B88" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>37</v>
@@ -6357,16 +6486,16 @@
       <c r="A89" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B89" s="11">
-        <v>5</v>
-      </c>
-      <c r="C89" s="12" t="s">
+      <c r="B89" s="7">
+        <v>2</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E89" s="48" t="s">
+      <c r="E89" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F89" s="7"/>
@@ -6377,7 +6506,7 @@
         <v>169</v>
       </c>
       <c r="B90" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>37</v>
@@ -6393,10 +6522,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B91" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>37</v>
@@ -6412,10 +6541,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B92" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>37</v>
@@ -6431,18 +6560,18 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B93" s="7">
-        <v>2</v>
-      </c>
-      <c r="C93" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93" s="11">
+        <v>6</v>
+      </c>
+      <c r="C93" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E93" s="49" t="s">
+      <c r="E93" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F93" s="7"/>
@@ -6450,10 +6579,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B94" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>37</v>
@@ -6472,7 +6601,7 @@
         <v>171</v>
       </c>
       <c r="B95" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>37</v>
@@ -6490,27 +6619,27 @@
       <c r="A96" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B96" s="11">
-        <v>5</v>
-      </c>
-      <c r="C96" s="12" t="s">
+      <c r="B96" s="7">
+        <v>2</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E96" s="48" t="s">
+      <c r="E96" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>171</v>
       </c>
       <c r="B97" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>37</v>
@@ -6524,12 +6653,12 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B98" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>37</v>
@@ -6543,82 +6672,113 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B99" s="42">
-        <v>1</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D99" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E99" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B99" s="11">
+        <v>5</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E99" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>197</v>
-      </c>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" s="11">
+        <v>6</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E100" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" s="11">
+        <v>1</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E101" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E22" r:id="rId1"/>
-    <hyperlink ref="C22" r:id="rId2"/>
+    <hyperlink ref="E25" r:id="rId1"/>
+    <hyperlink ref="C25" r:id="rId2"/>
     <hyperlink ref="C3" r:id="rId3"/>
     <hyperlink ref="E3" r:id="rId4"/>
     <hyperlink ref="E4" r:id="rId5"/>
     <hyperlink ref="C4" r:id="rId6"/>
-    <hyperlink ref="E23" r:id="rId7"/>
-    <hyperlink ref="C23" r:id="rId8"/>
-    <hyperlink ref="E24" r:id="rId9"/>
-    <hyperlink ref="C24" r:id="rId10"/>
-    <hyperlink ref="E25" r:id="rId11"/>
-    <hyperlink ref="C25" r:id="rId12"/>
-    <hyperlink ref="E26" r:id="rId13"/>
-    <hyperlink ref="C26" r:id="rId14"/>
-    <hyperlink ref="E27" r:id="rId15"/>
-    <hyperlink ref="C27" r:id="rId16"/>
+    <hyperlink ref="E26" r:id="rId7"/>
+    <hyperlink ref="C26" r:id="rId8"/>
+    <hyperlink ref="E27" r:id="rId9"/>
+    <hyperlink ref="C27" r:id="rId10"/>
+    <hyperlink ref="E28" r:id="rId11"/>
+    <hyperlink ref="C28" r:id="rId12"/>
+    <hyperlink ref="E29" r:id="rId13"/>
+    <hyperlink ref="C29" r:id="rId14"/>
+    <hyperlink ref="E30" r:id="rId15"/>
+    <hyperlink ref="C30" r:id="rId16"/>
     <hyperlink ref="E2" r:id="rId17"/>
     <hyperlink ref="C2" r:id="rId18"/>
-    <hyperlink ref="E28" r:id="rId19"/>
-    <hyperlink ref="C28" r:id="rId20"/>
-    <hyperlink ref="E29" r:id="rId21"/>
-    <hyperlink ref="E30" r:id="rId22"/>
-    <hyperlink ref="C30" r:id="rId23"/>
-    <hyperlink ref="E31" r:id="rId24"/>
-    <hyperlink ref="C31" r:id="rId25"/>
-    <hyperlink ref="E32" r:id="rId26"/>
-    <hyperlink ref="C32" r:id="rId27"/>
-    <hyperlink ref="E33" r:id="rId28"/>
-    <hyperlink ref="C33" r:id="rId29"/>
-    <hyperlink ref="E34" r:id="rId30"/>
-    <hyperlink ref="C34" r:id="rId31"/>
-    <hyperlink ref="C29" r:id="rId32"/>
-    <hyperlink ref="E35" r:id="rId33"/>
-    <hyperlink ref="C35" r:id="rId34"/>
-    <hyperlink ref="E36" r:id="rId35"/>
-    <hyperlink ref="C36" r:id="rId36"/>
-    <hyperlink ref="E37" r:id="rId37"/>
-    <hyperlink ref="C37" r:id="rId38"/>
-    <hyperlink ref="E38" r:id="rId39"/>
-    <hyperlink ref="C38" r:id="rId40"/>
-    <hyperlink ref="E39" r:id="rId41"/>
-    <hyperlink ref="C39" r:id="rId42"/>
-    <hyperlink ref="E40" r:id="rId43"/>
-    <hyperlink ref="C40" r:id="rId44"/>
-    <hyperlink ref="E41" r:id="rId45"/>
-    <hyperlink ref="C41" r:id="rId46"/>
-    <hyperlink ref="E42" r:id="rId47"/>
-    <hyperlink ref="C42" r:id="rId48"/>
+    <hyperlink ref="E31" r:id="rId19"/>
+    <hyperlink ref="C31" r:id="rId20"/>
+    <hyperlink ref="E32" r:id="rId21"/>
+    <hyperlink ref="E33" r:id="rId22"/>
+    <hyperlink ref="C33" r:id="rId23"/>
+    <hyperlink ref="E34" r:id="rId24"/>
+    <hyperlink ref="C34" r:id="rId25"/>
+    <hyperlink ref="E35" r:id="rId26"/>
+    <hyperlink ref="C35" r:id="rId27"/>
+    <hyperlink ref="E36" r:id="rId28"/>
+    <hyperlink ref="C36" r:id="rId29"/>
+    <hyperlink ref="E37" r:id="rId30"/>
+    <hyperlink ref="C37" r:id="rId31"/>
+    <hyperlink ref="C32" r:id="rId32"/>
+    <hyperlink ref="E38" r:id="rId33"/>
+    <hyperlink ref="C38" r:id="rId34"/>
+    <hyperlink ref="E39" r:id="rId35"/>
+    <hyperlink ref="C39" r:id="rId36"/>
+    <hyperlink ref="E40" r:id="rId37"/>
+    <hyperlink ref="C40" r:id="rId38"/>
+    <hyperlink ref="E41" r:id="rId39"/>
+    <hyperlink ref="C41" r:id="rId40"/>
+    <hyperlink ref="E42" r:id="rId41"/>
+    <hyperlink ref="C42" r:id="rId42"/>
+    <hyperlink ref="E43" r:id="rId43"/>
+    <hyperlink ref="C43" r:id="rId44"/>
+    <hyperlink ref="E44" r:id="rId45"/>
+    <hyperlink ref="C44" r:id="rId46"/>
+    <hyperlink ref="E45" r:id="rId47"/>
+    <hyperlink ref="C45" r:id="rId48"/>
     <hyperlink ref="E7" r:id="rId49" display="http://172.20.92.19/Login/LogOn?ReturnUrl=%2f"/>
     <hyperlink ref="E5" r:id="rId50" display="http://172.20.92.19/Login/LogOn?ReturnUrl=%2f"/>
     <hyperlink ref="C5" r:id="rId51" display="P@ssw0rd"/>
@@ -6639,133 +6799,137 @@
     <hyperlink ref="C13" r:id="rId66"/>
     <hyperlink ref="E14" r:id="rId67"/>
     <hyperlink ref="C14" r:id="rId68" display="P@ssw0rd"/>
-    <hyperlink ref="E15" r:id="rId69" display="http://172.20.92.19/Login/LogOn?ReturnUrl=%2f"/>
-    <hyperlink ref="C15" r:id="rId70" display="P@ssw0rd"/>
-    <hyperlink ref="E16" r:id="rId71" display="http://172.20.92.19/Login/LogOn?ReturnUrl=%2f"/>
-    <hyperlink ref="C16" r:id="rId72" display="P@ssw0rd"/>
-    <hyperlink ref="E17" r:id="rId73" display="http://172.20.92.19/Login/LogOn?ReturnUrl=%2f"/>
-    <hyperlink ref="C17" r:id="rId74" display="P@ssw0rd"/>
-    <hyperlink ref="E18" r:id="rId75" display="http://172.20.92.19/Login/LogOn?ReturnUrl=%2f"/>
-    <hyperlink ref="C18" r:id="rId76"/>
-    <hyperlink ref="E19" r:id="rId77"/>
-    <hyperlink ref="C19" r:id="rId78"/>
-    <hyperlink ref="E20" r:id="rId79"/>
-    <hyperlink ref="C20" r:id="rId80"/>
-    <hyperlink ref="E21" r:id="rId81"/>
-    <hyperlink ref="C21" r:id="rId82"/>
-    <hyperlink ref="E43" r:id="rId83"/>
-    <hyperlink ref="E44" r:id="rId84"/>
-    <hyperlink ref="C44" r:id="rId85"/>
-    <hyperlink ref="E45" r:id="rId86"/>
-    <hyperlink ref="C45" r:id="rId87"/>
-    <hyperlink ref="E46" r:id="rId88"/>
-    <hyperlink ref="C46" r:id="rId89"/>
-    <hyperlink ref="E47" r:id="rId90"/>
-    <hyperlink ref="C47" r:id="rId91"/>
-    <hyperlink ref="E48" r:id="rId92"/>
-    <hyperlink ref="C48" r:id="rId93"/>
-    <hyperlink ref="C43" r:id="rId94"/>
-    <hyperlink ref="E49" r:id="rId95"/>
-    <hyperlink ref="C49" r:id="rId96"/>
-    <hyperlink ref="E50" r:id="rId97"/>
-    <hyperlink ref="E51" r:id="rId98"/>
-    <hyperlink ref="C51" r:id="rId99"/>
-    <hyperlink ref="E52" r:id="rId100"/>
-    <hyperlink ref="C52" r:id="rId101"/>
-    <hyperlink ref="E53" r:id="rId102"/>
-    <hyperlink ref="C53" r:id="rId103"/>
-    <hyperlink ref="E54" r:id="rId104"/>
-    <hyperlink ref="C54" r:id="rId105"/>
-    <hyperlink ref="E55" r:id="rId106"/>
-    <hyperlink ref="C55" r:id="rId107"/>
-    <hyperlink ref="C50" r:id="rId108"/>
-    <hyperlink ref="E56" r:id="rId109"/>
-    <hyperlink ref="C56" r:id="rId110"/>
-    <hyperlink ref="E57" r:id="rId111"/>
-    <hyperlink ref="E58" r:id="rId112"/>
-    <hyperlink ref="C58" r:id="rId113"/>
-    <hyperlink ref="E59" r:id="rId114"/>
-    <hyperlink ref="C59" r:id="rId115"/>
-    <hyperlink ref="E60" r:id="rId116"/>
-    <hyperlink ref="C60" r:id="rId117"/>
-    <hyperlink ref="E61" r:id="rId118"/>
-    <hyperlink ref="C61" r:id="rId119"/>
-    <hyperlink ref="E62" r:id="rId120"/>
-    <hyperlink ref="C62" r:id="rId121"/>
-    <hyperlink ref="C57" r:id="rId122"/>
-    <hyperlink ref="E63" r:id="rId123"/>
-    <hyperlink ref="C63" r:id="rId124"/>
-    <hyperlink ref="E64" r:id="rId125"/>
-    <hyperlink ref="E65" r:id="rId126"/>
-    <hyperlink ref="C65" r:id="rId127"/>
-    <hyperlink ref="E66" r:id="rId128"/>
-    <hyperlink ref="C66" r:id="rId129"/>
-    <hyperlink ref="E67" r:id="rId130"/>
-    <hyperlink ref="C67" r:id="rId131"/>
-    <hyperlink ref="E68" r:id="rId132"/>
-    <hyperlink ref="C68" r:id="rId133"/>
-    <hyperlink ref="E69" r:id="rId134"/>
-    <hyperlink ref="C69" r:id="rId135"/>
-    <hyperlink ref="C64" r:id="rId136"/>
-    <hyperlink ref="E70" r:id="rId137"/>
-    <hyperlink ref="C70" r:id="rId138"/>
-    <hyperlink ref="E71" r:id="rId139"/>
-    <hyperlink ref="E72" r:id="rId140"/>
-    <hyperlink ref="C72" r:id="rId141"/>
-    <hyperlink ref="E73" r:id="rId142"/>
-    <hyperlink ref="C73" r:id="rId143"/>
-    <hyperlink ref="E74" r:id="rId144"/>
-    <hyperlink ref="C74" r:id="rId145"/>
-    <hyperlink ref="E75" r:id="rId146"/>
-    <hyperlink ref="C75" r:id="rId147"/>
-    <hyperlink ref="E76" r:id="rId148"/>
-    <hyperlink ref="C76" r:id="rId149"/>
-    <hyperlink ref="C71" r:id="rId150"/>
-    <hyperlink ref="E77" r:id="rId151"/>
-    <hyperlink ref="C77" r:id="rId152"/>
-    <hyperlink ref="E78" r:id="rId153"/>
-    <hyperlink ref="C78" r:id="rId154"/>
-    <hyperlink ref="E79" r:id="rId155"/>
-    <hyperlink ref="E80" r:id="rId156"/>
-    <hyperlink ref="C80" r:id="rId157"/>
-    <hyperlink ref="E81" r:id="rId158"/>
-    <hyperlink ref="C81" r:id="rId159"/>
-    <hyperlink ref="E82" r:id="rId160"/>
-    <hyperlink ref="C82" r:id="rId161"/>
-    <hyperlink ref="E83" r:id="rId162"/>
-    <hyperlink ref="C83" r:id="rId163"/>
-    <hyperlink ref="C79" r:id="rId164"/>
-    <hyperlink ref="E84" r:id="rId165"/>
-    <hyperlink ref="C84" r:id="rId166"/>
-    <hyperlink ref="E85" r:id="rId167"/>
-    <hyperlink ref="C85" r:id="rId168"/>
-    <hyperlink ref="E86" r:id="rId169"/>
-    <hyperlink ref="E87" r:id="rId170"/>
-    <hyperlink ref="C87" r:id="rId171"/>
-    <hyperlink ref="E88" r:id="rId172"/>
-    <hyperlink ref="C88" r:id="rId173"/>
-    <hyperlink ref="E89" r:id="rId174"/>
-    <hyperlink ref="C89" r:id="rId175"/>
-    <hyperlink ref="E90" r:id="rId176"/>
-    <hyperlink ref="C90" r:id="rId177"/>
-    <hyperlink ref="C86" r:id="rId178"/>
-    <hyperlink ref="E91" r:id="rId179"/>
-    <hyperlink ref="C91" r:id="rId180"/>
-    <hyperlink ref="E92" r:id="rId181"/>
-    <hyperlink ref="C92" r:id="rId182"/>
-    <hyperlink ref="E93" r:id="rId183"/>
-    <hyperlink ref="E94" r:id="rId184"/>
-    <hyperlink ref="C94" r:id="rId185"/>
-    <hyperlink ref="E95" r:id="rId186"/>
-    <hyperlink ref="C95" r:id="rId187"/>
-    <hyperlink ref="E96" r:id="rId188"/>
-    <hyperlink ref="C96" r:id="rId189"/>
-    <hyperlink ref="E97" r:id="rId190"/>
-    <hyperlink ref="C97" r:id="rId191"/>
-    <hyperlink ref="C93" r:id="rId192"/>
-    <hyperlink ref="E98" r:id="rId193"/>
-    <hyperlink ref="C98" r:id="rId194"/>
-    <hyperlink ref="E99" r:id="rId195"/>
+    <hyperlink ref="E16" r:id="rId69" display="http://172.20.92.19/Login/LogOn?ReturnUrl=%2f"/>
+    <hyperlink ref="C16" r:id="rId70" display="P@ssw0rd"/>
+    <hyperlink ref="E17" r:id="rId71" display="http://172.20.92.19/Login/LogOn?ReturnUrl=%2f"/>
+    <hyperlink ref="C17" r:id="rId72" display="P@ssw0rd"/>
+    <hyperlink ref="E18" r:id="rId73" display="http://172.20.92.19/Login/LogOn?ReturnUrl=%2f"/>
+    <hyperlink ref="C18" r:id="rId74" display="P@ssw0rd"/>
+    <hyperlink ref="E19" r:id="rId75" display="http://172.20.92.19/Login/LogOn?ReturnUrl=%2f"/>
+    <hyperlink ref="C19" r:id="rId76"/>
+    <hyperlink ref="E20" r:id="rId77"/>
+    <hyperlink ref="C20" r:id="rId78"/>
+    <hyperlink ref="E21" r:id="rId79"/>
+    <hyperlink ref="C21" r:id="rId80"/>
+    <hyperlink ref="E22" r:id="rId81"/>
+    <hyperlink ref="C22" r:id="rId82"/>
+    <hyperlink ref="E46" r:id="rId83"/>
+    <hyperlink ref="E47" r:id="rId84"/>
+    <hyperlink ref="C47" r:id="rId85"/>
+    <hyperlink ref="E48" r:id="rId86"/>
+    <hyperlink ref="C48" r:id="rId87"/>
+    <hyperlink ref="E49" r:id="rId88"/>
+    <hyperlink ref="C49" r:id="rId89"/>
+    <hyperlink ref="E50" r:id="rId90"/>
+    <hyperlink ref="C50" r:id="rId91"/>
+    <hyperlink ref="E51" r:id="rId92"/>
+    <hyperlink ref="C51" r:id="rId93"/>
+    <hyperlink ref="C46" r:id="rId94"/>
+    <hyperlink ref="E52" r:id="rId95"/>
+    <hyperlink ref="C52" r:id="rId96"/>
+    <hyperlink ref="E53" r:id="rId97"/>
+    <hyperlink ref="E54" r:id="rId98"/>
+    <hyperlink ref="C54" r:id="rId99"/>
+    <hyperlink ref="E55" r:id="rId100"/>
+    <hyperlink ref="C55" r:id="rId101"/>
+    <hyperlink ref="E56" r:id="rId102"/>
+    <hyperlink ref="C56" r:id="rId103"/>
+    <hyperlink ref="E57" r:id="rId104"/>
+    <hyperlink ref="C57" r:id="rId105"/>
+    <hyperlink ref="E58" r:id="rId106"/>
+    <hyperlink ref="C58" r:id="rId107"/>
+    <hyperlink ref="C53" r:id="rId108"/>
+    <hyperlink ref="E59" r:id="rId109"/>
+    <hyperlink ref="C59" r:id="rId110"/>
+    <hyperlink ref="E60" r:id="rId111"/>
+    <hyperlink ref="E61" r:id="rId112"/>
+    <hyperlink ref="C61" r:id="rId113"/>
+    <hyperlink ref="E62" r:id="rId114"/>
+    <hyperlink ref="C62" r:id="rId115"/>
+    <hyperlink ref="E63" r:id="rId116"/>
+    <hyperlink ref="C63" r:id="rId117"/>
+    <hyperlink ref="E64" r:id="rId118"/>
+    <hyperlink ref="C64" r:id="rId119"/>
+    <hyperlink ref="E65" r:id="rId120"/>
+    <hyperlink ref="C65" r:id="rId121"/>
+    <hyperlink ref="C60" r:id="rId122"/>
+    <hyperlink ref="E66" r:id="rId123"/>
+    <hyperlink ref="C66" r:id="rId124"/>
+    <hyperlink ref="E67" r:id="rId125"/>
+    <hyperlink ref="E68" r:id="rId126"/>
+    <hyperlink ref="C68" r:id="rId127"/>
+    <hyperlink ref="E69" r:id="rId128"/>
+    <hyperlink ref="C69" r:id="rId129"/>
+    <hyperlink ref="E70" r:id="rId130"/>
+    <hyperlink ref="C70" r:id="rId131"/>
+    <hyperlink ref="E71" r:id="rId132"/>
+    <hyperlink ref="C71" r:id="rId133"/>
+    <hyperlink ref="E72" r:id="rId134"/>
+    <hyperlink ref="C72" r:id="rId135"/>
+    <hyperlink ref="C67" r:id="rId136"/>
+    <hyperlink ref="E73" r:id="rId137"/>
+    <hyperlink ref="C73" r:id="rId138"/>
+    <hyperlink ref="E74" r:id="rId139"/>
+    <hyperlink ref="E75" r:id="rId140"/>
+    <hyperlink ref="C75" r:id="rId141"/>
+    <hyperlink ref="E76" r:id="rId142"/>
+    <hyperlink ref="C76" r:id="rId143"/>
+    <hyperlink ref="E77" r:id="rId144"/>
+    <hyperlink ref="C77" r:id="rId145"/>
+    <hyperlink ref="E78" r:id="rId146"/>
+    <hyperlink ref="C78" r:id="rId147"/>
+    <hyperlink ref="E79" r:id="rId148"/>
+    <hyperlink ref="C79" r:id="rId149"/>
+    <hyperlink ref="C74" r:id="rId150"/>
+    <hyperlink ref="E80" r:id="rId151"/>
+    <hyperlink ref="C80" r:id="rId152"/>
+    <hyperlink ref="E81" r:id="rId153"/>
+    <hyperlink ref="C81" r:id="rId154"/>
+    <hyperlink ref="E82" r:id="rId155"/>
+    <hyperlink ref="E83" r:id="rId156"/>
+    <hyperlink ref="C83" r:id="rId157"/>
+    <hyperlink ref="E84" r:id="rId158"/>
+    <hyperlink ref="C84" r:id="rId159"/>
+    <hyperlink ref="E85" r:id="rId160"/>
+    <hyperlink ref="C85" r:id="rId161"/>
+    <hyperlink ref="E86" r:id="rId162"/>
+    <hyperlink ref="C86" r:id="rId163"/>
+    <hyperlink ref="C82" r:id="rId164"/>
+    <hyperlink ref="E87" r:id="rId165"/>
+    <hyperlink ref="C87" r:id="rId166"/>
+    <hyperlink ref="E88" r:id="rId167"/>
+    <hyperlink ref="C88" r:id="rId168"/>
+    <hyperlink ref="E89" r:id="rId169"/>
+    <hyperlink ref="E90" r:id="rId170"/>
+    <hyperlink ref="C90" r:id="rId171"/>
+    <hyperlink ref="E91" r:id="rId172"/>
+    <hyperlink ref="C91" r:id="rId173"/>
+    <hyperlink ref="E92" r:id="rId174"/>
+    <hyperlink ref="C92" r:id="rId175"/>
+    <hyperlink ref="E93" r:id="rId176"/>
+    <hyperlink ref="C93" r:id="rId177"/>
+    <hyperlink ref="C89" r:id="rId178"/>
+    <hyperlink ref="E94" r:id="rId179"/>
+    <hyperlink ref="C94" r:id="rId180"/>
+    <hyperlink ref="E95" r:id="rId181"/>
+    <hyperlink ref="C95" r:id="rId182"/>
+    <hyperlink ref="E96" r:id="rId183"/>
+    <hyperlink ref="E97" r:id="rId184"/>
+    <hyperlink ref="C97" r:id="rId185"/>
+    <hyperlink ref="E98" r:id="rId186"/>
+    <hyperlink ref="C98" r:id="rId187"/>
+    <hyperlink ref="E99" r:id="rId188"/>
+    <hyperlink ref="C99" r:id="rId189"/>
+    <hyperlink ref="E100" r:id="rId190"/>
+    <hyperlink ref="C100" r:id="rId191"/>
+    <hyperlink ref="C96" r:id="rId192"/>
+    <hyperlink ref="E101" r:id="rId193"/>
+    <hyperlink ref="C101" r:id="rId194"/>
+    <hyperlink ref="E23" r:id="rId195"/>
+    <hyperlink ref="E24" r:id="rId196"/>
+    <hyperlink ref="C24" r:id="rId197"/>
+    <hyperlink ref="E15" r:id="rId198"/>
+    <hyperlink ref="C15" r:id="rId199" display="P@ssw0rd"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6776,7 +6940,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6811,8 +6975,8 @@
       <c r="C2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>126</v>
+      <c r="D2" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6825,8 +6989,8 @@
       <c r="C3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>126</v>
+      <c r="D3" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6839,8 +7003,8 @@
       <c r="C4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>126</v>
+      <c r="D4" s="36" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6853,8 +7017,8 @@
       <c r="C5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>126</v>
+      <c r="D5" s="36" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -6867,8 +7031,8 @@
       <c r="C6" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>126</v>
+      <c r="D6" s="36" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6881,8 +7045,8 @@
       <c r="C7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>126</v>
+      <c r="D7" s="36" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -6954,8 +7118,8 @@
       <c r="D2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>126</v>
+      <c r="E2" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6971,8 +7135,8 @@
       <c r="D3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>126</v>
+      <c r="E3" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6988,8 +7152,8 @@
       <c r="D4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>126</v>
+      <c r="E4" s="36" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7005,8 +7169,8 @@
       <c r="D5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>126</v>
+      <c r="E5" s="36" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7022,8 +7186,8 @@
       <c r="D6" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>126</v>
+      <c r="E6" s="36" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7039,8 +7203,8 @@
       <c r="D7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>126</v>
+      <c r="E7" s="36" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7096,7 +7260,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7138,8 +7302,8 @@
       <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>126</v>
+      <c r="E2" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -7148,35 +7312,45 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="36" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="36" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="36" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="36" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="36" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -7223,7 +7397,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7272,8 +7446,8 @@
       <c r="E2" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>126</v>
+      <c r="F2" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7290,8 +7464,8 @@
         <v>103</v>
       </c>
       <c r="E3" s="29"/>
-      <c r="F3" s="28" t="s">
-        <v>126</v>
+      <c r="F3" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7310,8 +7484,8 @@
       <c r="E4" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>126</v>
+      <c r="F4" s="36" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7328,8 +7502,8 @@
         <v>103</v>
       </c>
       <c r="E5" s="29"/>
-      <c r="F5" s="28" t="s">
-        <v>126</v>
+      <c r="F5" s="36" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7348,8 +7522,8 @@
       <c r="E6" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>126</v>
+      <c r="F6" s="36" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7366,8 +7540,8 @@
         <v>103</v>
       </c>
       <c r="E7" s="29"/>
-      <c r="F7" s="28" t="s">
-        <v>126</v>
+      <c r="F7" s="36" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7497,7 +7671,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7552,8 +7726,8 @@
       <c r="F2" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>126</v>
+      <c r="G2" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7573,8 +7747,8 @@
         <v>103</v>
       </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="28" t="s">
-        <v>126</v>
+      <c r="G3" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -7596,8 +7770,8 @@
       <c r="F4" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>126</v>
+      <c r="G4" s="36" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7617,8 +7791,8 @@
         <v>103</v>
       </c>
       <c r="F5" s="29"/>
-      <c r="G5" s="28" t="s">
-        <v>126</v>
+      <c r="G5" s="36" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -7640,8 +7814,8 @@
       <c r="F6" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>126</v>
+      <c r="G6" s="36" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7661,8 +7835,8 @@
         <v>103</v>
       </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="28" t="s">
-        <v>126</v>
+      <c r="G7" s="36" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -7716,8 +7890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7752,39 +7926,49 @@
       <c r="C2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>126</v>
+      <c r="D2" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="D3" s="36" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="36" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="36" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="36" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="D7" s="36" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -7859,8 +8043,8 @@
       <c r="C2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>126</v>
+      <c r="D2" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7873,8 +8057,8 @@
       <c r="C3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>126</v>
+      <c r="D3" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -7887,8 +8071,8 @@
       <c r="C4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>126</v>
+      <c r="D4" s="36" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7901,8 +8085,8 @@
       <c r="C5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>126</v>
+      <c r="D5" s="36" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7915,8 +8099,8 @@
       <c r="C6" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>126</v>
+      <c r="D6" s="36" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7929,8 +8113,8 @@
       <c r="C7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>126</v>
+      <c r="D7" s="36" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8012,8 +8196,8 @@
       <c r="D2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>126</v>
+      <c r="E2" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8029,8 +8213,8 @@
       <c r="D3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>126</v>
+      <c r="E3" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8046,8 +8230,8 @@
       <c r="D4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>126</v>
+      <c r="E4" s="36" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8063,8 +8247,8 @@
       <c r="D5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>126</v>
+      <c r="E5" s="36" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8080,8 +8264,8 @@
       <c r="D6" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>126</v>
+      <c r="E6" s="36" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8097,8 +8281,8 @@
       <c r="D7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>126</v>
+      <c r="E7" s="36" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8251,7 +8435,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>64</v>
@@ -8465,7 +8649,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8519,8 +8703,8 @@
       <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>126</v>
+      <c r="E2" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>108</v>
@@ -8537,7 +8721,9 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="36" t="s">
+        <v>243</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -8547,7 +8733,9 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="36" t="s">
+        <v>244</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -8557,7 +8745,9 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="36" t="s">
+        <v>245</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -8567,7 +8757,9 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="36" t="s">
+        <v>246</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -8577,7 +8769,9 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="36" t="s">
+        <v>247</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -8746,7 +8940,7 @@
   <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8819,8 +9013,8 @@
       <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>126</v>
+      <c r="E2" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>108</v>
@@ -8865,8 +9059,8 @@
       <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>126</v>
+      <c r="E3" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>108</v>
@@ -8911,8 +9105,8 @@
       <c r="D4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>126</v>
+      <c r="E4" s="36" t="s">
+        <v>244</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>108</v>
@@ -8957,8 +9151,8 @@
       <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>126</v>
+      <c r="E5" s="36" t="s">
+        <v>245</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>108</v>
@@ -9003,8 +9197,8 @@
       <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>126</v>
+      <c r="E6" s="36" t="s">
+        <v>246</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>108</v>
@@ -9049,8 +9243,8 @@
       <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>126</v>
+      <c r="E7" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>108</v>
@@ -9242,7 +9436,7 @@
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9322,8 +9516,8 @@
       <c r="E2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>126</v>
+      <c r="F2" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>108</v>
@@ -9371,8 +9565,8 @@
       <c r="E3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>126</v>
+      <c r="F3" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>108</v>
@@ -9420,8 +9614,8 @@
       <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>126</v>
+      <c r="F4" s="36" t="s">
+        <v>244</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>108</v>
@@ -9469,8 +9663,8 @@
       <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>126</v>
+      <c r="F5" s="36" t="s">
+        <v>245</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>108</v>
@@ -9518,8 +9712,8 @@
       <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>126</v>
+      <c r="F6" s="36" t="s">
+        <v>246</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>108</v>
@@ -9567,8 +9761,8 @@
       <c r="E7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>126</v>
+      <c r="F7" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>108</v>
@@ -9784,7 +9978,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9853,8 +10047,8 @@
       <c r="E2" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>126</v>
+      <c r="F2" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="G2" s="19">
         <v>5</v>
@@ -9863,7 +10057,7 @@
         <v>116</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="J2" s="19">
         <v>5</v>
@@ -9886,8 +10080,8 @@
         <v>103</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="28" t="s">
-        <v>126</v>
+      <c r="F3" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="G3" s="21">
         <v>3</v>
@@ -9896,7 +10090,7 @@
         <v>116</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="J3" s="21">
         <v>3</v>
@@ -9911,7 +10105,9 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="F4" s="36" t="s">
+        <v>244</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -9924,7 +10120,9 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="36" t="s">
+        <v>245</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -9937,7 +10135,9 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="36" t="s">
+        <v>246</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -9950,7 +10150,9 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="F7" s="36" t="s">
+        <v>247</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -10341,7 +10543,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K4"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10409,8 +10611,8 @@
       <c r="E2" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>126</v>
+      <c r="F2" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="G2" s="19">
         <v>5</v>
@@ -10444,8 +10646,8 @@
       <c r="E3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>126</v>
+      <c r="F3" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="G3" s="21">
         <v>3</v>
@@ -10479,8 +10681,8 @@
       <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>126</v>
+      <c r="F4" s="36" t="s">
+        <v>244</v>
       </c>
       <c r="G4" s="19">
         <v>6</v>
@@ -10514,8 +10716,8 @@
       <c r="E5" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>126</v>
+      <c r="F5" s="36" t="s">
+        <v>245</v>
       </c>
       <c r="G5" s="21">
         <v>3</v>
@@ -10549,8 +10751,8 @@
       <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>126</v>
+      <c r="F6" s="36" t="s">
+        <v>246</v>
       </c>
       <c r="G6" s="19">
         <v>8</v>
@@ -10584,8 +10786,8 @@
       <c r="E7" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>126</v>
+      <c r="F7" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="G7" s="21">
         <v>3</v>
@@ -10699,7 +10901,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10761,8 +10963,8 @@
       <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>126</v>
+      <c r="E2" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="F2" s="19">
         <v>20</v>
@@ -10771,7 +10973,7 @@
         <v>116</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="I2" s="19">
         <v>20</v>
@@ -10793,8 +10995,8 @@
       <c r="D3" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>126</v>
+      <c r="E3" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="F3" s="21">
         <v>30</v>
@@ -10803,7 +11005,7 @@
         <v>116</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="I3" s="21">
         <v>30</v>
@@ -10817,7 +11019,9 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="36" t="s">
+        <v>244</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -10829,7 +11033,9 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="36" t="s">
+        <v>245</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -10841,7 +11047,9 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="36" t="s">
+        <v>246</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -10853,7 +11061,9 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="36" t="s">
+        <v>247</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -11641,7 +11851,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>82</v>
@@ -11650,7 +11860,7 @@
         <v>84</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>86</v>
@@ -12200,259 +12410,249 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="69.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" customWidth="1"/>
+    <col min="24" max="24" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D1" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q1" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="V1" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="20">
+        <v>62239543269</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="M2" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" s="11">
-        <v>1686</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="R2" s="11">
-        <v>112539768</v>
-      </c>
-      <c r="S2" s="11">
-        <v>843353667</v>
-      </c>
-      <c r="T2" s="11">
-        <v>117893246</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N2" s="7" t="str">
+        <f>C2</f>
+        <v>L130</v>
+      </c>
+      <c r="O2" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="P2" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="R2" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="S2" s="7" t="str">
+        <f>N2</f>
+        <v>L130</v>
+      </c>
+      <c r="T2" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="U2" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="V2" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="W2" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="L3" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>205</v>
+      </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U3" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="V3" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="W3" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="20"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="L4" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>206</v>
+      </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -12460,16 +12660,18 @@
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
+      <c r="U4" s="39" t="s">
+        <v>238</v>
+      </c>
       <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="W4" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -12482,7 +12684,9 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="39" t="s">
+        <v>207</v>
+      </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -12490,16 +12694,18 @@
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
+      <c r="U5" s="39" t="s">
+        <v>239</v>
+      </c>
       <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="W5" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -12512,7 +12718,9 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="39" t="s">
+        <v>208</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -12520,16 +12728,18 @@
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
+      <c r="U6" s="39" t="s">
+        <v>240</v>
+      </c>
       <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="W6" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -12542,7 +12752,9 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="39" t="s">
+        <v>209</v>
+      </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -12553,13 +12765,11 @@
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -12583,13 +12793,11 @@
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -12613,13 +12821,11 @@
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -12643,13 +12849,11 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -12673,13 +12877,11 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -12703,17 +12905,13 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="P@ssw0rd"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12722,7 +12920,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12796,8 +12994,8 @@
         <v>103</v>
       </c>
       <c r="E2" s="29"/>
-      <c r="F2" s="28" t="s">
-        <v>126</v>
+      <c r="F2" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>45</v>
@@ -12837,8 +13035,8 @@
       <c r="E3" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>126</v>
+      <c r="F3" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>45</v>
@@ -12878,8 +13076,8 @@
       <c r="E4" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>126</v>
+      <c r="F4" s="36" t="s">
+        <v>244</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>45</v>
@@ -12917,8 +13115,8 @@
         <v>103</v>
       </c>
       <c r="E5" s="29"/>
-      <c r="F5" s="28" t="s">
-        <v>126</v>
+      <c r="F5" s="36" t="s">
+        <v>245</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -12958,8 +13156,8 @@
       <c r="E6" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>126</v>
+      <c r="F6" s="36" t="s">
+        <v>246</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>45</v>
@@ -12997,8 +13195,8 @@
         <v>103</v>
       </c>
       <c r="E7" s="29"/>
-      <c r="F7" s="28" t="s">
-        <v>126</v>
+      <c r="F7" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>45</v>
@@ -13116,7 +13314,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13180,22 +13378,22 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="B2" s="21">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>190</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>45</v>
@@ -13204,10 +13402,10 @@
         <v>212</v>
       </c>
       <c r="I2" s="54" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J2" s="20">
-        <v>62239543269</v>
+        <v>1173782</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>24</v>
@@ -13219,7 +13417,7 @@
         <v>204</v>
       </c>
       <c r="N2" s="39" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13362,12 +13560,174 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="39"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="39"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="39"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13443,8 +13803,8 @@
       <c r="E2" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>126</v>
+      <c r="F2" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>45</v>
@@ -13482,8 +13842,8 @@
         <v>103</v>
       </c>
       <c r="E3" s="29"/>
-      <c r="F3" s="28" t="s">
-        <v>126</v>
+      <c r="F3" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>45</v>
@@ -13523,8 +13883,8 @@
       <c r="E4" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>126</v>
+      <c r="F4" s="36" t="s">
+        <v>244</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>45</v>
@@ -13562,8 +13922,8 @@
         <v>103</v>
       </c>
       <c r="E5" s="29"/>
-      <c r="F5" s="28" t="s">
-        <v>126</v>
+      <c r="F5" s="36" t="s">
+        <v>245</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -13603,8 +13963,8 @@
       <c r="E6" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>126</v>
+      <c r="F6" s="36" t="s">
+        <v>246</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>45</v>
@@ -13642,8 +14002,8 @@
         <v>103</v>
       </c>
       <c r="E7" s="29"/>
-      <c r="F7" s="28" t="s">
-        <v>126</v>
+      <c r="F7" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>45</v>
@@ -13730,7 +14090,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13813,8 +14173,8 @@
       <c r="F2" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>126</v>
+      <c r="G2" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>45</v>
@@ -13855,8 +14215,8 @@
         <v>103</v>
       </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="28" t="s">
-        <v>126</v>
+      <c r="G3" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>45</v>
@@ -13899,8 +14259,8 @@
       <c r="F4" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>126</v>
+      <c r="G4" s="36" t="s">
+        <v>244</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>45</v>
@@ -13941,8 +14301,8 @@
         <v>103</v>
       </c>
       <c r="F5" s="29"/>
-      <c r="G5" s="28" t="s">
-        <v>126</v>
+      <c r="G5" s="36" t="s">
+        <v>245</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>45</v>
@@ -13985,8 +14345,8 @@
       <c r="F6" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>126</v>
+      <c r="G6" s="36" t="s">
+        <v>246</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>45</v>
@@ -14027,8 +14387,8 @@
         <v>103</v>
       </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="28" t="s">
-        <v>126</v>
+      <c r="G7" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>45</v>
@@ -14118,7 +14478,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L10"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14187,8 +14547,8 @@
       <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>126</v>
+      <c r="E2" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -14225,8 +14585,8 @@
       <c r="D3" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>126</v>
+      <c r="E3" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>45</v>
@@ -14255,7 +14615,9 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="36" t="s">
+        <v>244</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -14269,7 +14631,9 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="36" t="s">
+        <v>245</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -14283,7 +14647,9 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="36" t="s">
+        <v>246</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -14297,7 +14663,9 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="36" t="s">
+        <v>247</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -14362,7 +14730,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L10"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14423,8 +14791,8 @@
       <c r="D2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>126</v>
+      <c r="E2" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>45</v>
@@ -14461,8 +14829,8 @@
       <c r="D3" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>126</v>
+      <c r="E3" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>45</v>
@@ -14499,8 +14867,8 @@
       <c r="D4" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>126</v>
+      <c r="E4" s="36" t="s">
+        <v>244</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>45</v>
@@ -14537,8 +14905,8 @@
       <c r="D5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>126</v>
+      <c r="E5" s="36" t="s">
+        <v>245</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>45</v>
@@ -14575,8 +14943,8 @@
       <c r="D6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>126</v>
+      <c r="E6" s="36" t="s">
+        <v>246</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>45</v>
@@ -14613,8 +14981,8 @@
       <c r="D7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>126</v>
+      <c r="E7" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>45</v>
@@ -14698,7 +15066,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14765,8 +15133,8 @@
       <c r="E2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>126</v>
+      <c r="F2" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>45</v>
@@ -14806,8 +15174,8 @@
       <c r="E3" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>126</v>
+      <c r="F3" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>45</v>
@@ -14847,8 +15215,8 @@
       <c r="E4" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>126</v>
+      <c r="F4" s="36" t="s">
+        <v>244</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>45</v>
@@ -14888,8 +15256,8 @@
       <c r="E5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>126</v>
+      <c r="F5" s="36" t="s">
+        <v>245</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -14929,8 +15297,8 @@
       <c r="E6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>126</v>
+      <c r="F6" s="36" t="s">
+        <v>246</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>45</v>
@@ -14970,8 +15338,8 @@
       <c r="E7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>126</v>
+      <c r="F7" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>45</v>

--- a/Test data/TestData.xlsx
+++ b/Test data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="34" activeTab="37"/>
   </bookViews>
   <sheets>
     <sheet name="Mercury" sheetId="1" r:id="rId1"/>
@@ -698,15 +698,6 @@
     <t>ACBUserCode</t>
   </si>
   <si>
-    <t>siri1000</t>
-  </si>
-  <si>
-    <t>Test3_Entity41</t>
-  </si>
-  <si>
-    <t>2953/281941/16</t>
-  </si>
-  <si>
     <t>Test45 - Test045</t>
   </si>
   <si>
@@ -822,6 +813,15 @@
   </si>
   <si>
     <t>Tc_14_Reports_Module</t>
+  </si>
+  <si>
+    <t>siri790</t>
+  </si>
+  <si>
+    <t>Test3_Entity46</t>
+  </si>
+  <si>
+    <t>2953/291141/16</t>
   </si>
 </sst>
 </file>
@@ -1864,7 +1864,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>45</v>
@@ -2197,7 +2197,7 @@
         <v>144</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>45</v>
@@ -2244,7 +2244,7 @@
         <v>144</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>45</v>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>45</v>
@@ -2334,7 +2334,7 @@
         <v>144</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>45</v>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>45</v>
@@ -2665,7 +2665,7 @@
         <v>144</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>45</v>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>45</v>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>174</v>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>45</v>
@@ -2855,7 +2855,7 @@
         <v>144</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>45</v>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>45</v>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>181</v>
@@ -3065,7 +3065,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>45</v>
@@ -3098,7 +3098,7 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="7"/>
@@ -3115,7 +3115,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -3132,7 +3132,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -3149,7 +3149,7 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -3166,7 +3166,7 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -3338,7 +3338,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>45</v>
@@ -3379,7 +3379,7 @@
         <v>103</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>45</v>
@@ -3420,7 +3420,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>45</v>
@@ -3461,7 +3461,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>45</v>
@@ -3502,7 +3502,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>45</v>
@@ -3543,7 +3543,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>45</v>
@@ -3736,7 +3736,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -3780,7 +3780,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>45</v>
@@ -3824,7 +3824,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>45</v>
@@ -3868,7 +3868,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>45</v>
@@ -3912,7 +3912,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>45</v>
@@ -3956,7 +3956,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>45</v>
@@ -4157,7 +4157,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -4167,7 +4167,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4176,7 +4176,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4185,7 +4185,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4194,7 +4194,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4203,7 +4203,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4287,7 +4287,7 @@
         <v>144</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4305,7 +4305,7 @@
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4325,7 +4325,7 @@
         <v>144</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4363,7 +4363,7 @@
         <v>144</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4473,7 +4473,7 @@
         <v>144</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4517,7 +4517,7 @@
         <v>144</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4561,7 +4561,7 @@
         <v>144</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4700,7 +4700,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4708,7 +4708,7 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4716,7 +4716,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4724,7 +4724,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4732,7 +4732,7 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4740,7 +4740,7 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4770,8 +4770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B23" s="42">
         <v>1</v>
@@ -5249,7 +5249,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B24" s="7">
         <v>1</v>
@@ -5258,7 +5258,7 @@
         <v>37</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>16</v>
@@ -6976,7 +6976,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6990,7 +6990,7 @@
         <v>103</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -7004,7 +7004,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7018,7 +7018,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7032,7 +7032,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7046,7 +7046,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7119,7 +7119,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7136,7 +7136,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7153,7 +7153,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7170,7 +7170,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7187,7 +7187,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7204,7 +7204,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7303,7 +7303,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -7313,7 +7313,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7322,7 +7322,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7331,7 +7331,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7340,7 +7340,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7349,7 +7349,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7447,7 +7447,7 @@
         <v>144</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7485,7 +7485,7 @@
         <v>144</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7503,7 +7503,7 @@
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7523,7 +7523,7 @@
         <v>144</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7727,7 +7727,7 @@
         <v>144</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -7771,7 +7771,7 @@
         <v>144</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7792,7 +7792,7 @@
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -7815,7 +7815,7 @@
         <v>144</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7836,7 +7836,7 @@
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -7927,7 +7927,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7935,7 +7935,7 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -7943,7 +7943,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7951,7 +7951,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7959,7 +7959,7 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7967,7 +7967,7 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8044,7 +8044,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8058,7 +8058,7 @@
         <v>103</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8072,7 +8072,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8086,7 +8086,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8100,7 +8100,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8114,7 +8114,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8197,7 +8197,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8214,7 +8214,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8231,7 +8231,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8248,7 +8248,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8265,7 +8265,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8282,7 +8282,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8351,7 +8351,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8435,7 +8435,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>64</v>
@@ -8704,7 +8704,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>108</v>
@@ -8722,7 +8722,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -8734,7 +8734,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -8746,7 +8746,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -8758,7 +8758,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -8770,7 +8770,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -9014,7 +9014,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>108</v>
@@ -9060,7 +9060,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>108</v>
@@ -9106,7 +9106,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>108</v>
@@ -9152,7 +9152,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>108</v>
@@ -9198,7 +9198,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>108</v>
@@ -9244,7 +9244,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>108</v>
@@ -9517,7 +9517,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>108</v>
@@ -9566,7 +9566,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>108</v>
@@ -9615,7 +9615,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>108</v>
@@ -9664,7 +9664,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>108</v>
@@ -9713,7 +9713,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>108</v>
@@ -9762,7 +9762,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>108</v>
@@ -10048,7 +10048,7 @@
         <v>144</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G2" s="19">
         <v>5</v>
@@ -10057,7 +10057,7 @@
         <v>116</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J2" s="19">
         <v>5</v>
@@ -10081,7 +10081,7 @@
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G3" s="21">
         <v>3</v>
@@ -10090,7 +10090,7 @@
         <v>116</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J3" s="21">
         <v>3</v>
@@ -10106,7 +10106,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -10121,7 +10121,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -10136,7 +10136,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -10151,7 +10151,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -10612,7 +10612,7 @@
         <v>103</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G2" s="19">
         <v>5</v>
@@ -10647,7 +10647,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G3" s="21">
         <v>3</v>
@@ -10682,7 +10682,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G4" s="19">
         <v>6</v>
@@ -10717,7 +10717,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G5" s="21">
         <v>3</v>
@@ -10752,7 +10752,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G6" s="19">
         <v>8</v>
@@ -10787,7 +10787,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G7" s="21">
         <v>3</v>
@@ -10964,7 +10964,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F2" s="19">
         <v>20</v>
@@ -10973,7 +10973,7 @@
         <v>116</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I2" s="19">
         <v>20</v>
@@ -10996,7 +10996,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F3" s="21">
         <v>30</v>
@@ -11005,7 +11005,7 @@
         <v>116</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I3" s="21">
         <v>30</v>
@@ -11020,7 +11020,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -11034,7 +11034,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -11048,7 +11048,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -11062,7 +11062,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -11730,7 +11730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -11851,7 +11851,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>82</v>
@@ -11860,7 +11860,7 @@
         <v>84</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>86</v>
@@ -12457,10 +12457,10 @@
         <v>213</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F1" s="44" t="s">
         <v>8</v>
@@ -12487,34 +12487,34 @@
         <v>202</v>
       </c>
       <c r="N1" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q1" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="R1" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="S1" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="Q1" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="R1" s="40" t="s">
+      <c r="T1" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="S1" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="T1" s="40" t="s">
+      <c r="U1" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="U1" s="40" t="s">
-        <v>235</v>
-      </c>
       <c r="V1" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="W1" s="40" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="X1" s="31"/>
       <c r="Y1" s="31"/>
@@ -12528,10 +12528,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -12558,7 +12558,7 @@
         <v>204</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N2" s="7" t="str">
         <f>C2</f>
@@ -12581,16 +12581,16 @@
         <v>L130</v>
       </c>
       <c r="T2" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="U2" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="U2" s="39" t="s">
-        <v>236</v>
-      </c>
       <c r="V2" s="39" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="W2" s="39" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="X2" s="30"/>
       <c r="Y2" s="30"/>
@@ -12623,13 +12623,13 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="U3" s="39" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="V3" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="W3" s="39" t="s">
         <v>234</v>
-      </c>
-      <c r="W3" s="39" t="s">
-        <v>237</v>
       </c>
       <c r="X3" s="30"/>
       <c r="Y3" s="30"/>
@@ -12661,11 +12661,11 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="39" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="39" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="X4" s="30"/>
       <c r="Y4" s="30"/>
@@ -12695,11 +12695,11 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="39" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="V5" s="7"/>
       <c r="W5" s="39" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="X5" s="30"/>
       <c r="Y5" s="30"/>
@@ -12729,11 +12729,11 @@
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="39" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" s="39" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="X6" s="30"/>
       <c r="Y6" s="30"/>
@@ -12995,7 +12995,7 @@
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>45</v>
@@ -13036,7 +13036,7 @@
         <v>144</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>45</v>
@@ -13077,7 +13077,7 @@
         <v>144</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>45</v>
@@ -13116,7 +13116,7 @@
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -13157,7 +13157,7 @@
         <v>144</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>45</v>
@@ -13196,7 +13196,7 @@
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>45</v>
@@ -13378,22 +13378,22 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B2" s="21">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>190</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>45</v>
@@ -13402,7 +13402,7 @@
         <v>212</v>
       </c>
       <c r="I2" s="54" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J2" s="20">
         <v>1173782</v>
@@ -13417,7 +13417,7 @@
         <v>204</v>
       </c>
       <c r="N2" s="39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13584,7 +13584,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
@@ -13600,13 +13600,13 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="54" t="s">
         <v>218</v>
-      </c>
-      <c r="B2" s="21">
-        <v>1</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>221</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="28"/>
@@ -13804,7 +13804,7 @@
         <v>144</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>45</v>
@@ -13843,7 +13843,7 @@
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>45</v>
@@ -13884,7 +13884,7 @@
         <v>144</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>45</v>
@@ -13923,7 +13923,7 @@
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -13964,7 +13964,7 @@
         <v>144</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>45</v>
@@ -14003,7 +14003,7 @@
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>45</v>
@@ -14174,7 +14174,7 @@
         <v>144</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>45</v>
@@ -14216,7 +14216,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>45</v>
@@ -14260,7 +14260,7 @@
         <v>144</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>45</v>
@@ -14302,7 +14302,7 @@
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>45</v>
@@ -14346,7 +14346,7 @@
         <v>144</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>45</v>
@@ -14388,7 +14388,7 @@
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>45</v>
@@ -14548,7 +14548,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -14586,7 +14586,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>45</v>
@@ -14616,7 +14616,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -14632,7 +14632,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -14648,7 +14648,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -14664,7 +14664,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -14792,7 +14792,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>45</v>
@@ -14830,7 +14830,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>45</v>
@@ -14868,7 +14868,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>45</v>
@@ -14906,7 +14906,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>45</v>
@@ -14944,7 +14944,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>45</v>
@@ -14982,7 +14982,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>45</v>
@@ -15134,7 +15134,7 @@
         <v>103</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>45</v>
@@ -15175,7 +15175,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>45</v>
@@ -15216,7 +15216,7 @@
         <v>103</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>45</v>
@@ -15257,7 +15257,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -15298,7 +15298,7 @@
         <v>103</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>45</v>
@@ -15339,7 +15339,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>45</v>

--- a/Test data/TestData.xlsx
+++ b/Test data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="34" activeTab="37"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="34" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="Mercury" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="258">
   <si>
     <t>Password</t>
   </si>
@@ -776,6 +776,9 @@
     <t>ServiceTypeId1</t>
   </si>
   <si>
+    <t>Xcelerate</t>
+  </si>
+  <si>
     <t>2018-03-01 TO 2018-04-15</t>
   </si>
   <si>
@@ -809,19 +812,22 @@
     <t>Test48 - Test048</t>
   </si>
   <si>
-    <t>L130</t>
-  </si>
-  <si>
     <t>Tc_14_Reports_Module</t>
   </si>
   <si>
-    <t>siri790</t>
-  </si>
-  <si>
-    <t>Test3_Entity46</t>
-  </si>
-  <si>
-    <t>2953/291141/16</t>
+    <t>Environment1</t>
+  </si>
+  <si>
+    <t>siri791</t>
+  </si>
+  <si>
+    <t>Test3_Entity48</t>
+  </si>
+  <si>
+    <t>2953/292141/16</t>
+  </si>
+  <si>
+    <t>L133</t>
   </si>
 </sst>
 </file>
@@ -1864,7 +1870,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -2152,7 +2158,7 @@
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>45</v>
@@ -2197,7 +2203,7 @@
         <v>144</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>45</v>
@@ -2244,7 +2250,7 @@
         <v>144</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>45</v>
@@ -2289,7 +2295,7 @@
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>45</v>
@@ -2334,7 +2340,7 @@
         <v>144</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>45</v>
@@ -2379,7 +2385,7 @@
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>45</v>
@@ -2665,7 +2671,7 @@
         <v>144</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>45</v>
@@ -2713,7 +2719,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>45</v>
@@ -2759,7 +2765,7 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>174</v>
@@ -2807,7 +2813,7 @@
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>45</v>
@@ -2855,7 +2861,7 @@
         <v>144</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>45</v>
@@ -2903,7 +2909,7 @@
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>45</v>
@@ -2949,7 +2955,7 @@
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>181</v>
@@ -3065,7 +3071,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>45</v>
@@ -3098,7 +3104,7 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="7"/>
@@ -3115,7 +3121,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -3132,7 +3138,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -3149,7 +3155,7 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -3166,7 +3172,7 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -3338,7 +3344,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>45</v>
@@ -3379,7 +3385,7 @@
         <v>103</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>45</v>
@@ -3420,7 +3426,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>45</v>
@@ -3461,7 +3467,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>45</v>
@@ -3502,7 +3508,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>45</v>
@@ -3543,7 +3549,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>45</v>
@@ -3736,7 +3742,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -3780,7 +3786,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>45</v>
@@ -3824,7 +3830,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>45</v>
@@ -3868,7 +3874,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>45</v>
@@ -3912,7 +3918,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>45</v>
@@ -3956,7 +3962,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>45</v>
@@ -4157,7 +4163,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -4167,7 +4173,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4176,7 +4182,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4185,7 +4191,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4194,7 +4200,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4203,7 +4209,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4287,7 +4293,7 @@
         <v>144</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4305,7 +4311,7 @@
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4325,7 +4331,7 @@
         <v>144</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4343,7 +4349,7 @@
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4363,7 +4369,7 @@
         <v>144</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4381,7 +4387,7 @@
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4473,7 +4479,7 @@
         <v>144</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4494,7 +4500,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4517,7 +4523,7 @@
         <v>144</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4538,7 +4544,7 @@
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4561,7 +4567,7 @@
         <v>144</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4582,7 +4588,7 @@
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4700,7 +4706,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4708,7 +4714,7 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4716,7 +4722,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4724,7 +4730,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4732,7 +4738,7 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4740,7 +4746,7 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4768,10 +4774,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4783,9 +4789,10 @@
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>33</v>
       </c>
@@ -4807,8 +4814,11 @@
       <c r="G1" s="51" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -4825,13 +4835,16 @@
         <v>16</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>50</v>
       </c>
@@ -4848,13 +4861,16 @@
         <v>16</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>56</v>
       </c>
@@ -4872,8 +4888,9 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>57</v>
       </c>
@@ -4891,8 +4908,9 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>58</v>
       </c>
@@ -4909,13 +4927,16 @@
         <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -4932,11 +4953,14 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>107</v>
       </c>
@@ -4954,8 +4978,9 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>115</v>
       </c>
@@ -4973,8 +4998,9 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>117</v>
       </c>
@@ -4992,8 +5018,9 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>120</v>
       </c>
@@ -5011,8 +5038,9 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>121</v>
       </c>
@@ -5030,8 +5058,9 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>122</v>
       </c>
@@ -5049,8 +5078,9 @@
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>252</v>
       </c>
@@ -5068,8 +5098,9 @@
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>123</v>
       </c>
@@ -5087,8 +5118,9 @@
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>136</v>
       </c>
@@ -5106,8 +5138,9 @@
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>137</v>
       </c>
@@ -5125,8 +5158,9 @@
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>138</v>
       </c>
@@ -5144,8 +5178,9 @@
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>139</v>
       </c>
@@ -5163,8 +5198,9 @@
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>140</v>
       </c>
@@ -5182,8 +5218,9 @@
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>141</v>
       </c>
@@ -5201,8 +5238,9 @@
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>147</v>
       </c>
@@ -5220,10 +5258,11 @@
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B23" s="42">
         <v>1</v>
@@ -5238,7 +5277,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>196</v>
@@ -5246,8 +5285,11 @@
       <c r="H23" s="7" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>215</v>
       </c>
@@ -5265,8 +5307,9 @@
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>149</v>
       </c>
@@ -5284,8 +5327,9 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>149</v>
       </c>
@@ -5303,8 +5347,9 @@
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>149</v>
       </c>
@@ -5322,8 +5367,9 @@
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>149</v>
       </c>
@@ -5341,8 +5387,9 @@
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>149</v>
       </c>
@@ -5360,8 +5407,9 @@
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>149</v>
       </c>
@@ -5379,8 +5427,9 @@
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>151</v>
       </c>
@@ -5398,8 +5447,9 @@
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>153</v>
       </c>
@@ -5417,8 +5467,9 @@
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>153</v>
       </c>
@@ -5436,8 +5487,9 @@
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>153</v>
       </c>
@@ -5455,8 +5507,9 @@
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>153</v>
       </c>
@@ -5474,8 +5527,9 @@
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>153</v>
       </c>
@@ -5493,8 +5547,9 @@
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>153</v>
       </c>
@@ -5512,8 +5567,9 @@
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>154</v>
       </c>
@@ -5531,8 +5587,9 @@
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>155</v>
       </c>
@@ -5550,8 +5607,9 @@
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>155</v>
       </c>
@@ -5569,8 +5627,9 @@
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>155</v>
       </c>
@@ -5588,8 +5647,9 @@
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>155</v>
       </c>
@@ -5607,8 +5667,9 @@
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>155</v>
       </c>
@@ -5626,8 +5687,9 @@
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>155</v>
       </c>
@@ -5645,8 +5707,9 @@
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>156</v>
       </c>
@@ -5664,8 +5727,9 @@
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>157</v>
       </c>
@@ -5683,8 +5747,9 @@
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>157</v>
       </c>
@@ -5702,8 +5767,9 @@
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>157</v>
       </c>
@@ -5721,8 +5787,9 @@
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>157</v>
       </c>
@@ -5740,8 +5807,9 @@
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>157</v>
       </c>
@@ -5759,8 +5827,9 @@
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>157</v>
       </c>
@@ -5778,8 +5847,9 @@
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>158</v>
       </c>
@@ -5797,8 +5867,9 @@
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>159</v>
       </c>
@@ -5816,8 +5887,9 @@
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>159</v>
       </c>
@@ -5835,8 +5907,9 @@
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>159</v>
       </c>
@@ -5854,8 +5927,9 @@
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>159</v>
       </c>
@@ -5873,8 +5947,9 @@
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>159</v>
       </c>
@@ -5892,8 +5967,9 @@
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>159</v>
       </c>
@@ -5911,8 +5987,9 @@
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>160</v>
       </c>
@@ -5930,8 +6007,9 @@
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>161</v>
       </c>
@@ -5949,8 +6027,9 @@
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>161</v>
       </c>
@@ -5968,8 +6047,9 @@
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>161</v>
       </c>
@@ -5987,8 +6067,9 @@
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>161</v>
       </c>
@@ -6006,8 +6087,9 @@
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>161</v>
       </c>
@@ -6025,8 +6107,9 @@
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>161</v>
       </c>
@@ -6044,8 +6127,9 @@
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>162</v>
       </c>
@@ -6063,8 +6147,9 @@
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>163</v>
       </c>
@@ -6082,8 +6167,9 @@
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>163</v>
       </c>
@@ -6101,8 +6187,9 @@
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>163</v>
       </c>
@@ -6120,8 +6207,9 @@
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>163</v>
       </c>
@@ -6139,8 +6227,9 @@
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>163</v>
       </c>
@@ -6158,8 +6247,9 @@
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>163</v>
       </c>
@@ -6177,8 +6267,9 @@
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>164</v>
       </c>
@@ -6196,8 +6287,9 @@
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>165</v>
       </c>
@@ -6215,8 +6307,9 @@
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>165</v>
       </c>
@@ -6234,8 +6327,9 @@
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>165</v>
       </c>
@@ -6253,8 +6347,9 @@
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>165</v>
       </c>
@@ -6272,8 +6367,9 @@
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>165</v>
       </c>
@@ -6291,8 +6387,9 @@
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>165</v>
       </c>
@@ -6310,8 +6407,9 @@
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>166</v>
       </c>
@@ -6329,8 +6427,9 @@
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>167</v>
       </c>
@@ -6348,8 +6447,9 @@
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>167</v>
       </c>
@@ -6367,8 +6467,9 @@
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>167</v>
       </c>
@@ -6386,8 +6487,9 @@
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>167</v>
       </c>
@@ -6405,8 +6507,9 @@
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>167</v>
       </c>
@@ -6424,8 +6527,9 @@
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>167</v>
       </c>
@@ -6443,8 +6547,9 @@
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>168</v>
       </c>
@@ -6462,8 +6567,9 @@
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>169</v>
       </c>
@@ -6481,8 +6587,9 @@
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>169</v>
       </c>
@@ -6500,8 +6607,9 @@
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>169</v>
       </c>
@@ -6519,8 +6627,9 @@
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>169</v>
       </c>
@@ -6538,8 +6647,9 @@
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>169</v>
       </c>
@@ -6557,8 +6667,9 @@
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>169</v>
       </c>
@@ -6576,8 +6687,9 @@
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>170</v>
       </c>
@@ -6595,8 +6707,9 @@
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="7"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>171</v>
       </c>
@@ -6614,8 +6727,9 @@
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="7"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>171</v>
       </c>
@@ -6633,8 +6747,9 @@
       </c>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="7"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>171</v>
       </c>
@@ -6652,8 +6767,9 @@
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="7"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>171</v>
       </c>
@@ -6671,8 +6787,9 @@
       </c>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="7"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>171</v>
       </c>
@@ -6690,8 +6807,9 @@
       </c>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="7"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>171</v>
       </c>
@@ -6709,8 +6827,9 @@
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>172</v>
       </c>
@@ -6728,6 +6847,7 @@
       </c>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6976,7 +7096,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6990,7 +7110,7 @@
         <v>103</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -7004,7 +7124,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7018,7 +7138,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7032,7 +7152,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7046,7 +7166,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7119,7 +7239,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7136,7 +7256,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7153,7 +7273,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7170,7 +7290,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7187,7 +7307,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7204,7 +7324,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7303,7 +7423,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -7313,7 +7433,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7322,7 +7442,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7331,7 +7451,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7340,7 +7460,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7349,7 +7469,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7447,7 +7567,7 @@
         <v>144</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7465,7 +7585,7 @@
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7485,7 +7605,7 @@
         <v>144</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7503,7 +7623,7 @@
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7523,7 +7643,7 @@
         <v>144</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7541,7 +7661,7 @@
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7727,7 +7847,7 @@
         <v>144</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7748,7 +7868,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -7771,7 +7891,7 @@
         <v>144</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7792,7 +7912,7 @@
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -7815,7 +7935,7 @@
         <v>144</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7836,7 +7956,7 @@
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -7927,7 +8047,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7935,7 +8055,7 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -7943,7 +8063,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7951,7 +8071,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7959,7 +8079,7 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7967,7 +8087,7 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8044,7 +8164,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8058,7 +8178,7 @@
         <v>103</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8072,7 +8192,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8086,7 +8206,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8100,7 +8220,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8114,7 +8234,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8197,7 +8317,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8214,7 +8334,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8231,7 +8351,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8248,7 +8368,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8265,7 +8385,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8282,7 +8402,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8351,7 +8471,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8435,7 +8555,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>64</v>
@@ -8704,7 +8824,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>108</v>
@@ -8722,7 +8842,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -8734,7 +8854,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -8746,7 +8866,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -8758,7 +8878,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -8770,7 +8890,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -9014,7 +9134,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>108</v>
@@ -9060,7 +9180,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>108</v>
@@ -9106,7 +9226,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>108</v>
@@ -9152,7 +9272,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>108</v>
@@ -9198,7 +9318,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>108</v>
@@ -9244,7 +9364,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>108</v>
@@ -9517,7 +9637,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>108</v>
@@ -9566,7 +9686,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>108</v>
@@ -9615,7 +9735,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>108</v>
@@ -9664,7 +9784,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>108</v>
@@ -9713,7 +9833,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>108</v>
@@ -9762,7 +9882,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>108</v>
@@ -10048,7 +10168,7 @@
         <v>144</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G2" s="19">
         <v>5</v>
@@ -10057,7 +10177,7 @@
         <v>116</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J2" s="19">
         <v>5</v>
@@ -10081,7 +10201,7 @@
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G3" s="21">
         <v>3</v>
@@ -10090,7 +10210,7 @@
         <v>116</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J3" s="21">
         <v>3</v>
@@ -10106,7 +10226,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -10121,7 +10241,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -10136,7 +10256,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -10151,7 +10271,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -10612,7 +10732,7 @@
         <v>103</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G2" s="19">
         <v>5</v>
@@ -10647,7 +10767,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G3" s="21">
         <v>3</v>
@@ -10682,7 +10802,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G4" s="19">
         <v>6</v>
@@ -10717,7 +10837,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G5" s="21">
         <v>3</v>
@@ -10752,7 +10872,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G6" s="19">
         <v>8</v>
@@ -10787,7 +10907,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G7" s="21">
         <v>3</v>
@@ -10964,7 +11084,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F2" s="19">
         <v>20</v>
@@ -10973,7 +11093,7 @@
         <v>116</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I2" s="19">
         <v>20</v>
@@ -10996,7 +11116,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F3" s="21">
         <v>30</v>
@@ -11005,7 +11125,7 @@
         <v>116</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I3" s="21">
         <v>30</v>
@@ -11020,7 +11140,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -11034,7 +11154,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -11048,7 +11168,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -11062,7 +11182,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -11141,7 +11261,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11730,7 +11850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -11851,7 +11971,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>82</v>
@@ -11860,7 +11980,7 @@
         <v>84</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>86</v>
@@ -12412,8 +12532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12528,7 +12648,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>221</v>
@@ -12562,7 +12682,7 @@
       </c>
       <c r="N2" s="7" t="str">
         <f>C2</f>
-        <v>L130</v>
+        <v>L133</v>
       </c>
       <c r="O2" s="7">
         <v>1000000</v>
@@ -12576,9 +12696,9 @@
       <c r="R2" s="7">
         <v>1000000</v>
       </c>
-      <c r="S2" s="7" t="str">
+      <c r="S2" s="9" t="str">
         <f>N2</f>
-        <v>L130</v>
+        <v>L133</v>
       </c>
       <c r="T2" s="39" t="s">
         <v>230</v>
@@ -12920,7 +13040,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12995,7 +13115,7 @@
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>45</v>
@@ -13036,7 +13156,7 @@
         <v>144</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>45</v>
@@ -13077,7 +13197,7 @@
         <v>144</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>45</v>
@@ -13116,7 +13236,7 @@
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -13157,7 +13277,7 @@
         <v>144</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>45</v>
@@ -13196,7 +13316,7 @@
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>45</v>
@@ -13378,22 +13498,22 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B2" s="21">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>190</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>45</v>
@@ -13417,7 +13537,7 @@
         <v>204</v>
       </c>
       <c r="N2" s="39" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13804,7 +13924,7 @@
         <v>144</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>45</v>
@@ -13843,7 +13963,7 @@
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>45</v>
@@ -13884,7 +14004,7 @@
         <v>144</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>45</v>
@@ -13923,7 +14043,7 @@
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -13964,7 +14084,7 @@
         <v>144</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>45</v>
@@ -14003,7 +14123,7 @@
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>45</v>
@@ -14174,7 +14294,7 @@
         <v>144</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>45</v>
@@ -14216,7 +14336,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>45</v>
@@ -14260,7 +14380,7 @@
         <v>144</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>45</v>
@@ -14302,7 +14422,7 @@
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>45</v>
@@ -14346,7 +14466,7 @@
         <v>144</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>45</v>
@@ -14388,7 +14508,7 @@
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>45</v>
@@ -14548,7 +14668,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -14586,7 +14706,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>45</v>
@@ -14616,7 +14736,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -14632,7 +14752,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -14648,7 +14768,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -14664,7 +14784,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -14792,7 +14912,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>45</v>
@@ -14830,7 +14950,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>45</v>
@@ -14868,7 +14988,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>45</v>
@@ -14906,7 +15026,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>45</v>
@@ -14944,7 +15064,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>45</v>
@@ -14982,7 +15102,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>45</v>
@@ -15134,7 +15254,7 @@
         <v>103</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>45</v>
@@ -15175,7 +15295,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>45</v>
@@ -15216,7 +15336,7 @@
         <v>103</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>45</v>
@@ -15257,7 +15377,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -15298,7 +15418,7 @@
         <v>103</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>45</v>
@@ -15339,7 +15459,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>45</v>

--- a/Test data/TestData.xlsx
+++ b/Test data/TestData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Seleniumworkspace\Maven_Xcelerate\Test data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="34" activeTab="38"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="27" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Mercury" sheetId="1" r:id="rId1"/>
@@ -53,7 +48,7 @@
     <sheet name="BankAccountCreation" sheetId="20" r:id="rId39"/>
     <sheet name="ISOPAIN" sheetId="52" r:id="rId40"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -741,9 +736,6 @@
     <t>Test99 - Test099</t>
   </si>
   <si>
-    <t>siri300</t>
-  </si>
-  <si>
     <t>Test5_Entity12</t>
   </si>
   <si>
@@ -759,13 +751,16 @@
     <t>001155</t>
   </si>
   <si>
-    <t>L319</t>
+    <t>L321</t>
+  </si>
+  <si>
+    <t>siri301</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
@@ -1247,7 +1242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1280,26 +1275,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1332,23 +1310,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8518,8 +8479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8603,7 +8564,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>64</v>
@@ -12000,7 +11961,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>82</v>
@@ -12009,7 +11970,7 @@
         <v>84</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>86</v>
@@ -12390,8 +12351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12497,7 +12458,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>213</v>
@@ -12526,7 +12487,7 @@
       </c>
       <c r="M2" s="11" t="str">
         <f>C2</f>
-        <v>L319</v>
+        <v>L321</v>
       </c>
       <c r="N2" s="11">
         <v>1000000</v>
@@ -12542,7 +12503,7 @@
       </c>
       <c r="R2" s="11" t="str">
         <f>C2</f>
-        <v>L319</v>
+        <v>L321</v>
       </c>
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
@@ -13381,16 +13342,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>192</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>45</v>
@@ -13399,7 +13360,7 @@
         <v>225</v>
       </c>
       <c r="I2" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J2" s="20">
         <v>1173782</v>

--- a/Test data/TestData.xlsx
+++ b/Test data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="27" activeTab="27"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="34" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="Mercury" sheetId="1" r:id="rId1"/>
@@ -751,10 +751,10 @@
     <t>001155</t>
   </si>
   <si>
-    <t>L321</t>
-  </si>
-  <si>
-    <t>siri301</t>
+    <t>siri302</t>
+  </si>
+  <si>
+    <t>L329</t>
   </si>
 </sst>
 </file>
@@ -8479,8 +8479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8564,7 +8564,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>64</v>
@@ -12351,8 +12351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12458,7 +12458,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>213</v>
@@ -12487,7 +12487,7 @@
       </c>
       <c r="M2" s="11" t="str">
         <f>C2</f>
-        <v>L321</v>
+        <v>L329</v>
       </c>
       <c r="N2" s="11">
         <v>1000000</v>
@@ -12503,7 +12503,7 @@
       </c>
       <c r="R2" s="11" t="str">
         <f>C2</f>
-        <v>L321</v>
+        <v>L329</v>
       </c>
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>

--- a/Test data/TestData.xlsx
+++ b/Test data/TestData.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="245">
   <si>
     <t>Password</t>
   </si>
@@ -754,7 +754,40 @@
     <t>siri302</t>
   </si>
   <si>
-    <t>L329</t>
+    <t>ServiceId</t>
+  </si>
+  <si>
+    <t>ServiceTypeId</t>
+  </si>
+  <si>
+    <t>ServiceId1</t>
+  </si>
+  <si>
+    <t>ServiceTypeId1</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>Same Day</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>Realtime</t>
+  </si>
+  <si>
+    <t>NAEDO</t>
+  </si>
+  <si>
+    <t>Corp SSV</t>
+  </si>
+  <si>
+    <t>Real-Time gross settlement (payment greater than R5mil)</t>
+  </si>
+  <si>
+    <t>L404</t>
   </si>
 </sst>
 </file>
@@ -8139,7 +8172,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8326,7 +8359,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8343,7 +8376,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8360,7 +8393,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8377,7 +8410,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8394,7 +8427,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8411,7 +8444,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -12352,7 +12385,7 @@
   <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12377,8 +12410,8 @@
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" customWidth="1"/>
     <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
@@ -12440,10 +12473,18 @@
       <c r="R1" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
+      <c r="S1" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>236</v>
+      </c>
       <c r="W1" s="14"/>
       <c r="X1" s="14"/>
       <c r="Y1" s="14"/>
@@ -12458,7 +12499,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>213</v>
@@ -12473,10 +12514,10 @@
         <v>30</v>
       </c>
       <c r="H2" s="11">
-        <v>255005</v>
+        <v>1155</v>
       </c>
       <c r="I2" s="11">
-        <v>62239543269</v>
+        <v>1173782</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>212</v>
@@ -12487,7 +12528,7 @@
       </c>
       <c r="M2" s="11" t="str">
         <f>C2</f>
-        <v>L329</v>
+        <v>L404</v>
       </c>
       <c r="N2" s="11">
         <v>1000000</v>
@@ -12503,12 +12544,20 @@
       </c>
       <c r="R2" s="11" t="str">
         <f>C2</f>
-        <v>L329</v>
-      </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
+        <v>L404</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>240</v>
+      </c>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
       <c r="Y2" s="11"/>
@@ -12535,9 +12584,15 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
+      <c r="T3" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
@@ -12564,9 +12619,13 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
+      <c r="T4" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
+      <c r="V4" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
@@ -12593,9 +12652,13 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="T5" s="7" t="s">
+        <v>242</v>
+      </c>
       <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
+      <c r="V5" s="7" t="s">
+        <v>242</v>
+      </c>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
@@ -12622,9 +12685,13 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
+      <c r="T6" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
+      <c r="V6" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>

--- a/Test data/TestData.xlsx
+++ b/Test data/TestData.xlsx
@@ -787,7 +787,7 @@
     <t>Real-Time gross settlement (payment greater than R5mil)</t>
   </si>
   <si>
-    <t>L404</t>
+    <t>L411</t>
   </si>
 </sst>
 </file>
@@ -12385,7 +12385,7 @@
   <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12528,7 +12528,7 @@
       </c>
       <c r="M2" s="11" t="str">
         <f>C2</f>
-        <v>L404</v>
+        <v>L411</v>
       </c>
       <c r="N2" s="11">
         <v>1000000</v>
@@ -12544,7 +12544,7 @@
       </c>
       <c r="R2" s="11" t="str">
         <f>C2</f>
-        <v>L404</v>
+        <v>L411</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>237</v>

--- a/Test data/TestData.xlsx
+++ b/Test data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="34" activeTab="38"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="25" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Mercury" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="246">
   <si>
     <t>Password</t>
   </si>
@@ -751,9 +751,6 @@
     <t>001155</t>
   </si>
   <si>
-    <t>siri302</t>
-  </si>
-  <si>
     <t>ServiceId</t>
   </si>
   <si>
@@ -788,6 +785,12 @@
   </si>
   <si>
     <t>L411</t>
+  </si>
+  <si>
+    <t>Nu22</t>
+  </si>
+  <si>
+    <t>Nu23</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1814,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,7 +1908,7 @@
         <v>24</v>
       </c>
       <c r="J2" s="11">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>25</v>
@@ -1949,7 +1952,7 @@
         <v>24</v>
       </c>
       <c r="J3" s="11">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>25</v>
@@ -4799,10 +4802,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4834,13 +4837,13 @@
         <v>0</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="G1" s="62" t="s">
         <v>179</v>
       </c>
       <c r="H1" s="62" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4963,16 +4966,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="E7" s="59" t="s">
         <v>16</v>
@@ -4980,14 +4983,16 @@
       <c r="F7" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>181</v>
+      </c>
       <c r="H7" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>107</v>
+      <c r="A8" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -4996,18 +5001,22 @@
         <v>37</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="E8" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>115</v>
+      <c r="A9" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
@@ -5026,19 +5035,19 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="11">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="58" t="s">
+      <c r="D10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="7"/>
@@ -5047,7 +5056,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
@@ -5067,7 +5076,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="11">
         <v>1</v>
@@ -5087,7 +5096,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="11">
         <v>1</v>
@@ -5107,7 +5116,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
@@ -5127,7 +5136,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>222</v>
+        <v>124</v>
       </c>
       <c r="B15" s="11">
         <v>1</v>
@@ -5136,7 +5145,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="E15" s="58" t="s">
         <v>16</v>
@@ -5147,7 +5156,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="B16" s="11">
         <v>1</v>
@@ -5155,10 +5164,10 @@
       <c r="C16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="59" t="s">
+      <c r="D16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="58" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="7"/>
@@ -5167,7 +5176,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B17" s="11">
         <v>1</v>
@@ -5187,7 +5196,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" s="11">
         <v>1</v>
@@ -5206,19 +5215,19 @@
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="28">
-        <v>1</v>
-      </c>
-      <c r="C19" s="29" t="s">
+      <c r="A19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="60" t="s">
+      <c r="D19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="7"/>
@@ -5226,19 +5235,19 @@
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="32">
-        <v>1</v>
-      </c>
-      <c r="C20" s="33" t="s">
+      <c r="A20" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="28">
+        <v>1</v>
+      </c>
+      <c r="C20" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="60" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="7"/>
@@ -5247,7 +5256,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" s="32">
         <v>1</v>
@@ -5267,7 +5276,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B22" s="32">
         <v>1</v>
@@ -5276,7 +5285,7 @@
         <v>37</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E22" s="61" t="s">
         <v>16</v>
@@ -5286,83 +5295,83 @@
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="A23" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="32">
+        <v>1</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B24" s="40">
+        <v>220</v>
+      </c>
+      <c r="B24" s="7">
         <v>1</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>204</v>
+        <v>37</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
+      <c r="F24" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="11">
-        <v>1</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="58" t="s">
+      <c r="A25" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="40">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>145</v>
       </c>
       <c r="B26" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>38</v>
+      <c r="D26" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="E26" s="58" t="s">
         <v>16</v>
@@ -5376,13 +5385,13 @@
         <v>145</v>
       </c>
       <c r="B27" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>139</v>
+      <c r="D27" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E27" s="58" t="s">
         <v>16</v>
@@ -5396,13 +5405,13 @@
         <v>145</v>
       </c>
       <c r="B28" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E28" s="58" t="s">
         <v>16</v>
@@ -5416,13 +5425,13 @@
         <v>145</v>
       </c>
       <c r="B29" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E29" s="58" t="s">
         <v>16</v>
@@ -5436,13 +5445,13 @@
         <v>145</v>
       </c>
       <c r="B30" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E30" s="58" t="s">
         <v>16</v>
@@ -5453,16 +5462,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B31" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E31" s="58" t="s">
         <v>16</v>
@@ -5473,7 +5482,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B32" s="11">
         <v>1</v>
@@ -5482,7 +5491,7 @@
         <v>37</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E32" s="58" t="s">
         <v>16</v>
@@ -5496,13 +5505,13 @@
         <v>147</v>
       </c>
       <c r="B33" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>38</v>
+      <c r="D33" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="E33" s="58" t="s">
         <v>16</v>
@@ -5516,13 +5525,13 @@
         <v>147</v>
       </c>
       <c r="B34" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>139</v>
+      <c r="D34" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E34" s="58" t="s">
         <v>16</v>
@@ -5536,13 +5545,13 @@
         <v>147</v>
       </c>
       <c r="B35" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E35" s="58" t="s">
         <v>16</v>
@@ -5556,13 +5565,13 @@
         <v>147</v>
       </c>
       <c r="B36" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E36" s="58" t="s">
         <v>16</v>
@@ -5576,13 +5585,13 @@
         <v>147</v>
       </c>
       <c r="B37" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E37" s="58" t="s">
         <v>16</v>
@@ -5593,16 +5602,16 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B38" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E38" s="58" t="s">
         <v>16</v>
@@ -5612,8 +5621,8 @@
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>149</v>
+      <c r="A39" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="B39" s="11">
         <v>1</v>
@@ -5622,7 +5631,7 @@
         <v>37</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E39" s="58" t="s">
         <v>16</v>
@@ -5636,13 +5645,13 @@
         <v>149</v>
       </c>
       <c r="B40" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>38</v>
+      <c r="D40" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="E40" s="58" t="s">
         <v>16</v>
@@ -5656,13 +5665,13 @@
         <v>149</v>
       </c>
       <c r="B41" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>139</v>
+      <c r="D41" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E41" s="58" t="s">
         <v>16</v>
@@ -5676,13 +5685,13 @@
         <v>149</v>
       </c>
       <c r="B42" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E42" s="58" t="s">
         <v>16</v>
@@ -5696,13 +5705,13 @@
         <v>149</v>
       </c>
       <c r="B43" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E43" s="58" t="s">
         <v>16</v>
@@ -5716,13 +5725,13 @@
         <v>149</v>
       </c>
       <c r="B44" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E44" s="58" t="s">
         <v>16</v>
@@ -5732,17 +5741,17 @@
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>148</v>
+      <c r="A45" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="B45" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E45" s="58" t="s">
         <v>16</v>
@@ -5753,7 +5762,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B46" s="11">
         <v>1</v>
@@ -5762,7 +5771,7 @@
         <v>37</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E46" s="58" t="s">
         <v>16</v>
@@ -5776,13 +5785,13 @@
         <v>151</v>
       </c>
       <c r="B47" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>38</v>
+      <c r="D47" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="E47" s="58" t="s">
         <v>16</v>
@@ -5796,13 +5805,13 @@
         <v>151</v>
       </c>
       <c r="B48" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>139</v>
+      <c r="D48" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E48" s="58" t="s">
         <v>16</v>
@@ -5816,13 +5825,13 @@
         <v>151</v>
       </c>
       <c r="B49" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E49" s="58" t="s">
         <v>16</v>
@@ -5836,13 +5845,13 @@
         <v>151</v>
       </c>
       <c r="B50" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E50" s="58" t="s">
         <v>16</v>
@@ -5856,13 +5865,13 @@
         <v>151</v>
       </c>
       <c r="B51" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E51" s="58" t="s">
         <v>16</v>
@@ -5873,10 +5882,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B52" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>37</v>
@@ -5892,19 +5901,19 @@
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B53" s="7">
-        <v>1</v>
-      </c>
-      <c r="C53" s="9" t="s">
+      <c r="A53" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="11">
+        <v>1</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" s="59" t="s">
+      <c r="D53" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="58" t="s">
         <v>16</v>
       </c>
       <c r="F53" s="7"/>
@@ -5915,16 +5924,16 @@
       <c r="A54" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="11">
-        <v>2</v>
-      </c>
-      <c r="C54" s="12" t="s">
+      <c r="B54" s="7">
+        <v>1</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F54" s="7"/>
@@ -5936,13 +5945,13 @@
         <v>158</v>
       </c>
       <c r="B55" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>139</v>
+      <c r="D55" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E55" s="58" t="s">
         <v>16</v>
@@ -5956,13 +5965,13 @@
         <v>158</v>
       </c>
       <c r="B56" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E56" s="58" t="s">
         <v>16</v>
@@ -5976,13 +5985,13 @@
         <v>158</v>
       </c>
       <c r="B57" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E57" s="58" t="s">
         <v>16</v>
@@ -5996,13 +6005,13 @@
         <v>158</v>
       </c>
       <c r="B58" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E58" s="58" t="s">
         <v>16</v>
@@ -6013,10 +6022,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B59" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>37</v>
@@ -6033,18 +6042,18 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B60" s="7">
-        <v>1</v>
-      </c>
-      <c r="C60" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="11">
+        <v>1</v>
+      </c>
+      <c r="C60" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E60" s="59" t="s">
+      <c r="D60" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="58" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="7"/>
@@ -6055,16 +6064,16 @@
       <c r="A61" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B61" s="11">
-        <v>2</v>
-      </c>
-      <c r="C61" s="12" t="s">
+      <c r="B61" s="7">
+        <v>1</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F61" s="7"/>
@@ -6076,13 +6085,13 @@
         <v>156</v>
       </c>
       <c r="B62" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="11" t="s">
-        <v>139</v>
+      <c r="D62" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E62" s="58" t="s">
         <v>16</v>
@@ -6096,13 +6105,13 @@
         <v>156</v>
       </c>
       <c r="B63" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E63" s="58" t="s">
         <v>16</v>
@@ -6116,13 +6125,13 @@
         <v>156</v>
       </c>
       <c r="B64" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E64" s="58" t="s">
         <v>16</v>
@@ -6136,13 +6145,13 @@
         <v>156</v>
       </c>
       <c r="B65" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E65" s="58" t="s">
         <v>16</v>
@@ -6153,10 +6162,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B66" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>37</v>
@@ -6173,18 +6182,18 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B67" s="7">
-        <v>1</v>
-      </c>
-      <c r="C67" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" s="11">
+        <v>1</v>
+      </c>
+      <c r="C67" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E67" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" s="58" t="s">
         <v>16</v>
       </c>
       <c r="F67" s="7"/>
@@ -6195,16 +6204,16 @@
       <c r="A68" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="11">
-        <v>2</v>
-      </c>
-      <c r="C68" s="12" t="s">
+      <c r="B68" s="7">
+        <v>1</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E68" s="58" t="s">
+      <c r="E68" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F68" s="7"/>
@@ -6216,7 +6225,7 @@
         <v>166</v>
       </c>
       <c r="B69" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>37</v>
@@ -6236,7 +6245,7 @@
         <v>166</v>
       </c>
       <c r="B70" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>37</v>
@@ -6256,7 +6265,7 @@
         <v>166</v>
       </c>
       <c r="B71" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>37</v>
@@ -6276,7 +6285,7 @@
         <v>166</v>
       </c>
       <c r="B72" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>37</v>
@@ -6293,10 +6302,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B73" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>37</v>
@@ -6313,18 +6322,18 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B74" s="7">
-        <v>1</v>
-      </c>
-      <c r="C74" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B74" s="11">
+        <v>1</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E74" s="59" t="s">
+      <c r="E74" s="58" t="s">
         <v>16</v>
       </c>
       <c r="F74" s="7"/>
@@ -6335,16 +6344,16 @@
       <c r="A75" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B75" s="11">
-        <v>2</v>
-      </c>
-      <c r="C75" s="12" t="s">
+      <c r="B75" s="7">
+        <v>1</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E75" s="58" t="s">
+      <c r="E75" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F75" s="7"/>
@@ -6356,7 +6365,7 @@
         <v>164</v>
       </c>
       <c r="B76" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>37</v>
@@ -6376,7 +6385,7 @@
         <v>164</v>
       </c>
       <c r="B77" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>37</v>
@@ -6396,7 +6405,7 @@
         <v>164</v>
       </c>
       <c r="B78" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>37</v>
@@ -6416,7 +6425,7 @@
         <v>164</v>
       </c>
       <c r="B79" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>37</v>
@@ -6433,10 +6442,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B80" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>37</v>
@@ -6453,7 +6462,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B81" s="11">
         <v>1</v>
@@ -6475,16 +6484,16 @@
       <c r="A82" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="7">
-        <v>2</v>
-      </c>
-      <c r="C82" s="9" t="s">
+      <c r="B82" s="11">
+        <v>1</v>
+      </c>
+      <c r="C82" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E82" s="59" t="s">
+      <c r="E82" s="58" t="s">
         <v>16</v>
       </c>
       <c r="F82" s="7"/>
@@ -6495,16 +6504,16 @@
       <c r="A83" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B83" s="11">
-        <v>3</v>
-      </c>
-      <c r="C83" s="12" t="s">
+      <c r="B83" s="7">
+        <v>2</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E83" s="58" t="s">
+      <c r="E83" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F83" s="7"/>
@@ -6516,7 +6525,7 @@
         <v>162</v>
       </c>
       <c r="B84" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>37</v>
@@ -6536,7 +6545,7 @@
         <v>162</v>
       </c>
       <c r="B85" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>37</v>
@@ -6556,7 +6565,7 @@
         <v>162</v>
       </c>
       <c r="B86" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>37</v>
@@ -6573,10 +6582,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B87" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>37</v>
@@ -6593,7 +6602,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B88" s="11">
         <v>1</v>
@@ -6615,16 +6624,16 @@
       <c r="A89" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B89" s="7">
-        <v>2</v>
-      </c>
-      <c r="C89" s="9" t="s">
+      <c r="B89" s="11">
+        <v>1</v>
+      </c>
+      <c r="C89" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E89" s="59" t="s">
+      <c r="E89" s="58" t="s">
         <v>16</v>
       </c>
       <c r="F89" s="7"/>
@@ -6635,16 +6644,16 @@
       <c r="A90" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B90" s="11">
-        <v>3</v>
-      </c>
-      <c r="C90" s="12" t="s">
+      <c r="B90" s="7">
+        <v>2</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E90" s="58" t="s">
+      <c r="E90" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F90" s="7"/>
@@ -6656,7 +6665,7 @@
         <v>160</v>
       </c>
       <c r="B91" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>37</v>
@@ -6676,7 +6685,7 @@
         <v>160</v>
       </c>
       <c r="B92" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>37</v>
@@ -6696,7 +6705,7 @@
         <v>160</v>
       </c>
       <c r="B93" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>37</v>
@@ -6713,10 +6722,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B94" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>37</v>
@@ -6733,7 +6742,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B95" s="11">
         <v>1</v>
@@ -6755,16 +6764,16 @@
       <c r="A96" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B96" s="7">
-        <v>2</v>
-      </c>
-      <c r="C96" s="9" t="s">
+      <c r="B96" s="11">
+        <v>1</v>
+      </c>
+      <c r="C96" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E96" s="59" t="s">
+      <c r="E96" s="58" t="s">
         <v>16</v>
       </c>
       <c r="F96" s="7"/>
@@ -6775,16 +6784,16 @@
       <c r="A97" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B97" s="11">
-        <v>3</v>
-      </c>
-      <c r="C97" s="12" t="s">
+      <c r="B97" s="7">
+        <v>2</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E97" s="58" t="s">
+      <c r="E97" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F97" s="7"/>
@@ -6796,7 +6805,7 @@
         <v>154</v>
       </c>
       <c r="B98" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>37</v>
@@ -6816,7 +6825,7 @@
         <v>154</v>
       </c>
       <c r="B99" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>37</v>
@@ -6836,7 +6845,7 @@
         <v>154</v>
       </c>
       <c r="B100" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>37</v>
@@ -6853,10 +6862,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B101" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>37</v>
@@ -6872,28 +6881,48 @@
       <c r="H101" s="7"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="40" t="s">
+      <c r="A102" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B102" s="11">
+        <v>1</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E102" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="B102" s="40">
-        <v>1</v>
-      </c>
-      <c r="C102" s="9" t="s">
+      <c r="B103" s="40">
+        <v>1</v>
+      </c>
+      <c r="C103" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D102" s="40" t="s">
+      <c r="D103" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E103" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F102" s="40" t="s">
+      <c r="F103" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="G102" s="40" t="s">
+      <c r="G103" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="H103" s="7" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6909,191 +6938,193 @@
     <hyperlink ref="C5" r:id="rId8"/>
     <hyperlink ref="E6" r:id="rId9"/>
     <hyperlink ref="C6" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="C12" r:id="rId12"/>
-    <hyperlink ref="E13" r:id="rId13"/>
-    <hyperlink ref="C13" r:id="rId14"/>
-    <hyperlink ref="E14" r:id="rId15"/>
-    <hyperlink ref="C14" r:id="rId16"/>
-    <hyperlink ref="E15" r:id="rId17"/>
-    <hyperlink ref="C15" r:id="rId18"/>
-    <hyperlink ref="C16" r:id="rId19"/>
-    <hyperlink ref="E16" r:id="rId20"/>
-    <hyperlink ref="C17" r:id="rId21"/>
-    <hyperlink ref="E17" r:id="rId22"/>
-    <hyperlink ref="C18" r:id="rId23"/>
-    <hyperlink ref="E18" r:id="rId24"/>
-    <hyperlink ref="C19" r:id="rId25"/>
-    <hyperlink ref="E19" r:id="rId26" display="mailto:P@ssw0rd"/>
-    <hyperlink ref="C20" r:id="rId27"/>
-    <hyperlink ref="E20" r:id="rId28" display="mailto:P@ssw0rd"/>
-    <hyperlink ref="C21" r:id="rId29"/>
-    <hyperlink ref="E21" r:id="rId30" display="mailto:P@ssw0rd"/>
-    <hyperlink ref="C22" r:id="rId31"/>
-    <hyperlink ref="E22" r:id="rId32" display="mailto:P@ssw0rd"/>
-    <hyperlink ref="E25" r:id="rId33"/>
-    <hyperlink ref="C25" r:id="rId34"/>
-    <hyperlink ref="E26" r:id="rId35"/>
-    <hyperlink ref="C26" r:id="rId36"/>
-    <hyperlink ref="E27" r:id="rId37"/>
-    <hyperlink ref="C27" r:id="rId38"/>
-    <hyperlink ref="E28" r:id="rId39"/>
-    <hyperlink ref="C28" r:id="rId40"/>
-    <hyperlink ref="E29" r:id="rId41"/>
-    <hyperlink ref="C29" r:id="rId42"/>
-    <hyperlink ref="E30" r:id="rId43"/>
-    <hyperlink ref="C30" r:id="rId44"/>
-    <hyperlink ref="E31" r:id="rId45"/>
-    <hyperlink ref="C31" r:id="rId46"/>
-    <hyperlink ref="E32" r:id="rId47"/>
-    <hyperlink ref="E33" r:id="rId48"/>
-    <hyperlink ref="C33" r:id="rId49"/>
-    <hyperlink ref="E34" r:id="rId50"/>
-    <hyperlink ref="C34" r:id="rId51"/>
-    <hyperlink ref="E35" r:id="rId52"/>
-    <hyperlink ref="C35" r:id="rId53"/>
-    <hyperlink ref="E36" r:id="rId54"/>
-    <hyperlink ref="C36" r:id="rId55"/>
-    <hyperlink ref="E37" r:id="rId56"/>
-    <hyperlink ref="C37" r:id="rId57"/>
-    <hyperlink ref="C32" r:id="rId58"/>
-    <hyperlink ref="E38" r:id="rId59"/>
-    <hyperlink ref="C38" r:id="rId60"/>
-    <hyperlink ref="E39" r:id="rId61"/>
-    <hyperlink ref="C39" r:id="rId62"/>
-    <hyperlink ref="E40" r:id="rId63"/>
-    <hyperlink ref="C40" r:id="rId64"/>
-    <hyperlink ref="E41" r:id="rId65"/>
-    <hyperlink ref="C41" r:id="rId66"/>
-    <hyperlink ref="E42" r:id="rId67"/>
-    <hyperlink ref="C42" r:id="rId68"/>
-    <hyperlink ref="E43" r:id="rId69"/>
-    <hyperlink ref="C43" r:id="rId70"/>
-    <hyperlink ref="E44" r:id="rId71"/>
-    <hyperlink ref="C44" r:id="rId72"/>
-    <hyperlink ref="E45" r:id="rId73"/>
-    <hyperlink ref="C45" r:id="rId74"/>
-    <hyperlink ref="E46" r:id="rId75"/>
-    <hyperlink ref="E47" r:id="rId76"/>
-    <hyperlink ref="C47" r:id="rId77"/>
-    <hyperlink ref="E48" r:id="rId78"/>
-    <hyperlink ref="C48" r:id="rId79"/>
-    <hyperlink ref="E49" r:id="rId80"/>
-    <hyperlink ref="C49" r:id="rId81"/>
-    <hyperlink ref="E50" r:id="rId82"/>
-    <hyperlink ref="C50" r:id="rId83"/>
-    <hyperlink ref="E51" r:id="rId84"/>
-    <hyperlink ref="C51" r:id="rId85"/>
-    <hyperlink ref="C46" r:id="rId86"/>
-    <hyperlink ref="E52" r:id="rId87"/>
-    <hyperlink ref="C52" r:id="rId88"/>
-    <hyperlink ref="E53" r:id="rId89"/>
-    <hyperlink ref="E54" r:id="rId90"/>
-    <hyperlink ref="C54" r:id="rId91"/>
-    <hyperlink ref="E55" r:id="rId92"/>
-    <hyperlink ref="C55" r:id="rId93"/>
-    <hyperlink ref="E56" r:id="rId94"/>
-    <hyperlink ref="C56" r:id="rId95"/>
-    <hyperlink ref="E57" r:id="rId96"/>
-    <hyperlink ref="C57" r:id="rId97"/>
-    <hyperlink ref="E58" r:id="rId98"/>
-    <hyperlink ref="C58" r:id="rId99"/>
-    <hyperlink ref="C53" r:id="rId100"/>
-    <hyperlink ref="E59" r:id="rId101"/>
-    <hyperlink ref="C59" r:id="rId102"/>
-    <hyperlink ref="E60" r:id="rId103"/>
-    <hyperlink ref="E61" r:id="rId104"/>
-    <hyperlink ref="C61" r:id="rId105"/>
-    <hyperlink ref="E62" r:id="rId106"/>
-    <hyperlink ref="C62" r:id="rId107"/>
-    <hyperlink ref="E63" r:id="rId108"/>
-    <hyperlink ref="C63" r:id="rId109"/>
-    <hyperlink ref="E64" r:id="rId110"/>
-    <hyperlink ref="C64" r:id="rId111"/>
-    <hyperlink ref="E65" r:id="rId112"/>
-    <hyperlink ref="C65" r:id="rId113"/>
-    <hyperlink ref="C60" r:id="rId114"/>
-    <hyperlink ref="E66" r:id="rId115"/>
-    <hyperlink ref="C66" r:id="rId116"/>
-    <hyperlink ref="E67" r:id="rId117"/>
-    <hyperlink ref="E68" r:id="rId118"/>
-    <hyperlink ref="C68" r:id="rId119"/>
-    <hyperlink ref="E69" r:id="rId120"/>
-    <hyperlink ref="C69" r:id="rId121"/>
-    <hyperlink ref="E70" r:id="rId122"/>
-    <hyperlink ref="C70" r:id="rId123"/>
-    <hyperlink ref="E71" r:id="rId124"/>
-    <hyperlink ref="C71" r:id="rId125"/>
-    <hyperlink ref="E72" r:id="rId126"/>
-    <hyperlink ref="C72" r:id="rId127"/>
-    <hyperlink ref="C67" r:id="rId128"/>
-    <hyperlink ref="E73" r:id="rId129"/>
-    <hyperlink ref="C73" r:id="rId130"/>
-    <hyperlink ref="E74" r:id="rId131"/>
-    <hyperlink ref="E75" r:id="rId132"/>
-    <hyperlink ref="C75" r:id="rId133"/>
-    <hyperlink ref="E76" r:id="rId134"/>
-    <hyperlink ref="C76" r:id="rId135"/>
-    <hyperlink ref="E77" r:id="rId136"/>
-    <hyperlink ref="C77" r:id="rId137"/>
-    <hyperlink ref="E78" r:id="rId138"/>
-    <hyperlink ref="C78" r:id="rId139"/>
-    <hyperlink ref="E79" r:id="rId140"/>
-    <hyperlink ref="C79" r:id="rId141"/>
-    <hyperlink ref="C74" r:id="rId142"/>
-    <hyperlink ref="E80" r:id="rId143"/>
-    <hyperlink ref="C80" r:id="rId144"/>
-    <hyperlink ref="E81" r:id="rId145"/>
-    <hyperlink ref="C81" r:id="rId146"/>
-    <hyperlink ref="E82" r:id="rId147"/>
-    <hyperlink ref="E83" r:id="rId148"/>
-    <hyperlink ref="C83" r:id="rId149"/>
-    <hyperlink ref="E84" r:id="rId150"/>
-    <hyperlink ref="C84" r:id="rId151"/>
-    <hyperlink ref="E85" r:id="rId152"/>
-    <hyperlink ref="C85" r:id="rId153"/>
-    <hyperlink ref="E86" r:id="rId154"/>
-    <hyperlink ref="C86" r:id="rId155"/>
-    <hyperlink ref="C82" r:id="rId156"/>
-    <hyperlink ref="E87" r:id="rId157"/>
-    <hyperlink ref="C87" r:id="rId158"/>
-    <hyperlink ref="E88" r:id="rId159"/>
-    <hyperlink ref="C88" r:id="rId160"/>
-    <hyperlink ref="E89" r:id="rId161"/>
-    <hyperlink ref="E90" r:id="rId162"/>
-    <hyperlink ref="C90" r:id="rId163"/>
-    <hyperlink ref="E91" r:id="rId164"/>
-    <hyperlink ref="C91" r:id="rId165"/>
-    <hyperlink ref="E92" r:id="rId166"/>
-    <hyperlink ref="C92" r:id="rId167"/>
-    <hyperlink ref="E93" r:id="rId168"/>
-    <hyperlink ref="C93" r:id="rId169"/>
-    <hyperlink ref="C89" r:id="rId170"/>
-    <hyperlink ref="E94" r:id="rId171"/>
-    <hyperlink ref="C94" r:id="rId172"/>
-    <hyperlink ref="E95" r:id="rId173"/>
-    <hyperlink ref="C95" r:id="rId174"/>
-    <hyperlink ref="E96" r:id="rId175"/>
-    <hyperlink ref="E97" r:id="rId176"/>
-    <hyperlink ref="C97" r:id="rId177"/>
-    <hyperlink ref="E98" r:id="rId178"/>
-    <hyperlink ref="C98" r:id="rId179"/>
-    <hyperlink ref="E99" r:id="rId180"/>
-    <hyperlink ref="C99" r:id="rId181"/>
-    <hyperlink ref="E100" r:id="rId182"/>
-    <hyperlink ref="C100" r:id="rId183"/>
-    <hyperlink ref="C96" r:id="rId184"/>
-    <hyperlink ref="E101" r:id="rId185"/>
-    <hyperlink ref="C101" r:id="rId186"/>
-    <hyperlink ref="C102" r:id="rId187" display="http://172.20.92.19/Login/LogOn?ReturnUrl=%2f"/>
-    <hyperlink ref="E102" r:id="rId188"/>
-    <hyperlink ref="C24" r:id="rId189" display="http://172.20.92.19/Login/LogOn?ReturnUrl=%2f"/>
-    <hyperlink ref="E24" r:id="rId190"/>
-    <hyperlink ref="E23" r:id="rId191"/>
-    <hyperlink ref="C23" r:id="rId192"/>
+    <hyperlink ref="E13" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="C14" r:id="rId14"/>
+    <hyperlink ref="E15" r:id="rId15"/>
+    <hyperlink ref="C15" r:id="rId16"/>
+    <hyperlink ref="E16" r:id="rId17"/>
+    <hyperlink ref="C16" r:id="rId18"/>
+    <hyperlink ref="C17" r:id="rId19"/>
+    <hyperlink ref="E17" r:id="rId20"/>
+    <hyperlink ref="C18" r:id="rId21"/>
+    <hyperlink ref="E18" r:id="rId22"/>
+    <hyperlink ref="C19" r:id="rId23"/>
+    <hyperlink ref="E19" r:id="rId24"/>
+    <hyperlink ref="C20" r:id="rId25"/>
+    <hyperlink ref="E20" r:id="rId26" display="mailto:P@ssw0rd"/>
+    <hyperlink ref="C21" r:id="rId27"/>
+    <hyperlink ref="E21" r:id="rId28" display="mailto:P@ssw0rd"/>
+    <hyperlink ref="C22" r:id="rId29"/>
+    <hyperlink ref="E22" r:id="rId30" display="mailto:P@ssw0rd"/>
+    <hyperlink ref="C23" r:id="rId31"/>
+    <hyperlink ref="E23" r:id="rId32" display="mailto:P@ssw0rd"/>
+    <hyperlink ref="E26" r:id="rId33"/>
+    <hyperlink ref="C26" r:id="rId34"/>
+    <hyperlink ref="E27" r:id="rId35"/>
+    <hyperlink ref="C27" r:id="rId36"/>
+    <hyperlink ref="E28" r:id="rId37"/>
+    <hyperlink ref="C28" r:id="rId38"/>
+    <hyperlink ref="E29" r:id="rId39"/>
+    <hyperlink ref="C29" r:id="rId40"/>
+    <hyperlink ref="E30" r:id="rId41"/>
+    <hyperlink ref="C30" r:id="rId42"/>
+    <hyperlink ref="E31" r:id="rId43"/>
+    <hyperlink ref="C31" r:id="rId44"/>
+    <hyperlink ref="E32" r:id="rId45"/>
+    <hyperlink ref="C32" r:id="rId46"/>
+    <hyperlink ref="E33" r:id="rId47"/>
+    <hyperlink ref="E34" r:id="rId48"/>
+    <hyperlink ref="C34" r:id="rId49"/>
+    <hyperlink ref="E35" r:id="rId50"/>
+    <hyperlink ref="C35" r:id="rId51"/>
+    <hyperlink ref="E36" r:id="rId52"/>
+    <hyperlink ref="C36" r:id="rId53"/>
+    <hyperlink ref="E37" r:id="rId54"/>
+    <hyperlink ref="C37" r:id="rId55"/>
+    <hyperlink ref="E38" r:id="rId56"/>
+    <hyperlink ref="C38" r:id="rId57"/>
+    <hyperlink ref="C33" r:id="rId58"/>
+    <hyperlink ref="E39" r:id="rId59"/>
+    <hyperlink ref="C39" r:id="rId60"/>
+    <hyperlink ref="E40" r:id="rId61"/>
+    <hyperlink ref="C40" r:id="rId62"/>
+    <hyperlink ref="E41" r:id="rId63"/>
+    <hyperlink ref="C41" r:id="rId64"/>
+    <hyperlink ref="E42" r:id="rId65"/>
+    <hyperlink ref="C42" r:id="rId66"/>
+    <hyperlink ref="E43" r:id="rId67"/>
+    <hyperlink ref="C43" r:id="rId68"/>
+    <hyperlink ref="E44" r:id="rId69"/>
+    <hyperlink ref="C44" r:id="rId70"/>
+    <hyperlink ref="E45" r:id="rId71"/>
+    <hyperlink ref="C45" r:id="rId72"/>
+    <hyperlink ref="E46" r:id="rId73"/>
+    <hyperlink ref="C46" r:id="rId74"/>
+    <hyperlink ref="E47" r:id="rId75"/>
+    <hyperlink ref="E48" r:id="rId76"/>
+    <hyperlink ref="C48" r:id="rId77"/>
+    <hyperlink ref="E49" r:id="rId78"/>
+    <hyperlink ref="C49" r:id="rId79"/>
+    <hyperlink ref="E50" r:id="rId80"/>
+    <hyperlink ref="C50" r:id="rId81"/>
+    <hyperlink ref="E51" r:id="rId82"/>
+    <hyperlink ref="C51" r:id="rId83"/>
+    <hyperlink ref="E52" r:id="rId84"/>
+    <hyperlink ref="C52" r:id="rId85"/>
+    <hyperlink ref="C47" r:id="rId86"/>
+    <hyperlink ref="E53" r:id="rId87"/>
+    <hyperlink ref="C53" r:id="rId88"/>
+    <hyperlink ref="E54" r:id="rId89"/>
+    <hyperlink ref="E55" r:id="rId90"/>
+    <hyperlink ref="C55" r:id="rId91"/>
+    <hyperlink ref="E56" r:id="rId92"/>
+    <hyperlink ref="C56" r:id="rId93"/>
+    <hyperlink ref="E57" r:id="rId94"/>
+    <hyperlink ref="C57" r:id="rId95"/>
+    <hyperlink ref="E58" r:id="rId96"/>
+    <hyperlink ref="C58" r:id="rId97"/>
+    <hyperlink ref="E59" r:id="rId98"/>
+    <hyperlink ref="C59" r:id="rId99"/>
+    <hyperlink ref="C54" r:id="rId100"/>
+    <hyperlink ref="E60" r:id="rId101"/>
+    <hyperlink ref="C60" r:id="rId102"/>
+    <hyperlink ref="E61" r:id="rId103"/>
+    <hyperlink ref="E62" r:id="rId104"/>
+    <hyperlink ref="C62" r:id="rId105"/>
+    <hyperlink ref="E63" r:id="rId106"/>
+    <hyperlink ref="C63" r:id="rId107"/>
+    <hyperlink ref="E64" r:id="rId108"/>
+    <hyperlink ref="C64" r:id="rId109"/>
+    <hyperlink ref="E65" r:id="rId110"/>
+    <hyperlink ref="C65" r:id="rId111"/>
+    <hyperlink ref="E66" r:id="rId112"/>
+    <hyperlink ref="C66" r:id="rId113"/>
+    <hyperlink ref="C61" r:id="rId114"/>
+    <hyperlink ref="E67" r:id="rId115"/>
+    <hyperlink ref="C67" r:id="rId116"/>
+    <hyperlink ref="E68" r:id="rId117"/>
+    <hyperlink ref="E69" r:id="rId118"/>
+    <hyperlink ref="C69" r:id="rId119"/>
+    <hyperlink ref="E70" r:id="rId120"/>
+    <hyperlink ref="C70" r:id="rId121"/>
+    <hyperlink ref="E71" r:id="rId122"/>
+    <hyperlink ref="C71" r:id="rId123"/>
+    <hyperlink ref="E72" r:id="rId124"/>
+    <hyperlink ref="C72" r:id="rId125"/>
+    <hyperlink ref="E73" r:id="rId126"/>
+    <hyperlink ref="C73" r:id="rId127"/>
+    <hyperlink ref="C68" r:id="rId128"/>
+    <hyperlink ref="E74" r:id="rId129"/>
+    <hyperlink ref="C74" r:id="rId130"/>
+    <hyperlink ref="E75" r:id="rId131"/>
+    <hyperlink ref="E76" r:id="rId132"/>
+    <hyperlink ref="C76" r:id="rId133"/>
+    <hyperlink ref="E77" r:id="rId134"/>
+    <hyperlink ref="C77" r:id="rId135"/>
+    <hyperlink ref="E78" r:id="rId136"/>
+    <hyperlink ref="C78" r:id="rId137"/>
+    <hyperlink ref="E79" r:id="rId138"/>
+    <hyperlink ref="C79" r:id="rId139"/>
+    <hyperlink ref="E80" r:id="rId140"/>
+    <hyperlink ref="C80" r:id="rId141"/>
+    <hyperlink ref="C75" r:id="rId142"/>
+    <hyperlink ref="E81" r:id="rId143"/>
+    <hyperlink ref="C81" r:id="rId144"/>
+    <hyperlink ref="E82" r:id="rId145"/>
+    <hyperlink ref="C82" r:id="rId146"/>
+    <hyperlink ref="E83" r:id="rId147"/>
+    <hyperlink ref="E84" r:id="rId148"/>
+    <hyperlink ref="C84" r:id="rId149"/>
+    <hyperlink ref="E85" r:id="rId150"/>
+    <hyperlink ref="C85" r:id="rId151"/>
+    <hyperlink ref="E86" r:id="rId152"/>
+    <hyperlink ref="C86" r:id="rId153"/>
+    <hyperlink ref="E87" r:id="rId154"/>
+    <hyperlink ref="C87" r:id="rId155"/>
+    <hyperlink ref="C83" r:id="rId156"/>
+    <hyperlink ref="E88" r:id="rId157"/>
+    <hyperlink ref="C88" r:id="rId158"/>
+    <hyperlink ref="E89" r:id="rId159"/>
+    <hyperlink ref="C89" r:id="rId160"/>
+    <hyperlink ref="E90" r:id="rId161"/>
+    <hyperlink ref="E91" r:id="rId162"/>
+    <hyperlink ref="C91" r:id="rId163"/>
+    <hyperlink ref="E92" r:id="rId164"/>
+    <hyperlink ref="C92" r:id="rId165"/>
+    <hyperlink ref="E93" r:id="rId166"/>
+    <hyperlink ref="C93" r:id="rId167"/>
+    <hyperlink ref="E94" r:id="rId168"/>
+    <hyperlink ref="C94" r:id="rId169"/>
+    <hyperlink ref="C90" r:id="rId170"/>
+    <hyperlink ref="E95" r:id="rId171"/>
+    <hyperlink ref="C95" r:id="rId172"/>
+    <hyperlink ref="E96" r:id="rId173"/>
+    <hyperlink ref="C96" r:id="rId174"/>
+    <hyperlink ref="E97" r:id="rId175"/>
+    <hyperlink ref="E98" r:id="rId176"/>
+    <hyperlink ref="C98" r:id="rId177"/>
+    <hyperlink ref="E99" r:id="rId178"/>
+    <hyperlink ref="C99" r:id="rId179"/>
+    <hyperlink ref="E100" r:id="rId180"/>
+    <hyperlink ref="C100" r:id="rId181"/>
+    <hyperlink ref="E101" r:id="rId182"/>
+    <hyperlink ref="C101" r:id="rId183"/>
+    <hyperlink ref="C97" r:id="rId184"/>
+    <hyperlink ref="E102" r:id="rId185"/>
+    <hyperlink ref="C102" r:id="rId186"/>
+    <hyperlink ref="C103" r:id="rId187" display="http://172.20.92.19/Login/LogOn?ReturnUrl=%2f"/>
+    <hyperlink ref="E103" r:id="rId188"/>
+    <hyperlink ref="C25" r:id="rId189" display="http://172.20.92.19/Login/LogOn?ReturnUrl=%2f"/>
+    <hyperlink ref="E25" r:id="rId190"/>
+    <hyperlink ref="E24" r:id="rId191"/>
+    <hyperlink ref="C24" r:id="rId192"/>
+    <hyperlink ref="E7" r:id="rId193"/>
+    <hyperlink ref="C7" r:id="rId194"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId193"/>
+  <pageSetup orientation="portrait" r:id="rId195"/>
 </worksheet>
 </file>
 
@@ -8319,7 +8350,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8512,8 +8543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8597,7 +8628,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>64</v>
@@ -8631,21 +8662,51 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="A3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="11">
+        <v>112539761</v>
+      </c>
+      <c r="J3" s="11">
+        <v>8433543669</v>
+      </c>
+      <c r="K3" s="11">
+        <v>123697854</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -12384,7 +12445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -12474,16 +12535,16 @@
         <v>211</v>
       </c>
       <c r="S1" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="T1" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>235</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>236</v>
       </c>
       <c r="W1" s="14"/>
       <c r="X1" s="14"/>
@@ -12499,7 +12560,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>213</v>
@@ -12547,16 +12608,16 @@
         <v>L411</v>
       </c>
       <c r="S2" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>239</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>240</v>
       </c>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
@@ -12585,13 +12646,13 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
@@ -12620,11 +12681,11 @@
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
@@ -12653,11 +12714,11 @@
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U5" s="7"/>
       <c r="V5" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
@@ -12686,11 +12747,11 @@
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>

--- a/Test data/TestData.xlsx
+++ b/Test data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="25" activeTab="27"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="27" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Mercury" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="247">
   <si>
     <t>Password</t>
   </si>
@@ -787,10 +787,13 @@
     <t>L411</t>
   </si>
   <si>
-    <t>Nu22</t>
-  </si>
-  <si>
-    <t>Nu23</t>
+    <t>0843353667</t>
+  </si>
+  <si>
+    <t>Nu51</t>
+  </si>
+  <si>
+    <t>Nu52</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1121,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1217,6 +1220,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4805,7 +4811,7 @@
   <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4837,13 +4843,13 @@
         <v>0</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="G1" s="62" t="s">
         <v>179</v>
       </c>
       <c r="H1" s="62" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -8541,9 +8547,9 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -8558,16 +8564,17 @@
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="70" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="69.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>33</v>
       </c>
@@ -8595,7 +8602,7 @@
       <c r="I1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="68" t="s">
         <v>70</v>
       </c>
       <c r="K1" s="14" t="s">
@@ -8610,11 +8617,14 @@
       <c r="N1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>58</v>
       </c>
@@ -8628,7 +8638,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>64</v>
@@ -8642,8 +8652,8 @@
       <c r="I2" s="11">
         <v>112539761</v>
       </c>
-      <c r="J2" s="11">
-        <v>8433543669</v>
+      <c r="J2" s="69" t="s">
+        <v>244</v>
       </c>
       <c r="K2" s="11">
         <v>123697854</v>
@@ -8657,11 +8667,14 @@
       <c r="N2" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>58</v>
       </c>
@@ -8675,7 +8688,7 @@
         <v>80</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>64</v>
@@ -8689,8 +8702,8 @@
       <c r="I3" s="11">
         <v>112539761</v>
       </c>
-      <c r="J3" s="11">
-        <v>8433543669</v>
+      <c r="J3" s="69" t="s">
+        <v>244</v>
       </c>
       <c r="K3" s="11">
         <v>123697854</v>
@@ -8704,11 +8717,14 @@
       <c r="N3" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -8718,14 +8734,15 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -8735,14 +8752,15 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -8752,14 +8770,15 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="J6" s="66"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -8769,14 +8788,15 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -8786,14 +8806,15 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="66"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -8803,14 +8824,15 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="J9" s="66"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -8820,14 +8842,15 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="J10" s="66"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -8837,14 +8860,15 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="J11" s="66"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -8854,16 +8878,21 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="J12" s="66"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Test data/TestData.xlsx
+++ b/Test data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="27" activeTab="27"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="34" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="Mercury" sheetId="1" r:id="rId1"/>
@@ -47,13 +47,14 @@
     <sheet name="NewEntity_creation" sheetId="10" r:id="rId38"/>
     <sheet name="BankAccountCreation" sheetId="20" r:id="rId39"/>
     <sheet name="ISOPAIN" sheetId="52" r:id="rId40"/>
+    <sheet name="Sheet1" sheetId="53" r:id="rId41"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="247">
   <si>
     <t>Password</t>
   </si>
@@ -466,9 +467,6 @@
     <t>JAM - Multimark</t>
   </si>
   <si>
-    <t>2018-02-01 TO 2018-03-15</t>
-  </si>
-  <si>
     <t>Tc_21_BankAccountCreation</t>
   </si>
   <si>
@@ -794,6 +792,9 @@
   </si>
   <si>
     <t>Nu52</t>
+  </si>
+  <si>
+    <t>2018-04-01 TO 2018-05-15</t>
   </si>
 </sst>
 </file>
@@ -1820,7 +1821,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1899,7 +1900,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -1943,7 +1944,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>45</v>
@@ -1978,7 +1979,9 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -1994,7 +1997,9 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -2010,7 +2015,9 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -2026,7 +2033,9 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -2203,7 +2212,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -2215,8 +2224,8 @@
         <v>103</v>
       </c>
       <c r="E2" s="41"/>
-      <c r="F2" s="41" t="s">
-        <v>214</v>
+      <c r="F2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>45</v>
@@ -2246,7 +2255,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="11">
         <v>2</v>
@@ -2260,8 +2269,8 @@
       <c r="E3" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>215</v>
+      <c r="F3" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>45</v>
@@ -2288,12 +2297,12 @@
         <v>53</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="11">
         <v>3</v>
@@ -2307,8 +2316,8 @@
       <c r="E4" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>216</v>
+      <c r="F4" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>45</v>
@@ -2335,12 +2344,12 @@
         <v>53</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="11">
         <v>4</v>
@@ -2352,8 +2361,8 @@
         <v>103</v>
       </c>
       <c r="E5" s="42"/>
-      <c r="F5" s="41" t="s">
-        <v>217</v>
+      <c r="F5" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>45</v>
@@ -2383,7 +2392,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="11">
         <v>5</v>
@@ -2397,8 +2406,8 @@
       <c r="E6" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>218</v>
+      <c r="F6" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>45</v>
@@ -2425,12 +2434,12 @@
         <v>53</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B7" s="11">
         <v>6</v>
@@ -2442,8 +2451,8 @@
         <v>103</v>
       </c>
       <c r="E7" s="42"/>
-      <c r="F7" s="41" t="s">
-        <v>219</v>
+      <c r="F7" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>45</v>
@@ -2667,7 +2676,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="55" t="s">
         <v>40</v>
@@ -2711,7 +2720,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -2728,8 +2737,8 @@
       <c r="F2" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="41" t="s">
-        <v>214</v>
+      <c r="G2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>45</v>
@@ -2761,7 +2770,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -2776,8 +2785,8 @@
         <v>103</v>
       </c>
       <c r="F3" s="42"/>
-      <c r="G3" s="41" t="s">
-        <v>215</v>
+      <c r="G3" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>45</v>
@@ -2807,7 +2816,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -2816,17 +2825,17 @@
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="42" t="s">
-        <v>168</v>
-      </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="41" t="s">
-        <v>216</v>
+      <c r="G4" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I4" s="7">
         <v>62193651</v>
@@ -2841,21 +2850,21 @@
         <v>55414.53</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P4" s="56" t="s">
         <v>170</v>
-      </c>
-      <c r="P4" s="56" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -2870,8 +2879,8 @@
         <v>103</v>
       </c>
       <c r="F5" s="42"/>
-      <c r="G5" s="41" t="s">
-        <v>217</v>
+      <c r="G5" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>45</v>
@@ -2901,7 +2910,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -2918,8 +2927,8 @@
       <c r="F6" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="41" t="s">
-        <v>218</v>
+      <c r="G6" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>45</v>
@@ -2951,7 +2960,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -2966,8 +2975,8 @@
         <v>103</v>
       </c>
       <c r="F7" s="42"/>
-      <c r="G7" s="41" t="s">
-        <v>219</v>
+      <c r="G7" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>45</v>
@@ -2997,7 +3006,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -3006,17 +3015,17 @@
         <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="F8" s="41"/>
+      <c r="G8" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="I8" s="7">
         <v>62575533122</v>
@@ -3031,11 +3040,11 @@
         <v>1061162</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P8" s="7"/>
     </row>
@@ -3128,8 +3137,8 @@
       <c r="C2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>214</v>
+      <c r="D2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>45</v>
@@ -3161,8 +3170,8 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="41" t="s">
-        <v>215</v>
+      <c r="D3" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="7"/>
@@ -3178,8 +3187,8 @@
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="41" t="s">
-        <v>216</v>
+      <c r="D4" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -3195,8 +3204,8 @@
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="41" t="s">
-        <v>217</v>
+      <c r="D5" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -3212,8 +3221,8 @@
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="41" t="s">
-        <v>218</v>
+      <c r="D6" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -3229,8 +3238,8 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="41" t="s">
-        <v>219</v>
+      <c r="D7" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -3393,7 +3402,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -3401,8 +3410,8 @@
       <c r="C2" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>214</v>
+      <c r="D2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>45</v>
@@ -3432,7 +3441,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -3440,8 +3449,8 @@
       <c r="C3" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>215</v>
+      <c r="D3" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>45</v>
@@ -3471,7 +3480,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
@@ -3479,8 +3488,8 @@
       <c r="C4" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>216</v>
+      <c r="D4" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>45</v>
@@ -3510,7 +3519,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" s="7">
         <v>4</v>
@@ -3518,8 +3527,8 @@
       <c r="C5" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>217</v>
+      <c r="D5" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>45</v>
@@ -3549,7 +3558,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" s="7">
         <v>5</v>
@@ -3557,8 +3566,8 @@
       <c r="C6" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>218</v>
+      <c r="D6" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>45</v>
@@ -3588,7 +3597,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" s="7">
         <v>6</v>
@@ -3596,8 +3605,8 @@
       <c r="C7" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>219</v>
+      <c r="D7" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>45</v>
@@ -3738,7 +3747,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>43</v>
@@ -3776,7 +3785,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -3787,8 +3796,8 @@
       <c r="D2" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>214</v>
+      <c r="E2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -3818,7 +3827,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -3829,8 +3838,8 @@
       <c r="D3" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>215</v>
+      <c r="E3" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>45</v>
@@ -3860,7 +3869,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -3871,8 +3880,8 @@
       <c r="D4" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="41" t="s">
-        <v>216</v>
+      <c r="E4" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>45</v>
@@ -3902,7 +3911,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -3913,8 +3922,8 @@
       <c r="D5" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>217</v>
+      <c r="E5" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>45</v>
@@ -3944,7 +3953,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -3955,8 +3964,8 @@
       <c r="D6" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>218</v>
+      <c r="E6" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>45</v>
@@ -3986,7 +3995,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -3997,8 +4006,8 @@
       <c r="D7" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>219</v>
+      <c r="E7" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>45</v>
@@ -4196,8 +4205,8 @@
       <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>214</v>
+      <c r="E2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -4206,8 +4215,8 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="41" t="s">
-        <v>215</v>
+      <c r="E3" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4215,8 +4224,8 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="41" t="s">
-        <v>216</v>
+      <c r="E4" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4224,8 +4233,8 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="41" t="s">
-        <v>217</v>
+      <c r="E5" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4233,8 +4242,8 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="41" t="s">
-        <v>218</v>
+      <c r="E6" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4242,8 +4251,8 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="41" t="s">
-        <v>219</v>
+      <c r="E7" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4312,7 +4321,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -4326,13 +4335,13 @@
       <c r="E2" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>214</v>
+      <c r="F2" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="11">
         <v>2</v>
@@ -4344,13 +4353,13 @@
         <v>103</v>
       </c>
       <c r="E3" s="42"/>
-      <c r="F3" s="41" t="s">
-        <v>215</v>
+      <c r="F3" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="11">
         <v>3</v>
@@ -4364,13 +4373,13 @@
       <c r="E4" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>216</v>
+      <c r="F4" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="11">
         <v>4</v>
@@ -4382,13 +4391,13 @@
         <v>103</v>
       </c>
       <c r="E5" s="42"/>
-      <c r="F5" s="41" t="s">
-        <v>217</v>
+      <c r="F5" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="11">
         <v>5</v>
@@ -4402,13 +4411,13 @@
       <c r="E6" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>218</v>
+      <c r="F6" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="11">
         <v>6</v>
@@ -4420,8 +4429,8 @@
         <v>103</v>
       </c>
       <c r="E7" s="42"/>
-      <c r="F7" s="41" t="s">
-        <v>219</v>
+      <c r="F7" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4478,7 +4487,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>40</v>
@@ -4495,7 +4504,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -4512,13 +4521,13 @@
       <c r="F2" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="41" t="s">
-        <v>214</v>
+      <c r="G2" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -4533,13 +4542,13 @@
         <v>103</v>
       </c>
       <c r="F3" s="42"/>
-      <c r="G3" s="41" t="s">
-        <v>215</v>
+      <c r="G3" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -4556,13 +4565,13 @@
       <c r="F4" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="41" t="s">
-        <v>216</v>
+      <c r="G4" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
@@ -4577,13 +4586,13 @@
         <v>103</v>
       </c>
       <c r="F5" s="42"/>
-      <c r="G5" s="41" t="s">
-        <v>217</v>
+      <c r="G5" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
@@ -4600,13 +4609,13 @@
       <c r="F6" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="41" t="s">
-        <v>218</v>
+      <c r="G6" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
@@ -4621,8 +4630,8 @@
         <v>103</v>
       </c>
       <c r="F7" s="42"/>
-      <c r="G7" s="41" t="s">
-        <v>219</v>
+      <c r="G7" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4739,48 +4748,48 @@
       <c r="C2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>214</v>
+      <c r="D2" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="41" t="s">
-        <v>215</v>
+      <c r="D3" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="41" t="s">
-        <v>216</v>
+      <c r="D4" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="41" t="s">
-        <v>217</v>
+      <c r="D5" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="41" t="s">
-        <v>218</v>
+      <c r="D6" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="41" t="s">
-        <v>219</v>
+      <c r="D7" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4843,13 +4852,13 @@
         <v>0</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G1" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H1" s="62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4869,13 +4878,13 @@
         <v>16</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="36" t="s">
         <v>42</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4895,13 +4904,13 @@
         <v>16</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4961,13 +4970,13 @@
         <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4987,13 +4996,13 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5007,17 +5016,17 @@
         <v>37</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E8" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5162,7 +5171,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B16" s="11">
         <v>1</v>
@@ -5302,7 +5311,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B23" s="32">
         <v>1</v>
@@ -5311,7 +5320,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" s="61" t="s">
         <v>16</v>
@@ -5322,7 +5331,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B24" s="7">
         <v>1</v>
@@ -5337,27 +5346,27 @@
         <v>16</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="40">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>203</v>
-      </c>
-      <c r="B25" s="40">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>204</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>16</v>
@@ -5368,7 +5377,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B26" s="11">
         <v>1</v>
@@ -5388,7 +5397,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="11">
         <v>2</v>
@@ -5408,7 +5417,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B28" s="11">
         <v>3</v>
@@ -5417,7 +5426,7 @@
         <v>37</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E28" s="58" t="s">
         <v>16</v>
@@ -5428,7 +5437,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B29" s="11">
         <v>4</v>
@@ -5448,7 +5457,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" s="11">
         <v>5</v>
@@ -5468,7 +5477,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" s="11">
         <v>6</v>
@@ -5477,7 +5486,7 @@
         <v>37</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E31" s="58" t="s">
         <v>16</v>
@@ -5488,7 +5497,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32" s="11">
         <v>1</v>
@@ -5508,7 +5517,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B33" s="11">
         <v>1</v>
@@ -5528,7 +5537,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B34" s="11">
         <v>2</v>
@@ -5548,7 +5557,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B35" s="11">
         <v>3</v>
@@ -5557,7 +5566,7 @@
         <v>37</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E35" s="58" t="s">
         <v>16</v>
@@ -5568,7 +5577,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B36" s="11">
         <v>4</v>
@@ -5588,7 +5597,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37" s="11">
         <v>5</v>
@@ -5608,7 +5617,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B38" s="11">
         <v>6</v>
@@ -5617,7 +5626,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E38" s="58" t="s">
         <v>16</v>
@@ -5628,7 +5637,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B39" s="11">
         <v>1</v>
@@ -5648,7 +5657,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B40" s="11">
         <v>1</v>
@@ -5668,7 +5677,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B41" s="11">
         <v>2</v>
@@ -5688,7 +5697,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B42" s="11">
         <v>3</v>
@@ -5697,7 +5706,7 @@
         <v>37</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E42" s="58" t="s">
         <v>16</v>
@@ -5708,7 +5717,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B43" s="11">
         <v>4</v>
@@ -5728,7 +5737,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B44" s="11">
         <v>5</v>
@@ -5748,7 +5757,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B45" s="11">
         <v>6</v>
@@ -5757,7 +5766,7 @@
         <v>37</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E45" s="58" t="s">
         <v>16</v>
@@ -5768,7 +5777,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B46" s="11">
         <v>1</v>
@@ -5788,7 +5797,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B47" s="11">
         <v>1</v>
@@ -5808,7 +5817,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B48" s="11">
         <v>2</v>
@@ -5828,7 +5837,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B49" s="11">
         <v>3</v>
@@ -5837,7 +5846,7 @@
         <v>37</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E49" s="58" t="s">
         <v>16</v>
@@ -5848,7 +5857,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B50" s="11">
         <v>4</v>
@@ -5868,7 +5877,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B51" s="11">
         <v>5</v>
@@ -5888,7 +5897,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B52" s="11">
         <v>6</v>
@@ -5897,7 +5906,7 @@
         <v>37</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E52" s="58" t="s">
         <v>16</v>
@@ -5908,7 +5917,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B53" s="11">
         <v>1</v>
@@ -5917,7 +5926,7 @@
         <v>37</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E53" s="58" t="s">
         <v>16</v>
@@ -5928,7 +5937,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B54" s="7">
         <v>1</v>
@@ -5948,7 +5957,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B55" s="11">
         <v>2</v>
@@ -5968,7 +5977,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B56" s="11">
         <v>3</v>
@@ -5977,7 +5986,7 @@
         <v>37</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E56" s="58" t="s">
         <v>16</v>
@@ -5988,7 +5997,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B57" s="11">
         <v>4</v>
@@ -6008,7 +6017,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B58" s="11">
         <v>5</v>
@@ -6028,7 +6037,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B59" s="11">
         <v>6</v>
@@ -6037,7 +6046,7 @@
         <v>37</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E59" s="58" t="s">
         <v>16</v>
@@ -6048,7 +6057,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B60" s="11">
         <v>1</v>
@@ -6057,7 +6066,7 @@
         <v>37</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E60" s="58" t="s">
         <v>16</v>
@@ -6068,7 +6077,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B61" s="7">
         <v>1</v>
@@ -6088,7 +6097,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B62" s="11">
         <v>2</v>
@@ -6108,7 +6117,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B63" s="11">
         <v>3</v>
@@ -6117,7 +6126,7 @@
         <v>37</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E63" s="58" t="s">
         <v>16</v>
@@ -6128,7 +6137,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B64" s="11">
         <v>4</v>
@@ -6148,7 +6157,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B65" s="11">
         <v>5</v>
@@ -6168,7 +6177,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B66" s="11">
         <v>6</v>
@@ -6177,7 +6186,7 @@
         <v>37</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E66" s="58" t="s">
         <v>16</v>
@@ -6188,7 +6197,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B67" s="11">
         <v>1</v>
@@ -6197,7 +6206,7 @@
         <v>37</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E67" s="58" t="s">
         <v>16</v>
@@ -6208,7 +6217,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B68" s="7">
         <v>1</v>
@@ -6228,7 +6237,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B69" s="11">
         <v>2</v>
@@ -6248,7 +6257,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B70" s="11">
         <v>3</v>
@@ -6268,7 +6277,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B71" s="11">
         <v>4</v>
@@ -6288,7 +6297,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B72" s="11">
         <v>5</v>
@@ -6308,7 +6317,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B73" s="11">
         <v>6</v>
@@ -6328,7 +6337,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B74" s="11">
         <v>1</v>
@@ -6348,7 +6357,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B75" s="7">
         <v>1</v>
@@ -6368,7 +6377,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B76" s="11">
         <v>2</v>
@@ -6388,7 +6397,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B77" s="11">
         <v>3</v>
@@ -6408,7 +6417,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B78" s="11">
         <v>4</v>
@@ -6428,7 +6437,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B79" s="11">
         <v>5</v>
@@ -6448,7 +6457,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B80" s="11">
         <v>6</v>
@@ -6468,7 +6477,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B81" s="11">
         <v>1</v>
@@ -6488,7 +6497,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B82" s="11">
         <v>1</v>
@@ -6508,7 +6517,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B83" s="7">
         <v>2</v>
@@ -6528,7 +6537,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B84" s="11">
         <v>3</v>
@@ -6548,7 +6557,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B85" s="11">
         <v>4</v>
@@ -6568,7 +6577,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B86" s="11">
         <v>5</v>
@@ -6588,7 +6597,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B87" s="11">
         <v>6</v>
@@ -6608,7 +6617,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B88" s="11">
         <v>1</v>
@@ -6628,7 +6637,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B89" s="11">
         <v>1</v>
@@ -6648,7 +6657,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B90" s="7">
         <v>2</v>
@@ -6668,7 +6677,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B91" s="11">
         <v>3</v>
@@ -6688,7 +6697,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B92" s="11">
         <v>4</v>
@@ -6708,7 +6717,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B93" s="11">
         <v>5</v>
@@ -6728,7 +6737,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B94" s="11">
         <v>6</v>
@@ -6748,7 +6757,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B95" s="11">
         <v>1</v>
@@ -6768,7 +6777,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B96" s="11">
         <v>1</v>
@@ -6788,7 +6797,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B97" s="7">
         <v>2</v>
@@ -6808,7 +6817,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B98" s="11">
         <v>3</v>
@@ -6828,7 +6837,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B99" s="11">
         <v>4</v>
@@ -6848,7 +6857,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B100" s="11">
         <v>5</v>
@@ -6868,7 +6877,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B101" s="11">
         <v>6</v>
@@ -6888,7 +6897,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B102" s="11">
         <v>1</v>
@@ -6908,13 +6917,13 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B103" s="40">
         <v>1</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D103" s="40" t="s">
         <v>38</v>
@@ -6923,13 +6932,13 @@
         <v>16</v>
       </c>
       <c r="F103" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G103" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -7166,7 +7175,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -7174,13 +7183,13 @@
       <c r="C2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>214</v>
+      <c r="D2" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="11">
         <v>2</v>
@@ -7188,13 +7197,13 @@
       <c r="C3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>215</v>
+      <c r="D3" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" s="11">
         <v>3</v>
@@ -7202,13 +7211,13 @@
       <c r="C4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>216</v>
+      <c r="D4" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" s="11">
         <v>4</v>
@@ -7216,13 +7225,13 @@
       <c r="C5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>217</v>
+      <c r="D5" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="11">
         <v>5</v>
@@ -7230,13 +7239,13 @@
       <c r="C6" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>218</v>
+      <c r="D6" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="11">
         <v>6</v>
@@ -7244,8 +7253,8 @@
       <c r="C7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>219</v>
+      <c r="D7" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7295,7 +7304,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>43</v>
@@ -7306,7 +7315,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -7317,13 +7326,13 @@
       <c r="D2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>214</v>
+      <c r="E2" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -7334,13 +7343,13 @@
       <c r="D3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>215</v>
+      <c r="E3" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -7351,13 +7360,13 @@
       <c r="D4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="41" t="s">
-        <v>216</v>
+      <c r="E4" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
@@ -7368,13 +7377,13 @@
       <c r="D5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>217</v>
+      <c r="E5" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
@@ -7385,13 +7394,13 @@
       <c r="D6" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>218</v>
+      <c r="E6" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
@@ -7402,8 +7411,8 @@
       <c r="D7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>219</v>
+      <c r="E7" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7501,8 +7510,8 @@
       <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>214</v>
+      <c r="E2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -7511,8 +7520,8 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="41" t="s">
-        <v>215</v>
+      <c r="E3" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7520,8 +7529,8 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="41" t="s">
-        <v>216</v>
+      <c r="E4" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7529,8 +7538,8 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="41" t="s">
-        <v>217</v>
+      <c r="E5" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7538,8 +7547,8 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="41" t="s">
-        <v>218</v>
+      <c r="E6" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7547,8 +7556,8 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="41" t="s">
-        <v>219</v>
+      <c r="E7" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7631,7 +7640,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -7645,13 +7654,13 @@
       <c r="E2" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>214</v>
+      <c r="F2" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="11">
         <v>2</v>
@@ -7663,13 +7672,13 @@
         <v>103</v>
       </c>
       <c r="E3" s="42"/>
-      <c r="F3" s="41" t="s">
-        <v>215</v>
+      <c r="F3" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" s="11">
         <v>3</v>
@@ -7683,13 +7692,13 @@
       <c r="E4" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>216</v>
+      <c r="F4" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="11">
         <v>4</v>
@@ -7701,13 +7710,13 @@
         <v>103</v>
       </c>
       <c r="E5" s="42"/>
-      <c r="F5" s="41" t="s">
-        <v>217</v>
+      <c r="F5" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="11">
         <v>5</v>
@@ -7721,13 +7730,13 @@
       <c r="E6" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>218</v>
+      <c r="F6" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="11">
         <v>6</v>
@@ -7739,8 +7748,8 @@
         <v>103</v>
       </c>
       <c r="E7" s="42"/>
-      <c r="F7" s="41" t="s">
-        <v>219</v>
+      <c r="F7" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7891,7 +7900,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>40</v>
@@ -7908,7 +7917,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -7925,13 +7934,13 @@
       <c r="F2" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="41" t="s">
-        <v>214</v>
+      <c r="G2" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -7946,13 +7955,13 @@
         <v>103</v>
       </c>
       <c r="F3" s="42"/>
-      <c r="G3" s="41" t="s">
-        <v>215</v>
+      <c r="G3" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -7969,13 +7978,13 @@
       <c r="F4" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="41" t="s">
-        <v>216</v>
+      <c r="G4" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
@@ -7990,13 +7999,13 @@
         <v>103</v>
       </c>
       <c r="F5" s="42"/>
-      <c r="G5" s="41" t="s">
-        <v>217</v>
+      <c r="G5" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
@@ -8013,13 +8022,13 @@
       <c r="F6" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="41" t="s">
-        <v>218</v>
+      <c r="G6" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
@@ -8034,8 +8043,8 @@
         <v>103</v>
       </c>
       <c r="F7" s="42"/>
-      <c r="G7" s="41" t="s">
-        <v>219</v>
+      <c r="G7" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8125,48 +8134,48 @@
       <c r="C2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>214</v>
+      <c r="D2" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="41" t="s">
-        <v>215</v>
+      <c r="D3" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="41" t="s">
-        <v>216</v>
+      <c r="D4" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="41" t="s">
-        <v>217</v>
+      <c r="D5" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="41" t="s">
-        <v>218</v>
+      <c r="D6" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="41" t="s">
-        <v>219</v>
+      <c r="D7" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8209,7 +8218,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8234,7 +8243,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -8242,13 +8251,13 @@
       <c r="C2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>214</v>
+      <c r="D2" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" s="11">
         <v>2</v>
@@ -8256,13 +8265,13 @@
       <c r="C3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>215</v>
+      <c r="D3" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="11">
         <v>3</v>
@@ -8270,13 +8279,13 @@
       <c r="C4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>216</v>
+      <c r="D4" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="11">
         <v>4</v>
@@ -8284,13 +8293,13 @@
       <c r="C5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>217</v>
+      <c r="D5" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6" s="11">
         <v>5</v>
@@ -8298,13 +8307,13 @@
       <c r="C6" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>218</v>
+      <c r="D6" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B7" s="11">
         <v>6</v>
@@ -8312,8 +8321,8 @@
       <c r="C7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>219</v>
+      <c r="D7" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8356,7 +8365,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C3"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8373,7 +8382,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>43</v>
@@ -8384,7 +8393,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -8395,13 +8404,13 @@
       <c r="D2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>214</v>
+      <c r="E2" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -8412,13 +8421,13 @@
       <c r="D3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>215</v>
+      <c r="E3" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -8429,13 +8438,13 @@
       <c r="D4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="41" t="s">
-        <v>216</v>
+      <c r="E4" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
@@ -8446,13 +8455,13 @@
       <c r="D5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>217</v>
+      <c r="E5" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
@@ -8463,13 +8472,13 @@
       <c r="D6" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>218</v>
+      <c r="E6" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
@@ -8480,8 +8489,8 @@
       <c r="D7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>219</v>
+      <c r="E7" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8549,7 +8558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -8638,7 +8647,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>64</v>
@@ -8653,7 +8662,7 @@
         <v>112539761</v>
       </c>
       <c r="J2" s="69" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K2" s="11">
         <v>123697854</v>
@@ -8688,7 +8697,7 @@
         <v>80</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>64</v>
@@ -8703,7 +8712,7 @@
         <v>112539761</v>
       </c>
       <c r="J3" s="69" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K3" s="11">
         <v>123697854</v>
@@ -8955,8 +8964,8 @@
       <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>214</v>
+      <c r="E2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>108</v>
@@ -8973,8 +8982,8 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="41" t="s">
-        <v>215</v>
+      <c r="E3" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -8985,8 +8994,8 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="41" t="s">
-        <v>216</v>
+      <c r="E4" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -8997,8 +9006,8 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="41" t="s">
-        <v>217</v>
+      <c r="E5" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -9009,8 +9018,8 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="41" t="s">
-        <v>218</v>
+      <c r="E6" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -9021,8 +9030,8 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="41" t="s">
-        <v>219</v>
+      <c r="E7" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -9254,7 +9263,7 @@
     </row>
     <row r="2" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
@@ -9265,8 +9274,8 @@
       <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>214</v>
+      <c r="E2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>108</v>
@@ -9300,7 +9309,7 @@
     </row>
     <row r="3" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="19">
         <v>2</v>
@@ -9311,8 +9320,8 @@
       <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>215</v>
+      <c r="E3" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>108</v>
@@ -9346,7 +9355,7 @@
     </row>
     <row r="4" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="19">
         <v>3</v>
@@ -9357,8 +9366,8 @@
       <c r="D4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="41" t="s">
-        <v>216</v>
+      <c r="E4" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>108</v>
@@ -9392,7 +9401,7 @@
     </row>
     <row r="5" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="19">
         <v>4</v>
@@ -9403,8 +9412,8 @@
       <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>217</v>
+      <c r="E5" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>108</v>
@@ -9438,7 +9447,7 @@
     </row>
     <row r="6" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" s="19">
         <v>5</v>
@@ -9449,8 +9458,8 @@
       <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>218</v>
+      <c r="E6" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>108</v>
@@ -9484,7 +9493,7 @@
     </row>
     <row r="7" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="19">
         <v>6</v>
@@ -9495,8 +9504,8 @@
       <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>219</v>
+      <c r="E7" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>108</v>
@@ -9711,7 +9720,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>40</v>
@@ -9754,7 +9763,7 @@
     </row>
     <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
@@ -9768,8 +9777,8 @@
       <c r="E2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>214</v>
+      <c r="F2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>108</v>
@@ -9803,7 +9812,7 @@
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="19">
         <v>1</v>
@@ -9817,8 +9826,8 @@
       <c r="E3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>215</v>
+      <c r="F3" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>108</v>
@@ -9852,7 +9861,7 @@
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="19">
         <v>1</v>
@@ -9866,8 +9875,8 @@
       <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>216</v>
+      <c r="F4" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>108</v>
@@ -9901,7 +9910,7 @@
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
@@ -9915,8 +9924,8 @@
       <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="41" t="s">
-        <v>217</v>
+      <c r="F5" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>108</v>
@@ -9950,7 +9959,7 @@
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="19">
         <v>1</v>
@@ -9964,8 +9973,8 @@
       <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>218</v>
+      <c r="F6" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>108</v>
@@ -9999,7 +10008,7 @@
     </row>
     <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="19">
         <v>1</v>
@@ -10013,8 +10022,8 @@
       <c r="E7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="41" t="s">
-        <v>219</v>
+      <c r="F7" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>108</v>
@@ -10230,7 +10239,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10292,8 +10301,8 @@
       <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>214</v>
+      <c r="E2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F2" s="19">
         <v>200</v>
@@ -10322,10 +10331,10 @@
         <v>42</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>215</v>
+        <v>220</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F3" s="21">
         <v>300</v>
@@ -10348,8 +10357,8 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="41" t="s">
-        <v>216</v>
+      <c r="E4" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -10362,8 +10371,8 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="41" t="s">
-        <v>217</v>
+      <c r="E5" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -10376,8 +10385,8 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="41" t="s">
-        <v>218</v>
+      <c r="E6" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -10390,8 +10399,8 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="41" t="s">
-        <v>219</v>
+      <c r="E7" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -10469,7 +10478,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10530,8 +10539,8 @@
       <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>214</v>
+      <c r="E2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F2" s="19">
         <v>200</v>
@@ -10560,10 +10569,10 @@
         <v>42</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>215</v>
+        <v>220</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F3" s="21">
         <v>300</v>
@@ -10586,8 +10595,8 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="41" t="s">
-        <v>216</v>
+      <c r="E4" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -10600,8 +10609,8 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="41" t="s">
-        <v>217</v>
+      <c r="E5" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -10614,8 +10623,8 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="41" t="s">
-        <v>218</v>
+      <c r="E6" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -10628,8 +10637,8 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="41" t="s">
-        <v>219</v>
+      <c r="E7" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -10757,7 +10766,7 @@
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
@@ -10768,8 +10777,8 @@
       <c r="D2" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>137</v>
+      <c r="E2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F2" s="19">
         <v>200</v>
@@ -10778,7 +10787,7 @@
         <v>116</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I2" s="19">
         <v>200</v>
@@ -10789,7 +10798,7 @@
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="21">
         <v>2</v>
@@ -10800,8 +10809,8 @@
       <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>137</v>
+      <c r="E3" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F3" s="21">
         <v>3</v>
@@ -10810,7 +10819,7 @@
         <v>116</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I3" s="21">
         <v>3</v>
@@ -10821,7 +10830,7 @@
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="19">
         <v>3</v>
@@ -10832,8 +10841,8 @@
       <c r="D4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="41" t="s">
-        <v>137</v>
+      <c r="E4" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F4" s="19">
         <v>200</v>
@@ -10842,7 +10851,7 @@
         <v>116</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I4" s="19">
         <v>200</v>
@@ -10853,7 +10862,7 @@
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="21">
         <v>4</v>
@@ -10864,8 +10873,8 @@
       <c r="D5" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>137</v>
+      <c r="E5" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F5" s="21">
         <v>3</v>
@@ -10874,7 +10883,7 @@
         <v>116</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I5" s="21">
         <v>3</v>
@@ -10885,7 +10894,7 @@
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="19">
         <v>5</v>
@@ -10896,8 +10905,8 @@
       <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>137</v>
+      <c r="E6" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F6" s="19">
         <v>200</v>
@@ -10906,7 +10915,7 @@
         <v>116</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I6" s="19">
         <v>200</v>
@@ -10917,7 +10926,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" s="21">
         <v>6</v>
@@ -10928,8 +10937,8 @@
       <c r="D7" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>137</v>
+      <c r="E7" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F7" s="21">
         <v>3</v>
@@ -10938,7 +10947,7 @@
         <v>116</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I7" s="21">
         <v>3</v>
@@ -11016,7 +11025,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11041,7 +11050,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>40</v>
@@ -11070,7 +11079,7 @@
     </row>
     <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
@@ -11084,8 +11093,8 @@
       <c r="E2" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>137</v>
+      <c r="F2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G2" s="19">
         <v>5</v>
@@ -11094,7 +11103,7 @@
         <v>116</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J2" s="19">
         <v>5</v>
@@ -11105,7 +11114,7 @@
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="21">
         <v>1</v>
@@ -11119,8 +11128,8 @@
       <c r="E3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>137</v>
+      <c r="F3" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G3" s="21">
         <v>3</v>
@@ -11129,7 +11138,7 @@
         <v>116</v>
       </c>
       <c r="I3" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J3" s="21">
         <v>3</v>
@@ -11140,7 +11149,7 @@
     </row>
     <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" s="19">
         <v>1</v>
@@ -11154,8 +11163,8 @@
       <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>137</v>
+      <c r="F4" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G4" s="19">
         <v>6</v>
@@ -11164,7 +11173,7 @@
         <v>116</v>
       </c>
       <c r="I4" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J4" s="19">
         <v>6</v>
@@ -11175,7 +11184,7 @@
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="21">
         <v>1</v>
@@ -11189,8 +11198,8 @@
       <c r="E5" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="41" t="s">
-        <v>137</v>
+      <c r="F5" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G5" s="21">
         <v>3</v>
@@ -11199,7 +11208,7 @@
         <v>116</v>
       </c>
       <c r="I5" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J5" s="21">
         <v>3</v>
@@ -11210,7 +11219,7 @@
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" s="19">
         <v>1</v>
@@ -11224,8 +11233,8 @@
       <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>137</v>
+      <c r="F6" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G6" s="19">
         <v>8</v>
@@ -11234,7 +11243,7 @@
         <v>116</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J6" s="19">
         <v>8</v>
@@ -11245,7 +11254,7 @@
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" s="21">
         <v>1</v>
@@ -11259,8 +11268,8 @@
       <c r="E7" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="41" t="s">
-        <v>137</v>
+      <c r="F7" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G7" s="21">
         <v>3</v>
@@ -11269,7 +11278,7 @@
         <v>116</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J7" s="21">
         <v>3</v>
@@ -11374,7 +11383,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11418,7 +11427,7 @@
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
@@ -11426,8 +11435,8 @@
       <c r="C2" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>137</v>
+      <c r="D2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="E2" s="21">
         <v>3</v>
@@ -11436,7 +11445,7 @@
         <v>116</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H2" s="21">
         <v>3</v>
@@ -11447,7 +11456,7 @@
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="21">
         <v>2</v>
@@ -11455,8 +11464,8 @@
       <c r="C3" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>137</v>
+      <c r="D3" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="E3" s="21">
         <v>4</v>
@@ -11465,7 +11474,7 @@
         <v>116</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H3" s="21">
         <v>4</v>
@@ -11476,7 +11485,7 @@
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="19">
         <v>3</v>
@@ -11484,8 +11493,8 @@
       <c r="C4" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>137</v>
+      <c r="D4" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="E4" s="21">
         <v>5</v>
@@ -11494,7 +11503,7 @@
         <v>116</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H4" s="21">
         <v>5</v>
@@ -11505,7 +11514,7 @@
     </row>
     <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" s="21">
         <v>4</v>
@@ -11513,8 +11522,8 @@
       <c r="C5" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>137</v>
+      <c r="D5" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="E5" s="21">
         <v>6</v>
@@ -11523,7 +11532,7 @@
         <v>116</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5" s="21">
         <v>6</v>
@@ -11534,7 +11543,7 @@
     </row>
     <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" s="19">
         <v>5</v>
@@ -11542,8 +11551,8 @@
       <c r="C6" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>137</v>
+      <c r="D6" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="E6" s="21">
         <v>7</v>
@@ -11552,7 +11561,7 @@
         <v>116</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H6" s="21">
         <v>7</v>
@@ -11563,7 +11572,7 @@
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" s="21">
         <v>6</v>
@@ -11571,8 +11580,8 @@
       <c r="C7" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>137</v>
+      <c r="D7" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="E7" s="21">
         <v>8</v>
@@ -11581,7 +11590,7 @@
         <v>116</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H7" s="21">
         <v>8</v>
@@ -11655,7 +11664,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H7"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11678,7 +11687,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>43</v>
@@ -11704,7 +11713,7 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
@@ -11715,8 +11724,8 @@
       <c r="D2" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>137</v>
+      <c r="E2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F2" s="19">
         <v>5</v>
@@ -11725,7 +11734,7 @@
         <v>116</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I2" s="19">
         <v>5</v>
@@ -11736,7 +11745,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="21">
         <v>1</v>
@@ -11747,8 +11756,8 @@
       <c r="D3" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>137</v>
+      <c r="E3" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F3" s="21">
         <v>6</v>
@@ -11757,7 +11766,7 @@
         <v>116</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I3" s="21">
         <v>6</v>
@@ -11768,7 +11777,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="19">
         <v>1</v>
@@ -11779,8 +11788,8 @@
       <c r="D4" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="41" t="s">
-        <v>137</v>
+      <c r="E4" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F4" s="19">
         <v>7</v>
@@ -11789,7 +11798,7 @@
         <v>116</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I4" s="19">
         <v>7</v>
@@ -11800,7 +11809,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" s="21">
         <v>1</v>
@@ -11811,8 +11820,8 @@
       <c r="D5" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>137</v>
+      <c r="E5" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F5" s="21">
         <v>8</v>
@@ -11821,7 +11830,7 @@
         <v>116</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I5" s="21">
         <v>8</v>
@@ -11832,7 +11841,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="19">
         <v>1</v>
@@ -11843,8 +11852,8 @@
       <c r="D6" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>137</v>
+      <c r="E6" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F6" s="19">
         <v>9</v>
@@ -11853,7 +11862,7 @@
         <v>116</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I6" s="19">
         <v>9</v>
@@ -11864,7 +11873,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="21">
         <v>1</v>
@@ -11875,8 +11884,8 @@
       <c r="D7" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>137</v>
+      <c r="E7" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F7" s="21">
         <v>10</v>
@@ -11885,7 +11894,7 @@
         <v>116</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I7" s="21">
         <v>10</v>
@@ -12084,7 +12093,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>82</v>
@@ -12093,7 +12102,7 @@
         <v>84</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>86</v>
@@ -12516,19 +12525,19 @@
         <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>141</v>
-      </c>
       <c r="E1" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>46</v>
@@ -12540,40 +12549,40 @@
         <v>47</v>
       </c>
       <c r="K1" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="14" t="s">
-        <v>189</v>
-      </c>
       <c r="M1" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="R1" s="14" t="s">
-        <v>211</v>
-      </c>
       <c r="S1" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="T1" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>234</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>235</v>
       </c>
       <c r="W1" s="14"/>
       <c r="X1" s="14"/>
@@ -12583,16 +12592,16 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E2" s="67" t="s">
         <v>16</v>
@@ -12610,11 +12619,11 @@
         <v>1173782</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M2" s="11" t="str">
         <f>C2</f>
@@ -12637,16 +12646,16 @@
         <v>L411</v>
       </c>
       <c r="S2" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>238</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>239</v>
       </c>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
@@ -12675,13 +12684,13 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
@@ -12710,11 +12719,11 @@
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
@@ -12743,11 +12752,11 @@
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U5" s="7"/>
       <c r="V5" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
@@ -12776,11 +12785,11 @@
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
@@ -12982,7 +12991,7 @@
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -13046,8 +13055,8 @@
         <v>103</v>
       </c>
       <c r="E2" s="38"/>
-      <c r="F2" s="41" t="s">
-        <v>214</v>
+      <c r="F2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>45</v>
@@ -13087,8 +13096,8 @@
       <c r="E3" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>215</v>
+      <c r="F3" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>45</v>
@@ -13128,8 +13137,8 @@
       <c r="E4" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>216</v>
+      <c r="F4" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>45</v>
@@ -13167,8 +13176,8 @@
         <v>103</v>
       </c>
       <c r="E5" s="38"/>
-      <c r="F5" s="41" t="s">
-        <v>217</v>
+      <c r="F5" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -13208,8 +13217,8 @@
       <c r="E6" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>218</v>
+      <c r="F6" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>45</v>
@@ -13247,8 +13256,8 @@
         <v>103</v>
       </c>
       <c r="E7" s="38"/>
-      <c r="F7" s="41" t="s">
-        <v>219</v>
+      <c r="F7" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>45</v>
@@ -13455,22 +13464,22 @@
         <v>34</v>
       </c>
       <c r="C1" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="E1" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="F1" s="65" t="s">
         <v>185</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>186</v>
       </c>
       <c r="G1" s="65" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I1" s="65" t="s">
         <v>46</v>
@@ -13482,42 +13491,42 @@
         <v>47</v>
       </c>
       <c r="L1" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" s="21">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="E2" s="41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>45</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I2" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J2" s="20">
         <v>1173782</v>
@@ -13526,18 +13535,18 @@
         <v>24</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="M2" s="53" t="s">
-        <v>194</v>
-      </c>
       <c r="N2" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" s="21">
         <v>2</v>
@@ -13549,7 +13558,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F3" s="21">
         <v>3</v>
@@ -13561,15 +13570,15 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="N3" s="53" t="s">
         <v>194</v>
-      </c>
-      <c r="N3" s="53" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="21">
         <v>3</v>
@@ -13581,7 +13590,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" s="21">
         <v>6</v>
@@ -13593,10 +13602,10 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="N4" s="53" t="s">
         <v>196</v>
-      </c>
-      <c r="N4" s="53" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13605,7 +13614,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -13616,7 +13625,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13625,7 +13634,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -13636,7 +13645,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13645,7 +13654,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -13656,7 +13665,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13665,7 +13674,7 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -13680,6 +13689,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13750,7 +13771,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -13764,8 +13785,8 @@
       <c r="E2" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>214</v>
+      <c r="F2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>45</v>
@@ -13791,7 +13812,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -13803,8 +13824,8 @@
         <v>103</v>
       </c>
       <c r="E3" s="42"/>
-      <c r="F3" s="41" t="s">
-        <v>215</v>
+      <c r="F3" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>45</v>
@@ -13830,7 +13851,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="11">
         <v>3</v>
@@ -13844,8 +13865,8 @@
       <c r="E4" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>216</v>
+      <c r="F4" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>45</v>
@@ -13871,7 +13892,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="7">
         <v>4</v>
@@ -13883,8 +13904,8 @@
         <v>103</v>
       </c>
       <c r="E5" s="42"/>
-      <c r="F5" s="41" t="s">
-        <v>217</v>
+      <c r="F5" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -13910,7 +13931,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="11">
         <v>5</v>
@@ -13924,8 +13945,8 @@
       <c r="E6" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>218</v>
+      <c r="F6" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>45</v>
@@ -13951,7 +13972,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" s="7">
         <v>6</v>
@@ -13963,8 +13984,8 @@
         <v>103</v>
       </c>
       <c r="E7" s="42"/>
-      <c r="F7" s="41" t="s">
-        <v>219</v>
+      <c r="F7" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>45</v>
@@ -14079,7 +14100,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>40</v>
@@ -14117,7 +14138,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -14134,8 +14155,8 @@
       <c r="F2" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="41" t="s">
-        <v>214</v>
+      <c r="G2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>45</v>
@@ -14161,7 +14182,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -14176,8 +14197,8 @@
         <v>103</v>
       </c>
       <c r="F3" s="42"/>
-      <c r="G3" s="41" t="s">
-        <v>215</v>
+      <c r="G3" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>45</v>
@@ -14203,7 +14224,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -14220,8 +14241,8 @@
       <c r="F4" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="41" t="s">
-        <v>216</v>
+      <c r="G4" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>45</v>
@@ -14247,7 +14268,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -14262,8 +14283,8 @@
         <v>103</v>
       </c>
       <c r="F5" s="42"/>
-      <c r="G5" s="41" t="s">
-        <v>217</v>
+      <c r="G5" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>45</v>
@@ -14289,7 +14310,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
@@ -14306,8 +14327,8 @@
       <c r="F6" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="41" t="s">
-        <v>218</v>
+      <c r="G6" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>45</v>
@@ -14333,7 +14354,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -14348,8 +14369,8 @@
         <v>103</v>
       </c>
       <c r="F7" s="42"/>
-      <c r="G7" s="41" t="s">
-        <v>219</v>
+      <c r="G7" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>45</v>
@@ -14508,8 +14529,8 @@
       <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>214</v>
+      <c r="E2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -14546,8 +14567,8 @@
       <c r="D3" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>215</v>
+      <c r="E3" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>45</v>
@@ -14576,8 +14597,8 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="41" t="s">
-        <v>216</v>
+      <c r="E4" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -14592,8 +14613,8 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="41" t="s">
-        <v>217</v>
+      <c r="E5" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -14608,8 +14629,8 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="41" t="s">
-        <v>218</v>
+      <c r="E6" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -14624,8 +14645,8 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="41" t="s">
-        <v>219</v>
+      <c r="E7" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -14742,7 +14763,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -14753,8 +14774,8 @@
       <c r="D2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>214</v>
+      <c r="E2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>45</v>
@@ -14780,7 +14801,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -14791,8 +14812,8 @@
       <c r="D3" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>215</v>
+      <c r="E3" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>45</v>
@@ -14818,7 +14839,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
@@ -14829,8 +14850,8 @@
       <c r="D4" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="41" t="s">
-        <v>216</v>
+      <c r="E4" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>45</v>
@@ -14856,7 +14877,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" s="7">
         <v>4</v>
@@ -14867,8 +14888,8 @@
       <c r="D5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>217</v>
+      <c r="E5" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>45</v>
@@ -14894,7 +14915,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="7">
         <v>5</v>
@@ -14905,8 +14926,8 @@
       <c r="D6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>218</v>
+      <c r="E6" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>45</v>
@@ -14932,7 +14953,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="7">
         <v>6</v>
@@ -14943,8 +14964,8 @@
       <c r="D7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>219</v>
+      <c r="E7" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>45</v>
@@ -15047,7 +15068,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>40</v>
@@ -15082,7 +15103,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -15096,8 +15117,8 @@
       <c r="E2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>214</v>
+      <c r="F2" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>45</v>
@@ -15123,7 +15144,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -15137,8 +15158,8 @@
       <c r="E3" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>215</v>
+      <c r="F3" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>45</v>
@@ -15164,7 +15185,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -15178,8 +15199,8 @@
       <c r="E4" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>216</v>
+      <c r="F4" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>45</v>
@@ -15205,7 +15226,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -15219,8 +15240,8 @@
       <c r="E5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="41" t="s">
-        <v>217</v>
+      <c r="F5" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -15246,7 +15267,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -15260,8 +15281,8 @@
       <c r="E6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>218</v>
+      <c r="F6" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>45</v>
@@ -15287,7 +15308,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -15301,8 +15322,8 @@
       <c r="E7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="41" t="s">
-        <v>219</v>
+      <c r="F7" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>45</v>

--- a/Test data/TestData.xlsx
+++ b/Test data/TestData.xlsx
@@ -47,14 +47,14 @@
     <sheet name="NewEntity_creation" sheetId="10" r:id="rId38"/>
     <sheet name="BankAccountCreation" sheetId="20" r:id="rId39"/>
     <sheet name="ISOPAIN" sheetId="52" r:id="rId40"/>
-    <sheet name="Sheet1" sheetId="53" r:id="rId41"/>
+    <sheet name="story1" sheetId="53" r:id="rId41"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="252">
   <si>
     <t>Password</t>
   </si>
@@ -788,13 +788,28 @@
     <t>0843353667</t>
   </si>
   <si>
-    <t>Nu51</t>
-  </si>
-  <si>
-    <t>Nu52</t>
-  </si>
-  <si>
     <t>2018-04-01 TO 2018-05-15</t>
+  </si>
+  <si>
+    <t>Nu53</t>
+  </si>
+  <si>
+    <t>Nu54</t>
+  </si>
+  <si>
+    <t>STORY1</t>
+  </si>
+  <si>
+    <t>Test5_Entity15</t>
+  </si>
+  <si>
+    <t>2963/215540/06</t>
+  </si>
+  <si>
+    <t>Nu58</t>
+  </si>
+  <si>
+    <t>Nu63</t>
   </si>
 </sst>
 </file>
@@ -1900,7 +1915,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -1944,7 +1959,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>45</v>
@@ -1980,7 +1995,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1998,7 +2013,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2016,7 +2031,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2034,7 +2049,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2225,7 +2240,7 @@
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>45</v>
@@ -2270,7 +2285,7 @@
         <v>136</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>45</v>
@@ -2317,7 +2332,7 @@
         <v>136</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>45</v>
@@ -2362,7 +2377,7 @@
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>45</v>
@@ -2407,7 +2422,7 @@
         <v>136</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>45</v>
@@ -2452,7 +2467,7 @@
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>45</v>
@@ -2738,7 +2753,7 @@
         <v>136</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>45</v>
@@ -2786,7 +2801,7 @@
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>45</v>
@@ -2832,7 +2847,7 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>166</v>
@@ -2880,7 +2895,7 @@
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>45</v>
@@ -2928,7 +2943,7 @@
         <v>136</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>45</v>
@@ -2976,7 +2991,7 @@
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>45</v>
@@ -3022,7 +3037,7 @@
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>173</v>
@@ -3138,7 +3153,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>45</v>
@@ -3171,7 +3186,7 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="7"/>
@@ -3188,7 +3203,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -3205,7 +3220,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -3222,7 +3237,7 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -3239,7 +3254,7 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -3411,7 +3426,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>45</v>
@@ -3450,7 +3465,7 @@
         <v>103</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>45</v>
@@ -3489,7 +3504,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>45</v>
@@ -3528,7 +3543,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>45</v>
@@ -3567,7 +3582,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>45</v>
@@ -3606,7 +3621,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>45</v>
@@ -3797,7 +3812,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -3839,7 +3854,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>45</v>
@@ -3881,7 +3896,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>45</v>
@@ -3923,7 +3938,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>45</v>
@@ -3965,7 +3980,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>45</v>
@@ -4007,7 +4022,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>45</v>
@@ -4206,7 +4221,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -4216,7 +4231,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4225,7 +4240,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4234,7 +4249,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4243,7 +4258,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4252,7 +4267,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4336,7 +4351,7 @@
         <v>136</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4354,7 +4369,7 @@
       </c>
       <c r="E3" s="42"/>
       <c r="F3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4374,7 +4389,7 @@
         <v>136</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4392,7 +4407,7 @@
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4412,7 +4427,7 @@
         <v>136</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4430,7 +4445,7 @@
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4522,7 +4537,7 @@
         <v>136</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4543,7 +4558,7 @@
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4566,7 +4581,7 @@
         <v>136</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4587,7 +4602,7 @@
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4610,7 +4625,7 @@
         <v>136</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4631,7 +4646,7 @@
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4749,7 +4764,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4757,7 +4772,7 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4765,7 +4780,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4773,7 +4788,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4781,7 +4796,7 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4789,7 +4804,7 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4817,10 +4832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6938,6 +6953,58 @@
         <v>180</v>
       </c>
       <c r="H103" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B104" s="7">
+        <v>1</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B105" s="7">
+        <v>2</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H105" s="7" t="s">
         <v>223</v>
       </c>
     </row>
@@ -7137,9 +7204,13 @@
     <hyperlink ref="C24" r:id="rId192"/>
     <hyperlink ref="E7" r:id="rId193"/>
     <hyperlink ref="C7" r:id="rId194"/>
+    <hyperlink ref="E104" r:id="rId195"/>
+    <hyperlink ref="C104" r:id="rId196"/>
+    <hyperlink ref="E105" r:id="rId197"/>
+    <hyperlink ref="C105" r:id="rId198"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId195"/>
+  <pageSetup orientation="portrait" r:id="rId199"/>
 </worksheet>
 </file>
 
@@ -7184,7 +7255,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7198,7 +7269,7 @@
         <v>103</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -7212,7 +7283,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7226,7 +7297,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7240,7 +7311,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7254,7 +7325,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7327,7 +7398,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7344,7 +7415,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7361,7 +7432,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7378,7 +7449,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7395,7 +7466,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7412,7 +7483,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7511,7 +7582,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -7521,7 +7592,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7530,7 +7601,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7539,7 +7610,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7548,7 +7619,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7557,7 +7628,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7655,7 +7726,7 @@
         <v>136</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7673,7 +7744,7 @@
       </c>
       <c r="E3" s="42"/>
       <c r="F3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7693,7 +7764,7 @@
         <v>136</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7711,7 +7782,7 @@
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7731,7 +7802,7 @@
         <v>136</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7749,7 +7820,7 @@
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7935,7 +8006,7 @@
         <v>136</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7956,7 +8027,7 @@
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -7979,7 +8050,7 @@
         <v>136</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -8000,7 +8071,7 @@
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -8023,7 +8094,7 @@
         <v>136</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -8044,7 +8115,7 @@
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8135,7 +8206,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8143,7 +8214,7 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8151,7 +8222,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8159,7 +8230,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8167,7 +8238,7 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8175,7 +8246,7 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8252,7 +8323,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8266,7 +8337,7 @@
         <v>103</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8280,7 +8351,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8294,7 +8365,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8308,7 +8379,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8322,7 +8393,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8405,7 +8476,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8422,7 +8493,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8439,7 +8510,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8456,7 +8527,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8473,7 +8544,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8490,7 +8561,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8558,8 +8629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="A1:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8647,7 +8718,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>64</v>
@@ -8697,7 +8768,7 @@
         <v>80</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>64</v>
@@ -8965,7 +9036,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>108</v>
@@ -8983,7 +9054,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -8995,7 +9066,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -9007,7 +9078,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -9019,7 +9090,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -9031,7 +9102,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -9275,7 +9346,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>108</v>
@@ -9321,7 +9392,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>108</v>
@@ -9367,7 +9438,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>108</v>
@@ -9413,7 +9484,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>108</v>
@@ -9459,7 +9530,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>108</v>
@@ -9505,7 +9576,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>108</v>
@@ -9778,7 +9849,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>108</v>
@@ -9827,7 +9898,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>108</v>
@@ -9876,7 +9947,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>108</v>
@@ -9925,7 +9996,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>108</v>
@@ -9974,7 +10045,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>108</v>
@@ -10023,7 +10094,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>108</v>
@@ -10302,7 +10373,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F2" s="19">
         <v>200</v>
@@ -10334,7 +10405,7 @@
         <v>220</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F3" s="21">
         <v>300</v>
@@ -10358,7 +10429,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -10372,7 +10443,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -10386,7 +10457,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -10400,7 +10471,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -10540,7 +10611,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F2" s="19">
         <v>200</v>
@@ -10572,7 +10643,7 @@
         <v>220</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F3" s="21">
         <v>300</v>
@@ -10596,7 +10667,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -10610,7 +10681,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -10624,7 +10695,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -10638,7 +10709,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -10778,7 +10849,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F2" s="19">
         <v>200</v>
@@ -10810,7 +10881,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F3" s="21">
         <v>3</v>
@@ -10842,7 +10913,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F4" s="19">
         <v>200</v>
@@ -10874,7 +10945,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F5" s="21">
         <v>3</v>
@@ -10906,7 +10977,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F6" s="19">
         <v>200</v>
@@ -10938,7 +11009,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F7" s="21">
         <v>3</v>
@@ -11094,7 +11165,7 @@
         <v>103</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G2" s="19">
         <v>5</v>
@@ -11129,7 +11200,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G3" s="21">
         <v>3</v>
@@ -11164,7 +11235,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G4" s="19">
         <v>6</v>
@@ -11199,7 +11270,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G5" s="21">
         <v>3</v>
@@ -11234,7 +11305,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G6" s="19">
         <v>8</v>
@@ -11269,7 +11340,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G7" s="21">
         <v>3</v>
@@ -11436,7 +11507,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E2" s="21">
         <v>3</v>
@@ -11465,7 +11536,7 @@
         <v>103</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E3" s="21">
         <v>4</v>
@@ -11494,7 +11565,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E4" s="21">
         <v>5</v>
@@ -11523,7 +11594,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E5" s="21">
         <v>6</v>
@@ -11552,7 +11623,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E6" s="21">
         <v>7</v>
@@ -11581,7 +11652,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E7" s="21">
         <v>8</v>
@@ -11725,7 +11796,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F2" s="19">
         <v>5</v>
@@ -11757,7 +11828,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F3" s="21">
         <v>6</v>
@@ -11789,7 +11860,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F4" s="19">
         <v>7</v>
@@ -11821,7 +11892,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F5" s="21">
         <v>8</v>
@@ -11853,7 +11924,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F6" s="19">
         <v>9</v>
@@ -11885,7 +11956,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F7" s="21">
         <v>10</v>
@@ -11972,7 +12043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -12981,7 +13052,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13056,7 +13127,7 @@
       </c>
       <c r="E2" s="38"/>
       <c r="F2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>45</v>
@@ -13097,7 +13168,7 @@
         <v>136</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>45</v>
@@ -13138,7 +13209,7 @@
         <v>136</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>45</v>
@@ -13177,7 +13248,7 @@
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -13218,7 +13289,7 @@
         <v>136</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>45</v>
@@ -13257,7 +13328,7 @@
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>45</v>
@@ -13694,12 +13765,403 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ1" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="11">
+        <v>112539761</v>
+      </c>
+      <c r="J2" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" s="11">
+        <v>123697854</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>1</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA2" s="11">
+        <v>1686</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>112539768</v>
+      </c>
+      <c r="AH2" s="11">
+        <v>843353667</v>
+      </c>
+      <c r="AI2" s="11">
+        <v>117893246</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="11">
+        <v>112539761</v>
+      </c>
+      <c r="J3" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="K3" s="11">
+        <v>123697854</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="T2" r:id="rId3" display="P@ssw0rd"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13786,7 +14248,7 @@
         <v>136</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>45</v>
@@ -13825,7 +14287,7 @@
       </c>
       <c r="E3" s="42"/>
       <c r="F3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>45</v>
@@ -13866,7 +14328,7 @@
         <v>136</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>45</v>
@@ -13905,7 +14367,7 @@
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -13946,7 +14408,7 @@
         <v>136</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>45</v>
@@ -13985,7 +14447,7 @@
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>45</v>
@@ -14156,7 +14618,7 @@
         <v>136</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>45</v>
@@ -14198,7 +14660,7 @@
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>45</v>
@@ -14242,7 +14704,7 @@
         <v>136</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>45</v>
@@ -14284,7 +14746,7 @@
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>45</v>
@@ -14328,7 +14790,7 @@
         <v>136</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>45</v>
@@ -14370,7 +14832,7 @@
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>45</v>
@@ -14530,7 +14992,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -14568,7 +15030,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>45</v>
@@ -14598,7 +15060,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -14614,7 +15076,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -14630,7 +15092,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -14646,7 +15108,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -14775,7 +15237,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>45</v>
@@ -14813,7 +15275,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>45</v>
@@ -14851,7 +15313,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>45</v>
@@ -14889,7 +15351,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>45</v>
@@ -14927,7 +15389,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>45</v>
@@ -14965,7 +15427,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>45</v>
@@ -15118,7 +15580,7 @@
         <v>103</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>45</v>
@@ -15159,7 +15621,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>45</v>
@@ -15200,7 +15662,7 @@
         <v>103</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>45</v>
@@ -15241,7 +15703,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -15282,7 +15744,7 @@
         <v>103</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>45</v>
@@ -15323,7 +15785,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>45</v>

--- a/Test data/TestData.xlsx
+++ b/Test data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="36" activeTab="42"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="36" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="Mercury" sheetId="1" r:id="rId1"/>
@@ -943,9 +943,6 @@
     <t>african unity</t>
   </si>
   <si>
-    <t>iest10</t>
-  </si>
-  <si>
     <t>001155</t>
   </si>
   <si>
@@ -985,30 +982,6 @@
     <t>2018-09-01 TO 2018-10-20</t>
   </si>
   <si>
-    <t>Test10_Entityaa10</t>
-  </si>
-  <si>
-    <t>Test10_Entityaa11</t>
-  </si>
-  <si>
-    <t>2963/214210/27</t>
-  </si>
-  <si>
-    <t>2963/214311/28</t>
-  </si>
-  <si>
-    <t>L777</t>
-  </si>
-  <si>
-    <t>Test4189</t>
-  </si>
-  <si>
-    <t>SQL Test14189</t>
-  </si>
-  <si>
-    <t>Test14189</t>
-  </si>
-  <si>
     <t>Test1489 - Test489</t>
   </si>
   <si>
@@ -1016,6 +989,33 @@
   </si>
   <si>
     <t>Test115</t>
+  </si>
+  <si>
+    <t>Test10_Entityaa12</t>
+  </si>
+  <si>
+    <t>Test10_Entityaa14</t>
+  </si>
+  <si>
+    <t>2963/214210/12</t>
+  </si>
+  <si>
+    <t>2963/214311/14</t>
+  </si>
+  <si>
+    <t>L782</t>
+  </si>
+  <si>
+    <t>Test41891</t>
+  </si>
+  <si>
+    <t>SQL Test141891</t>
+  </si>
+  <si>
+    <t>Test141891</t>
+  </si>
+  <si>
+    <t>iest18</t>
   </si>
 </sst>
 </file>
@@ -2188,7 +2188,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -2232,7 +2232,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>45</v>
@@ -2268,7 +2268,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2286,7 +2286,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2304,7 +2304,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2322,7 +2322,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>45</v>
@@ -2558,7 +2558,7 @@
         <v>136</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>45</v>
@@ -2605,7 +2605,7 @@
         <v>136</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>45</v>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>45</v>
@@ -2695,7 +2695,7 @@
         <v>136</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>45</v>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>45</v>
@@ -3031,7 +3031,7 @@
         <v>136</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>45</v>
@@ -3084,7 +3084,7 @@
         <v>276</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>45</v>
@@ -3133,7 +3133,7 @@
         <v>136</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>166</v>
@@ -3186,7 +3186,7 @@
         <v>276</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>45</v>
@@ -3235,7 +3235,7 @@
         <v>136</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>45</v>
@@ -3288,7 +3288,7 @@
         <v>276</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>45</v>
@@ -3335,7 +3335,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="86"/>
       <c r="H8" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>172</v>
@@ -3531,7 +3531,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>45</v>
@@ -3564,7 +3564,7 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="7"/>
@@ -3581,7 +3581,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -3598,7 +3598,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -3615,7 +3615,7 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -3632,7 +3632,7 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -3804,7 +3804,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>45</v>
@@ -3843,7 +3843,7 @@
         <v>103</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>45</v>
@@ -3882,7 +3882,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>45</v>
@@ -3921,7 +3921,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>45</v>
@@ -3960,7 +3960,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>45</v>
@@ -3999,7 +3999,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>45</v>
@@ -4190,7 +4190,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -4232,7 +4232,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>45</v>
@@ -4274,7 +4274,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>45</v>
@@ -4316,7 +4316,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>45</v>
@@ -4358,7 +4358,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>45</v>
@@ -4400,7 +4400,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>45</v>
@@ -4599,7 +4599,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -4609,7 +4609,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4618,7 +4618,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4627,7 +4627,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4636,7 +4636,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4645,7 +4645,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4730,7 +4730,7 @@
         <v>136</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="E3" s="40"/>
       <c r="F3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4768,7 +4768,7 @@
         <v>136</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4806,7 +4806,7 @@
         <v>136</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4824,7 +4824,7 @@
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4916,7 +4916,7 @@
         <v>136</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4960,7 +4960,7 @@
         <v>136</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5004,7 +5004,7 @@
         <v>136</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -5143,7 +5143,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5151,7 +5151,7 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5159,7 +5159,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5167,7 +5167,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5175,7 +5175,7 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5183,7 +5183,7 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5246,13 +5246,13 @@
         <v>0</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="G1" s="60" t="s">
         <v>177</v>
       </c>
       <c r="H1" s="60" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5825,7 +5825,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B28" s="38">
         <v>1</v>
@@ -7710,7 +7710,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7724,7 +7724,7 @@
         <v>103</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -7738,7 +7738,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7752,7 +7752,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7766,7 +7766,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7780,7 +7780,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7853,7 +7853,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7870,7 +7870,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7887,7 +7887,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7904,7 +7904,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7921,7 +7921,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7938,7 +7938,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8037,7 +8037,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -8047,7 +8047,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8056,7 +8056,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8065,7 +8065,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8074,7 +8074,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8083,7 +8083,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8181,7 +8181,7 @@
         <v>136</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="E3" s="40"/>
       <c r="F3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8219,7 +8219,7 @@
         <v>136</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8237,7 +8237,7 @@
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8257,7 +8257,7 @@
         <v>136</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8275,7 +8275,7 @@
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8461,7 +8461,7 @@
         <v>136</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8482,7 +8482,7 @@
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -8505,7 +8505,7 @@
         <v>136</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -8526,7 +8526,7 @@
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -8549,7 +8549,7 @@
         <v>136</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -8570,7 +8570,7 @@
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8661,7 +8661,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8669,7 +8669,7 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8677,7 +8677,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8685,7 +8685,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8693,7 +8693,7 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8701,7 +8701,7 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8778,7 +8778,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8792,7 +8792,7 @@
         <v>103</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8806,7 +8806,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8820,7 +8820,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8834,7 +8834,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8848,7 +8848,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8931,7 +8931,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8948,7 +8948,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8965,7 +8965,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8982,7 +8982,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8999,7 +8999,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -9016,7 +9016,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -9491,7 +9491,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>108</v>
@@ -9509,7 +9509,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -9521,7 +9521,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -9533,7 +9533,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -9545,7 +9545,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -9557,7 +9557,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -9801,7 +9801,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>108</v>
@@ -9847,7 +9847,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>108</v>
@@ -9893,7 +9893,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>108</v>
@@ -9939,7 +9939,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>108</v>
@@ -9985,7 +9985,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>108</v>
@@ -10031,7 +10031,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>108</v>
@@ -10304,7 +10304,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>108</v>
@@ -10353,7 +10353,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>108</v>
@@ -10402,7 +10402,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>108</v>
@@ -10451,7 +10451,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>108</v>
@@ -10500,7 +10500,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>108</v>
@@ -10549,7 +10549,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>108</v>
@@ -10828,7 +10828,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" s="19">
         <v>200</v>
@@ -10860,7 +10860,7 @@
         <v>213</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F3" s="21">
         <v>300</v>
@@ -10884,7 +10884,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -10898,7 +10898,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -10912,7 +10912,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -10926,7 +10926,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -11066,7 +11066,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" s="19">
         <v>200</v>
@@ -11098,7 +11098,7 @@
         <v>213</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F3" s="21">
         <v>300</v>
@@ -11122,7 +11122,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -11136,7 +11136,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -11150,7 +11150,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -11164,7 +11164,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -11304,7 +11304,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" s="19">
         <v>200</v>
@@ -11336,7 +11336,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F3" s="21">
         <v>3</v>
@@ -11368,7 +11368,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F4" s="19">
         <v>200</v>
@@ -11400,7 +11400,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F5" s="21">
         <v>3</v>
@@ -11432,7 +11432,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F6" s="19">
         <v>200</v>
@@ -11464,7 +11464,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F7" s="21">
         <v>3</v>
@@ -11620,7 +11620,7 @@
         <v>103</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G2" s="19">
         <v>5</v>
@@ -11655,7 +11655,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G3" s="21">
         <v>3</v>
@@ -11690,7 +11690,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G4" s="19">
         <v>6</v>
@@ -11725,7 +11725,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G5" s="21">
         <v>3</v>
@@ -11760,7 +11760,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G6" s="19">
         <v>8</v>
@@ -11795,7 +11795,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G7" s="21">
         <v>3</v>
@@ -11962,7 +11962,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E2" s="21">
         <v>3</v>
@@ -11991,7 +11991,7 @@
         <v>103</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E3" s="21">
         <v>4</v>
@@ -12020,7 +12020,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E4" s="21">
         <v>5</v>
@@ -12049,7 +12049,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E5" s="21">
         <v>6</v>
@@ -12078,7 +12078,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E6" s="21">
         <v>7</v>
@@ -12107,7 +12107,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E7" s="21">
         <v>8</v>
@@ -12251,7 +12251,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" s="19">
         <v>5</v>
@@ -12283,7 +12283,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F3" s="21">
         <v>6</v>
@@ -12315,7 +12315,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F4" s="19">
         <v>7</v>
@@ -12347,7 +12347,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F5" s="21">
         <v>8</v>
@@ -12379,7 +12379,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F6" s="19">
         <v>9</v>
@@ -12411,7 +12411,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F7" s="21">
         <v>10</v>
@@ -12619,7 +12619,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>82</v>
@@ -12628,7 +12628,7 @@
         <v>84</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>86</v>
@@ -13010,7 +13010,7 @@
   <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13128,7 +13128,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>211</v>
@@ -13156,11 +13156,11 @@
         <v>192</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N2" s="11" t="str">
         <f>C2</f>
-        <v>L777</v>
+        <v>L782</v>
       </c>
       <c r="O2" s="11">
         <v>1000000</v>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="S2" s="11" t="str">
         <f>C2</f>
-        <v>L777</v>
+        <v>L782</v>
       </c>
       <c r="T2" s="11" t="s">
         <v>224</v>
@@ -13615,7 +13615,7 @@
         <v>276</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>45</v>
@@ -13656,7 +13656,7 @@
         <v>136</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>45</v>
@@ -13698,7 +13698,7 @@
         <v>136</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>45</v>
@@ -13738,7 +13738,7 @@
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
       <c r="G5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>45</v>
@@ -13780,7 +13780,7 @@
         <v>136</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>45</v>
@@ -13820,7 +13820,7 @@
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>45</v>
@@ -14003,8 +14003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14081,16 +14081,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E2" s="39" t="s">
         <v>190</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>224</v>
@@ -14120,7 +14120,7 @@
         <v>192</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14191,7 +14191,7 @@
       <c r="I4" s="20"/>
       <c r="J4" s="39"/>
       <c r="K4" s="64" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L4" s="20">
         <v>1173782</v>
@@ -14302,7 +14302,7 @@
   <dimension ref="A1:BK4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14573,7 +14573,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>64</v>
@@ -14609,7 +14609,7 @@
         <v>78</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="R2" s="11" t="s">
         <v>82</v>
@@ -14618,7 +14618,7 @@
         <v>84</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>86</v>
@@ -14764,7 +14764,7 @@
         <v>80</v>
       </c>
       <c r="E3" s="26">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>64</v>
@@ -14800,7 +14800,7 @@
         <v>78</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="R3" s="11" t="s">
         <v>82</v>
@@ -14809,7 +14809,7 @@
         <v>84</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>86</v>
@@ -14906,7 +14906,7 @@
       </c>
       <c r="AZ3" s="72" t="str">
         <f>Q3</f>
-        <v>Test10_Entityaa11</v>
+        <v>Test10_Entityaa14</v>
       </c>
       <c r="BA3" s="73" t="s">
         <v>109</v>
@@ -15049,8 +15049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15284,7 +15284,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>64</v>
@@ -15398,7 +15398,7 @@
         <v>105</v>
       </c>
       <c r="AQ2" s="7" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="AR2" s="51" t="s">
         <v>247</v>
@@ -15785,7 +15785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -15804,25 +15804,25 @@
         <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B3" s="21">
         <v>1</v>
@@ -15834,7 +15834,7 @@
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B4" s="19">
         <v>1</v>
@@ -15846,7 +15846,7 @@
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B5" s="21">
         <v>1</v>
@@ -15858,7 +15858,7 @@
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B6" s="19">
         <v>1</v>
@@ -15870,7 +15870,7 @@
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B7" s="21">
         <v>1</v>
@@ -15997,7 +15997,7 @@
         <v>136</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>45</v>
@@ -16036,7 +16036,7 @@
       </c>
       <c r="E3" s="40"/>
       <c r="F3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>45</v>
@@ -16077,7 +16077,7 @@
         <v>136</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>45</v>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -16157,7 +16157,7 @@
         <v>136</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>45</v>
@@ -16196,7 +16196,7 @@
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>45</v>
@@ -16367,7 +16367,7 @@
         <v>136</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>45</v>
@@ -16409,7 +16409,7 @@
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>45</v>
@@ -16453,7 +16453,7 @@
         <v>136</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>45</v>
@@ -16495,7 +16495,7 @@
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>45</v>
@@ -16539,7 +16539,7 @@
         <v>136</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>45</v>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>45</v>
@@ -16741,7 +16741,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -16779,7 +16779,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>45</v>
@@ -16809,7 +16809,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -16825,7 +16825,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -16841,7 +16841,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -16857,7 +16857,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -16986,7 +16986,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>45</v>
@@ -17024,7 +17024,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>45</v>
@@ -17062,7 +17062,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>45</v>
@@ -17100,7 +17100,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>45</v>
@@ -17138,7 +17138,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>45</v>
@@ -17176,7 +17176,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>45</v>
@@ -17329,7 +17329,7 @@
         <v>103</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>45</v>
@@ -17370,7 +17370,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>45</v>
@@ -17411,7 +17411,7 @@
         <v>103</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>45</v>
@@ -17452,7 +17452,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -17493,7 +17493,7 @@
         <v>103</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>45</v>
@@ -17534,7 +17534,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>45</v>

--- a/Test data/TestData.xlsx
+++ b/Test data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="36" activeTab="41"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" firstSheet="37" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="Mercury" sheetId="1" r:id="rId1"/>
@@ -50,13 +50,14 @@
     <sheet name="story1" sheetId="53" r:id="rId41"/>
     <sheet name="QuoteCreation" sheetId="54" r:id="rId42"/>
     <sheet name="B2BSetup" sheetId="55" r:id="rId43"/>
+    <sheet name="ACBEbtryClass" sheetId="56" r:id="rId44"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="351">
   <si>
     <t>Password</t>
   </si>
@@ -952,70 +953,163 @@
     <t>Test1411 - Test411</t>
   </si>
   <si>
-    <t>2018-08-01 TO 2018-09-15</t>
-  </si>
-  <si>
     <t>Schemadesp</t>
   </si>
   <si>
-    <t>Test08_Entity118</t>
-  </si>
-  <si>
-    <t>2968/210128/06</t>
-  </si>
-  <si>
-    <t>2018-09-01 TO 2018-10-15</t>
+    <t>Test1489 - Test489</t>
+  </si>
+  <si>
+    <t>apple14</t>
+  </si>
+  <si>
+    <t>Test141891</t>
+  </si>
+  <si>
+    <t>iest18</t>
+  </si>
+  <si>
+    <t>Test129</t>
+  </si>
+  <si>
+    <t>Monitor - CELLCAP - ST FSP</t>
+  </si>
+  <si>
+    <t>Monitor - MONITOR - ST FSP</t>
+  </si>
+  <si>
+    <t>Monitor - UMACLAIMS - Claims Handling</t>
+  </si>
+  <si>
+    <t>Monitor 24 - MONITOR24 - ST FSP</t>
+  </si>
+  <si>
+    <t>Monitor24Claims - 24HR CLAIM - Claims Handling</t>
+  </si>
+  <si>
+    <t>Monitor Administrators (Pty) Ltd</t>
+  </si>
+  <si>
+    <t>ASTR - ASTRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTN Mutual &amp; Federal Claims handling </t>
+  </si>
+  <si>
+    <t>COLLE - 24HR Collections</t>
+  </si>
+  <si>
+    <t>24HRC - 24HR Guardrisk Cell Claims Handling</t>
+  </si>
+  <si>
+    <t>MTN Insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTN - MTN insurance </t>
+  </si>
+  <si>
+    <t>MTNMF - MTN Mutual &amp; Federal Claims Fund Handling</t>
+  </si>
+  <si>
+    <t>Monitor Administrators (Pty) Ltd - 24HR</t>
+  </si>
+  <si>
+    <t>Monitor Administrators (Pty) Ltd - 24HR Claims Handling</t>
+  </si>
+  <si>
+    <t>mmx</t>
+  </si>
+  <si>
+    <t>MMFIX - MMX i-FIX Collections</t>
   </si>
   <si>
     <t>2018-09-01 TO 2018-10-16</t>
   </si>
   <si>
-    <t>2018-09-01 TO 2018-10-17</t>
-  </si>
-  <si>
-    <t>2018-09-01 TO 2018-10-18</t>
-  </si>
-  <si>
-    <t>2018-09-01 TO 2018-10-19</t>
-  </si>
-  <si>
-    <t>2018-09-01 TO 2018-10-20</t>
-  </si>
-  <si>
-    <t>Test1489 - Test489</t>
-  </si>
-  <si>
-    <t>apple14</t>
-  </si>
-  <si>
-    <t>Test115</t>
-  </si>
-  <si>
-    <t>Test10_Entityaa12</t>
-  </si>
-  <si>
-    <t>Test10_Entityaa14</t>
-  </si>
-  <si>
-    <t>2963/214210/12</t>
-  </si>
-  <si>
-    <t>2963/214311/14</t>
-  </si>
-  <si>
-    <t>L782</t>
-  </si>
-  <si>
-    <t>Test41891</t>
-  </si>
-  <si>
-    <t>SQL Test141891</t>
-  </si>
-  <si>
-    <t>Test141891</t>
-  </si>
-  <si>
-    <t>iest18</t>
+    <t>01-09-2018 TO 30-09-2018</t>
+  </si>
+  <si>
+    <t>MMX Systems - MMX SYSTEM - ST FSP</t>
+  </si>
+  <si>
+    <t>Tc_27_AcbEntryclassSetup</t>
+  </si>
+  <si>
+    <t>EntryCcode_Name</t>
+  </si>
+  <si>
+    <t>Desp_Name</t>
+  </si>
+  <si>
+    <t>ServiceType_Name</t>
+  </si>
+  <si>
+    <t>Naedotrackdaysid</t>
+  </si>
+  <si>
+    <t>Serviceid</t>
+  </si>
+  <si>
+    <t>DebORCre</t>
+  </si>
+  <si>
+    <t>ServicechannelID</t>
+  </si>
+  <si>
+    <t>B2BfILEid</t>
+  </si>
+  <si>
+    <t>NewUser001</t>
+  </si>
+  <si>
+    <t>1 Day Tracking</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Fintegrate ISO</t>
+  </si>
+  <si>
+    <t>test01</t>
+  </si>
+  <si>
+    <t>2018-11-01 TO 2018-12-15</t>
+  </si>
+  <si>
+    <t>Test11_Entityaa15</t>
+  </si>
+  <si>
+    <t>Test11_Entityaa16</t>
+  </si>
+  <si>
+    <t>2964/214210/15</t>
+  </si>
+  <si>
+    <t>2964/214311/16</t>
+  </si>
+  <si>
+    <t>AAA19</t>
+  </si>
+  <si>
+    <t>AAA20</t>
+  </si>
+  <si>
+    <t>Test09_Entity199</t>
+  </si>
+  <si>
+    <t>2968/210129/98</t>
+  </si>
+  <si>
+    <t>Test41784</t>
+  </si>
+  <si>
+    <t>SQL Test145891</t>
+  </si>
+  <si>
+    <t>L797</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1119,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,6 +1203,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1136,7 +1236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1389,6 +1489,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1397,7 +1508,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1515,6 +1626,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2109,7 +2230,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2188,7 +2309,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -2232,7 +2353,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>45</v>
@@ -2268,7 +2389,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2286,7 +2407,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2304,7 +2425,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2322,7 +2443,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2339,7 +2460,9 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2429,7 +2552,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2513,7 +2636,7 @@
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>45</v>
@@ -2558,7 +2681,7 @@
         <v>136</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>45</v>
@@ -2605,7 +2728,7 @@
         <v>136</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>45</v>
@@ -2650,7 +2773,7 @@
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>45</v>
@@ -2695,7 +2818,7 @@
         <v>136</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>45</v>
@@ -2740,7 +2863,7 @@
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>45</v>
@@ -2774,7 +2897,9 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -2933,7 +3058,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H7"/>
+      <selection activeCell="H2" sqref="H2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3031,7 +3156,7 @@
         <v>136</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>45</v>
@@ -3084,7 +3209,7 @@
         <v>276</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>45</v>
@@ -3133,7 +3258,7 @@
         <v>136</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>166</v>
@@ -3186,7 +3311,7 @@
         <v>276</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>45</v>
@@ -3235,7 +3360,7 @@
         <v>136</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>45</v>
@@ -3288,7 +3413,7 @@
         <v>276</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>45</v>
@@ -3335,7 +3460,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="86"/>
       <c r="H8" s="5" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>172</v>
@@ -3459,7 +3584,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3531,7 +3656,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>45</v>
@@ -3564,7 +3689,7 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="7"/>
@@ -3581,7 +3706,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -3598,7 +3723,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -3615,7 +3740,7 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -3632,7 +3757,7 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -3648,7 +3773,9 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -3732,7 +3859,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3804,7 +3931,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>45</v>
@@ -3843,7 +3970,7 @@
         <v>103</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>45</v>
@@ -3882,7 +4009,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>45</v>
@@ -3921,7 +4048,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>45</v>
@@ -3960,7 +4087,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>45</v>
@@ -3999,7 +4126,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>45</v>
@@ -4031,7 +4158,9 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -4121,7 +4250,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4190,7 +4319,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -4232,7 +4361,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>45</v>
@@ -4274,7 +4403,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>45</v>
@@ -4316,7 +4445,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>45</v>
@@ -4358,7 +4487,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>45</v>
@@ -4400,7 +4529,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>45</v>
@@ -4433,7 +4562,9 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -4544,10 +4675,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4555,20 +4686,21 @@
     <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>33</v>
       </c>
@@ -4581,11 +4713,14 @@
       <c r="D1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>56</v>
       </c>
@@ -4598,76 +4733,106 @@
       <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="35"/>
+      <c r="F3" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="37"/>
+      <c r="F4" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="36"/>
+      <c r="F5" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="37"/>
+      <c r="F6" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="36"/>
+      <c r="F7" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="62"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="62"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="62"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="62"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4680,7 +4845,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4730,7 +4895,7 @@
         <v>136</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4748,7 +4913,7 @@
       </c>
       <c r="E3" s="40"/>
       <c r="F3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4768,7 +4933,7 @@
         <v>136</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4786,7 +4951,7 @@
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4806,7 +4971,7 @@
         <v>136</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4824,7 +4989,7 @@
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4833,7 +4998,9 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -4861,7 +5028,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G7"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4916,7 +5083,7 @@
         <v>136</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4937,7 +5104,7 @@
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4960,7 +5127,7 @@
         <v>136</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4981,7 +5148,7 @@
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5004,7 +5171,7 @@
         <v>136</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -5025,7 +5192,7 @@
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -5035,7 +5202,9 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="5" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -5107,7 +5276,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5143,7 +5312,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5151,7 +5320,7 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5159,7 +5328,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5167,7 +5336,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5175,7 +5344,7 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5183,14 +5352,16 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="5" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -5211,10 +5382,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5229,7 +5400,7 @@
     <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>33</v>
       </c>
@@ -5246,16 +5417,16 @@
         <v>0</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="G1" s="60" t="s">
         <v>177</v>
       </c>
       <c r="H1" s="60" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -5281,7 +5452,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>50</v>
       </c>
@@ -5307,7 +5478,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>56</v>
       </c>
@@ -5326,8 +5497,11 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>57</v>
       </c>
@@ -5346,8 +5520,11 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>58</v>
       </c>
@@ -5373,7 +5550,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>58</v>
       </c>
@@ -5399,7 +5576,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
@@ -5423,7 +5600,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>107</v>
       </c>
@@ -5443,7 +5620,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>115</v>
       </c>
@@ -5463,7 +5640,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>118</v>
       </c>
@@ -5483,7 +5660,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>121</v>
       </c>
@@ -5503,7 +5680,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>122</v>
       </c>
@@ -5523,7 +5700,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>123</v>
       </c>
@@ -5543,7 +5720,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>124</v>
       </c>
@@ -5563,7 +5740,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>214</v>
       </c>
@@ -5844,37 +6021,37 @@
       <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" s="11">
+      <c r="A29" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B29" s="92">
         <v>1</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="56" t="s">
+      <c r="C29" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B30" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>38</v>
+      <c r="D30" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="E30" s="56" t="s">
         <v>16</v>
@@ -5888,13 +6065,13 @@
         <v>144</v>
       </c>
       <c r="B31" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>138</v>
+      <c r="D31" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E31" s="56" t="s">
         <v>16</v>
@@ -5908,13 +6085,13 @@
         <v>144</v>
       </c>
       <c r="B32" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E32" s="56" t="s">
         <v>16</v>
@@ -5923,18 +6100,18 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B33" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E33" s="56" t="s">
         <v>16</v>
@@ -5943,18 +6120,18 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B34" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E34" s="56" t="s">
         <v>16</v>
@@ -5963,18 +6140,18 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B35" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E35" s="56" t="s">
         <v>16</v>
@@ -5983,9 +6160,9 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B36" s="11">
         <v>1</v>
@@ -5994,7 +6171,7 @@
         <v>37</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E36" s="56" t="s">
         <v>16</v>
@@ -6003,18 +6180,18 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>146</v>
       </c>
       <c r="B37" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>38</v>
+      <c r="D37" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="E37" s="56" t="s">
         <v>16</v>
@@ -6023,18 +6200,18 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>146</v>
       </c>
       <c r="B38" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>138</v>
+      <c r="D38" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E38" s="56" t="s">
         <v>16</v>
@@ -6043,18 +6220,18 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>146</v>
       </c>
       <c r="B39" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E39" s="56" t="s">
         <v>16</v>
@@ -6063,18 +6240,18 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>146</v>
       </c>
       <c r="B40" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E40" s="56" t="s">
         <v>16</v>
@@ -6083,18 +6260,18 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>146</v>
       </c>
       <c r="B41" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E41" s="56" t="s">
         <v>16</v>
@@ -6103,18 +6280,18 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B42" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E42" s="56" t="s">
         <v>16</v>
@@ -6123,9 +6300,9 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>148</v>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="B43" s="11">
         <v>1</v>
@@ -6134,7 +6311,7 @@
         <v>37</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E43" s="56" t="s">
         <v>16</v>
@@ -6142,19 +6319,25 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>2017</v>
+      </c>
+      <c r="L43">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B44" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>38</v>
+      <c r="D44" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="E44" s="56" t="s">
         <v>16</v>
@@ -6162,19 +6345,22 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B45" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>138</v>
+      <c r="D45" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E45" s="56" t="s">
         <v>16</v>
@@ -6183,18 +6369,18 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B46" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E46" s="56" t="s">
         <v>16</v>
@@ -6203,18 +6389,18 @@
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B47" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E47" s="56" t="s">
         <v>16</v>
@@ -6223,18 +6409,18 @@
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B48" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E48" s="56" t="s">
         <v>16</v>
@@ -6244,17 +6430,17 @@
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>147</v>
+      <c r="A49" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="B49" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E49" s="56" t="s">
         <v>16</v>
@@ -6265,7 +6451,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B50" s="11">
         <v>1</v>
@@ -6274,7 +6460,7 @@
         <v>37</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E50" s="56" t="s">
         <v>16</v>
@@ -6288,13 +6474,13 @@
         <v>150</v>
       </c>
       <c r="B51" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>38</v>
+      <c r="D51" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="E51" s="56" t="s">
         <v>16</v>
@@ -6308,13 +6494,13 @@
         <v>150</v>
       </c>
       <c r="B52" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>138</v>
+      <c r="D52" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E52" s="56" t="s">
         <v>16</v>
@@ -6328,13 +6514,13 @@
         <v>150</v>
       </c>
       <c r="B53" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E53" s="56" t="s">
         <v>16</v>
@@ -6348,13 +6534,13 @@
         <v>150</v>
       </c>
       <c r="B54" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E54" s="56" t="s">
         <v>16</v>
@@ -6368,13 +6554,13 @@
         <v>150</v>
       </c>
       <c r="B55" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E55" s="56" t="s">
         <v>16</v>
@@ -6385,10 +6571,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B56" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>37</v>
@@ -6404,19 +6590,19 @@
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B57" s="7">
+      <c r="A57" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="11">
         <v>1</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E57" s="57" t="s">
+      <c r="D57" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="7"/>
@@ -6427,16 +6613,16 @@
       <c r="A58" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B58" s="11">
-        <v>2</v>
-      </c>
-      <c r="C58" s="12" t="s">
+      <c r="B58" s="7">
+        <v>1</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" s="57" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="7"/>
@@ -6448,13 +6634,13 @@
         <v>157</v>
       </c>
       <c r="B59" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="11" t="s">
-        <v>138</v>
+      <c r="D59" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E59" s="56" t="s">
         <v>16</v>
@@ -6468,13 +6654,13 @@
         <v>157</v>
       </c>
       <c r="B60" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E60" s="56" t="s">
         <v>16</v>
@@ -6488,13 +6674,13 @@
         <v>157</v>
       </c>
       <c r="B61" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E61" s="56" t="s">
         <v>16</v>
@@ -6508,13 +6694,13 @@
         <v>157</v>
       </c>
       <c r="B62" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E62" s="56" t="s">
         <v>16</v>
@@ -6525,10 +6711,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B63" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>37</v>
@@ -6545,18 +6731,18 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B64" s="7">
+        <v>156</v>
+      </c>
+      <c r="B64" s="11">
         <v>1</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E64" s="57" t="s">
+      <c r="D64" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F64" s="7"/>
@@ -6567,16 +6753,16 @@
       <c r="A65" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B65" s="11">
-        <v>2</v>
-      </c>
-      <c r="C65" s="12" t="s">
+      <c r="B65" s="7">
+        <v>1</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" s="57" t="s">
         <v>16</v>
       </c>
       <c r="F65" s="7"/>
@@ -6588,13 +6774,13 @@
         <v>155</v>
       </c>
       <c r="B66" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>138</v>
+      <c r="D66" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E66" s="56" t="s">
         <v>16</v>
@@ -6608,13 +6794,13 @@
         <v>155</v>
       </c>
       <c r="B67" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E67" s="56" t="s">
         <v>16</v>
@@ -6628,13 +6814,13 @@
         <v>155</v>
       </c>
       <c r="B68" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E68" s="56" t="s">
         <v>16</v>
@@ -6648,13 +6834,13 @@
         <v>155</v>
       </c>
       <c r="B69" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E69" s="56" t="s">
         <v>16</v>
@@ -6665,10 +6851,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B70" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>37</v>
@@ -6685,18 +6871,18 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B71" s="7">
+        <v>154</v>
+      </c>
+      <c r="B71" s="11">
         <v>1</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E71" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F71" s="7"/>
@@ -6707,16 +6893,16 @@
       <c r="A72" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B72" s="11">
-        <v>2</v>
-      </c>
-      <c r="C72" s="12" t="s">
+      <c r="B72" s="7">
+        <v>1</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E72" s="56" t="s">
+      <c r="E72" s="57" t="s">
         <v>16</v>
       </c>
       <c r="F72" s="7"/>
@@ -6728,7 +6914,7 @@
         <v>165</v>
       </c>
       <c r="B73" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>37</v>
@@ -6748,7 +6934,7 @@
         <v>165</v>
       </c>
       <c r="B74" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>37</v>
@@ -6768,7 +6954,7 @@
         <v>165</v>
       </c>
       <c r="B75" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>37</v>
@@ -6788,7 +6974,7 @@
         <v>165</v>
       </c>
       <c r="B76" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>37</v>
@@ -6805,10 +6991,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B77" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>37</v>
@@ -6825,18 +7011,18 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B78" s="7">
+        <v>164</v>
+      </c>
+      <c r="B78" s="11">
         <v>1</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E78" s="57" t="s">
+      <c r="E78" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F78" s="7"/>
@@ -6847,16 +7033,16 @@
       <c r="A79" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B79" s="11">
-        <v>2</v>
-      </c>
-      <c r="C79" s="12" t="s">
+      <c r="B79" s="7">
+        <v>1</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E79" s="56" t="s">
+      <c r="E79" s="57" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="7"/>
@@ -6868,7 +7054,7 @@
         <v>163</v>
       </c>
       <c r="B80" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>37</v>
@@ -6888,7 +7074,7 @@
         <v>163</v>
       </c>
       <c r="B81" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>37</v>
@@ -6908,7 +7094,7 @@
         <v>163</v>
       </c>
       <c r="B82" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>37</v>
@@ -6928,7 +7114,7 @@
         <v>163</v>
       </c>
       <c r="B83" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>37</v>
@@ -6945,10 +7131,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B84" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>37</v>
@@ -6965,7 +7151,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B85" s="11">
         <v>1</v>
@@ -6987,16 +7173,16 @@
       <c r="A86" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B86" s="7">
-        <v>2</v>
-      </c>
-      <c r="C86" s="9" t="s">
+      <c r="B86" s="11">
+        <v>1</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E86" s="57" t="s">
+      <c r="E86" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F86" s="7"/>
@@ -7007,16 +7193,16 @@
       <c r="A87" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B87" s="11">
-        <v>3</v>
-      </c>
-      <c r="C87" s="12" t="s">
+      <c r="B87" s="7">
+        <v>2</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E87" s="56" t="s">
+      <c r="E87" s="57" t="s">
         <v>16</v>
       </c>
       <c r="F87" s="7"/>
@@ -7028,7 +7214,7 @@
         <v>161</v>
       </c>
       <c r="B88" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>37</v>
@@ -7048,7 +7234,7 @@
         <v>161</v>
       </c>
       <c r="B89" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>37</v>
@@ -7068,7 +7254,7 @@
         <v>161</v>
       </c>
       <c r="B90" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>37</v>
@@ -7085,10 +7271,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B91" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>37</v>
@@ -7105,7 +7291,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B92" s="11">
         <v>1</v>
@@ -7127,16 +7313,16 @@
       <c r="A93" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B93" s="7">
-        <v>2</v>
-      </c>
-      <c r="C93" s="9" t="s">
+      <c r="B93" s="11">
+        <v>1</v>
+      </c>
+      <c r="C93" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E93" s="57" t="s">
+      <c r="E93" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F93" s="7"/>
@@ -7147,16 +7333,16 @@
       <c r="A94" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B94" s="11">
-        <v>3</v>
-      </c>
-      <c r="C94" s="12" t="s">
+      <c r="B94" s="7">
+        <v>2</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E94" s="56" t="s">
+      <c r="E94" s="57" t="s">
         <v>16</v>
       </c>
       <c r="F94" s="7"/>
@@ -7168,7 +7354,7 @@
         <v>159</v>
       </c>
       <c r="B95" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>37</v>
@@ -7188,7 +7374,7 @@
         <v>159</v>
       </c>
       <c r="B96" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96" s="12" t="s">
         <v>37</v>
@@ -7208,7 +7394,7 @@
         <v>159</v>
       </c>
       <c r="B97" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>37</v>
@@ -7225,10 +7411,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B98" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>37</v>
@@ -7245,7 +7431,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B99" s="11">
         <v>1</v>
@@ -7267,16 +7453,16 @@
       <c r="A100" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B100" s="7">
-        <v>2</v>
-      </c>
-      <c r="C100" s="9" t="s">
+      <c r="B100" s="11">
+        <v>1</v>
+      </c>
+      <c r="C100" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E100" s="57" t="s">
+      <c r="E100" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F100" s="7"/>
@@ -7287,16 +7473,16 @@
       <c r="A101" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B101" s="11">
-        <v>3</v>
-      </c>
-      <c r="C101" s="12" t="s">
+      <c r="B101" s="7">
+        <v>2</v>
+      </c>
+      <c r="C101" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E101" s="56" t="s">
+      <c r="E101" s="57" t="s">
         <v>16</v>
       </c>
       <c r="F101" s="7"/>
@@ -7308,7 +7494,7 @@
         <v>153</v>
       </c>
       <c r="B102" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>37</v>
@@ -7328,7 +7514,7 @@
         <v>153</v>
       </c>
       <c r="B103" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>37</v>
@@ -7348,7 +7534,7 @@
         <v>153</v>
       </c>
       <c r="B104" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>37</v>
@@ -7365,10 +7551,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B105" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>37</v>
@@ -7384,51 +7570,47 @@
       <c r="H105" s="7"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="38" t="s">
+      <c r="A106" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B106" s="11">
+        <v>1</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E106" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="B106" s="38">
+      <c r="B107" s="38">
         <v>1</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C107" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D106" s="38" t="s">
+      <c r="D107" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E107" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F106" s="38" t="s">
+      <c r="F107" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="G106" s="38" t="s">
+      <c r="G107" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="H106" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B107" s="7">
-        <v>1</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E107" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G107" s="7"/>
       <c r="H107" s="7" t="s">
         <v>216</v>
       </c>
@@ -7438,7 +7620,7 @@
         <v>233</v>
       </c>
       <c r="B108" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>37</v>
@@ -7454,6 +7636,30 @@
       </c>
       <c r="G108" s="7"/>
       <c r="H108" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B109" s="7">
+        <v>2</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7" t="s">
         <v>216</v>
       </c>
     </row>
@@ -7491,181 +7697,183 @@
     <hyperlink ref="E22" r:id="rId30" display="mailto:P@ssw0rd"/>
     <hyperlink ref="C23" r:id="rId31"/>
     <hyperlink ref="E23" r:id="rId32" display="mailto:P@ssw0rd"/>
-    <hyperlink ref="E29" r:id="rId33"/>
-    <hyperlink ref="C29" r:id="rId34"/>
-    <hyperlink ref="E30" r:id="rId35"/>
-    <hyperlink ref="C30" r:id="rId36"/>
-    <hyperlink ref="E31" r:id="rId37"/>
-    <hyperlink ref="C31" r:id="rId38"/>
-    <hyperlink ref="E32" r:id="rId39"/>
-    <hyperlink ref="C32" r:id="rId40"/>
-    <hyperlink ref="E33" r:id="rId41"/>
-    <hyperlink ref="C33" r:id="rId42"/>
-    <hyperlink ref="E34" r:id="rId43"/>
-    <hyperlink ref="C34" r:id="rId44"/>
-    <hyperlink ref="E35" r:id="rId45"/>
-    <hyperlink ref="C35" r:id="rId46"/>
-    <hyperlink ref="E36" r:id="rId47"/>
-    <hyperlink ref="E37" r:id="rId48"/>
-    <hyperlink ref="C37" r:id="rId49"/>
-    <hyperlink ref="E38" r:id="rId50"/>
-    <hyperlink ref="C38" r:id="rId51"/>
-    <hyperlink ref="E39" r:id="rId52"/>
-    <hyperlink ref="C39" r:id="rId53"/>
-    <hyperlink ref="E40" r:id="rId54"/>
-    <hyperlink ref="C40" r:id="rId55"/>
-    <hyperlink ref="E41" r:id="rId56"/>
-    <hyperlink ref="C41" r:id="rId57"/>
-    <hyperlink ref="C36" r:id="rId58"/>
-    <hyperlink ref="E42" r:id="rId59"/>
-    <hyperlink ref="C42" r:id="rId60"/>
-    <hyperlink ref="E43" r:id="rId61"/>
-    <hyperlink ref="C43" r:id="rId62"/>
-    <hyperlink ref="E44" r:id="rId63"/>
-    <hyperlink ref="C44" r:id="rId64"/>
-    <hyperlink ref="E45" r:id="rId65"/>
-    <hyperlink ref="C45" r:id="rId66"/>
-    <hyperlink ref="E46" r:id="rId67"/>
-    <hyperlink ref="C46" r:id="rId68"/>
-    <hyperlink ref="E47" r:id="rId69"/>
-    <hyperlink ref="C47" r:id="rId70"/>
-    <hyperlink ref="E48" r:id="rId71"/>
-    <hyperlink ref="C48" r:id="rId72"/>
-    <hyperlink ref="E49" r:id="rId73"/>
-    <hyperlink ref="C49" r:id="rId74"/>
-    <hyperlink ref="E50" r:id="rId75"/>
-    <hyperlink ref="E51" r:id="rId76"/>
-    <hyperlink ref="C51" r:id="rId77"/>
-    <hyperlink ref="E52" r:id="rId78"/>
-    <hyperlink ref="C52" r:id="rId79"/>
-    <hyperlink ref="E53" r:id="rId80"/>
-    <hyperlink ref="C53" r:id="rId81"/>
-    <hyperlink ref="E54" r:id="rId82"/>
-    <hyperlink ref="C54" r:id="rId83"/>
-    <hyperlink ref="E55" r:id="rId84"/>
-    <hyperlink ref="C55" r:id="rId85"/>
-    <hyperlink ref="C50" r:id="rId86"/>
-    <hyperlink ref="E56" r:id="rId87"/>
-    <hyperlink ref="C56" r:id="rId88"/>
-    <hyperlink ref="E57" r:id="rId89"/>
-    <hyperlink ref="E58" r:id="rId90"/>
-    <hyperlink ref="C58" r:id="rId91"/>
-    <hyperlink ref="E59" r:id="rId92"/>
-    <hyperlink ref="C59" r:id="rId93"/>
-    <hyperlink ref="E60" r:id="rId94"/>
-    <hyperlink ref="C60" r:id="rId95"/>
-    <hyperlink ref="E61" r:id="rId96"/>
-    <hyperlink ref="C61" r:id="rId97"/>
-    <hyperlink ref="E62" r:id="rId98"/>
-    <hyperlink ref="C62" r:id="rId99"/>
-    <hyperlink ref="C57" r:id="rId100"/>
-    <hyperlink ref="E63" r:id="rId101"/>
-    <hyperlink ref="C63" r:id="rId102"/>
-    <hyperlink ref="E64" r:id="rId103"/>
-    <hyperlink ref="E65" r:id="rId104"/>
-    <hyperlink ref="C65" r:id="rId105"/>
-    <hyperlink ref="E66" r:id="rId106"/>
-    <hyperlink ref="C66" r:id="rId107"/>
-    <hyperlink ref="E67" r:id="rId108"/>
-    <hyperlink ref="C67" r:id="rId109"/>
-    <hyperlink ref="E68" r:id="rId110"/>
-    <hyperlink ref="C68" r:id="rId111"/>
-    <hyperlink ref="E69" r:id="rId112"/>
-    <hyperlink ref="C69" r:id="rId113"/>
-    <hyperlink ref="C64" r:id="rId114"/>
-    <hyperlink ref="E70" r:id="rId115"/>
-    <hyperlink ref="C70" r:id="rId116"/>
-    <hyperlink ref="E71" r:id="rId117"/>
-    <hyperlink ref="E72" r:id="rId118"/>
-    <hyperlink ref="C72" r:id="rId119"/>
-    <hyperlink ref="E73" r:id="rId120"/>
-    <hyperlink ref="C73" r:id="rId121"/>
-    <hyperlink ref="E74" r:id="rId122"/>
-    <hyperlink ref="C74" r:id="rId123"/>
-    <hyperlink ref="E75" r:id="rId124"/>
-    <hyperlink ref="C75" r:id="rId125"/>
-    <hyperlink ref="E76" r:id="rId126"/>
-    <hyperlink ref="C76" r:id="rId127"/>
-    <hyperlink ref="C71" r:id="rId128"/>
-    <hyperlink ref="E77" r:id="rId129"/>
-    <hyperlink ref="C77" r:id="rId130"/>
-    <hyperlink ref="E78" r:id="rId131"/>
-    <hyperlink ref="E79" r:id="rId132"/>
-    <hyperlink ref="C79" r:id="rId133"/>
-    <hyperlink ref="E80" r:id="rId134"/>
-    <hyperlink ref="C80" r:id="rId135"/>
-    <hyperlink ref="E81" r:id="rId136"/>
-    <hyperlink ref="C81" r:id="rId137"/>
-    <hyperlink ref="E82" r:id="rId138"/>
-    <hyperlink ref="C82" r:id="rId139"/>
-    <hyperlink ref="E83" r:id="rId140"/>
-    <hyperlink ref="C83" r:id="rId141"/>
-    <hyperlink ref="C78" r:id="rId142"/>
-    <hyperlink ref="E84" r:id="rId143"/>
-    <hyperlink ref="C84" r:id="rId144"/>
-    <hyperlink ref="E85" r:id="rId145"/>
-    <hyperlink ref="C85" r:id="rId146"/>
-    <hyperlink ref="E86" r:id="rId147"/>
-    <hyperlink ref="E87" r:id="rId148"/>
-    <hyperlink ref="C87" r:id="rId149"/>
-    <hyperlink ref="E88" r:id="rId150"/>
-    <hyperlink ref="C88" r:id="rId151"/>
-    <hyperlink ref="E89" r:id="rId152"/>
-    <hyperlink ref="C89" r:id="rId153"/>
-    <hyperlink ref="E90" r:id="rId154"/>
-    <hyperlink ref="C90" r:id="rId155"/>
-    <hyperlink ref="C86" r:id="rId156"/>
-    <hyperlink ref="E91" r:id="rId157"/>
-    <hyperlink ref="C91" r:id="rId158"/>
-    <hyperlink ref="E92" r:id="rId159"/>
-    <hyperlink ref="C92" r:id="rId160"/>
-    <hyperlink ref="E93" r:id="rId161"/>
-    <hyperlink ref="E94" r:id="rId162"/>
-    <hyperlink ref="C94" r:id="rId163"/>
-    <hyperlink ref="E95" r:id="rId164"/>
-    <hyperlink ref="C95" r:id="rId165"/>
-    <hyperlink ref="E96" r:id="rId166"/>
-    <hyperlink ref="C96" r:id="rId167"/>
-    <hyperlink ref="E97" r:id="rId168"/>
-    <hyperlink ref="C97" r:id="rId169"/>
-    <hyperlink ref="C93" r:id="rId170"/>
-    <hyperlink ref="E98" r:id="rId171"/>
-    <hyperlink ref="C98" r:id="rId172"/>
-    <hyperlink ref="E99" r:id="rId173"/>
-    <hyperlink ref="C99" r:id="rId174"/>
-    <hyperlink ref="E100" r:id="rId175"/>
-    <hyperlink ref="E101" r:id="rId176"/>
-    <hyperlink ref="C101" r:id="rId177"/>
-    <hyperlink ref="E102" r:id="rId178"/>
-    <hyperlink ref="C102" r:id="rId179"/>
-    <hyperlink ref="E103" r:id="rId180"/>
-    <hyperlink ref="C103" r:id="rId181"/>
-    <hyperlink ref="E104" r:id="rId182"/>
-    <hyperlink ref="C104" r:id="rId183"/>
-    <hyperlink ref="C100" r:id="rId184"/>
-    <hyperlink ref="E105" r:id="rId185"/>
-    <hyperlink ref="C105" r:id="rId186"/>
-    <hyperlink ref="C106" r:id="rId187" display="http://172.20.92.19/Login/LogOn?ReturnUrl=%2f"/>
-    <hyperlink ref="E106" r:id="rId188"/>
+    <hyperlink ref="E30" r:id="rId33"/>
+    <hyperlink ref="C30" r:id="rId34"/>
+    <hyperlink ref="E31" r:id="rId35"/>
+    <hyperlink ref="C31" r:id="rId36"/>
+    <hyperlink ref="E32" r:id="rId37"/>
+    <hyperlink ref="C32" r:id="rId38"/>
+    <hyperlink ref="E33" r:id="rId39"/>
+    <hyperlink ref="C33" r:id="rId40"/>
+    <hyperlink ref="E34" r:id="rId41"/>
+    <hyperlink ref="C34" r:id="rId42"/>
+    <hyperlink ref="E35" r:id="rId43"/>
+    <hyperlink ref="C35" r:id="rId44"/>
+    <hyperlink ref="E36" r:id="rId45"/>
+    <hyperlink ref="C36" r:id="rId46"/>
+    <hyperlink ref="E37" r:id="rId47"/>
+    <hyperlink ref="E38" r:id="rId48"/>
+    <hyperlink ref="C38" r:id="rId49"/>
+    <hyperlink ref="E39" r:id="rId50"/>
+    <hyperlink ref="C39" r:id="rId51"/>
+    <hyperlink ref="E40" r:id="rId52"/>
+    <hyperlink ref="C40" r:id="rId53"/>
+    <hyperlink ref="E41" r:id="rId54"/>
+    <hyperlink ref="C41" r:id="rId55"/>
+    <hyperlink ref="E42" r:id="rId56"/>
+    <hyperlink ref="C42" r:id="rId57"/>
+    <hyperlink ref="C37" r:id="rId58"/>
+    <hyperlink ref="E43" r:id="rId59"/>
+    <hyperlink ref="C43" r:id="rId60"/>
+    <hyperlink ref="E44" r:id="rId61"/>
+    <hyperlink ref="C44" r:id="rId62"/>
+    <hyperlink ref="E45" r:id="rId63"/>
+    <hyperlink ref="C45" r:id="rId64"/>
+    <hyperlink ref="E46" r:id="rId65"/>
+    <hyperlink ref="C46" r:id="rId66"/>
+    <hyperlink ref="E47" r:id="rId67"/>
+    <hyperlink ref="C47" r:id="rId68"/>
+    <hyperlink ref="E48" r:id="rId69"/>
+    <hyperlink ref="C48" r:id="rId70"/>
+    <hyperlink ref="E49" r:id="rId71"/>
+    <hyperlink ref="C49" r:id="rId72"/>
+    <hyperlink ref="E50" r:id="rId73"/>
+    <hyperlink ref="C50" r:id="rId74"/>
+    <hyperlink ref="E51" r:id="rId75"/>
+    <hyperlink ref="E52" r:id="rId76"/>
+    <hyperlink ref="C52" r:id="rId77"/>
+    <hyperlink ref="E53" r:id="rId78"/>
+    <hyperlink ref="C53" r:id="rId79"/>
+    <hyperlink ref="E54" r:id="rId80"/>
+    <hyperlink ref="C54" r:id="rId81"/>
+    <hyperlink ref="E55" r:id="rId82"/>
+    <hyperlink ref="C55" r:id="rId83"/>
+    <hyperlink ref="E56" r:id="rId84"/>
+    <hyperlink ref="C56" r:id="rId85"/>
+    <hyperlink ref="C51" r:id="rId86"/>
+    <hyperlink ref="E57" r:id="rId87"/>
+    <hyperlink ref="C57" r:id="rId88"/>
+    <hyperlink ref="E58" r:id="rId89"/>
+    <hyperlink ref="E59" r:id="rId90"/>
+    <hyperlink ref="C59" r:id="rId91"/>
+    <hyperlink ref="E60" r:id="rId92"/>
+    <hyperlink ref="C60" r:id="rId93"/>
+    <hyperlink ref="E61" r:id="rId94"/>
+    <hyperlink ref="C61" r:id="rId95"/>
+    <hyperlink ref="E62" r:id="rId96"/>
+    <hyperlink ref="C62" r:id="rId97"/>
+    <hyperlink ref="E63" r:id="rId98"/>
+    <hyperlink ref="C63" r:id="rId99"/>
+    <hyperlink ref="C58" r:id="rId100"/>
+    <hyperlink ref="E64" r:id="rId101"/>
+    <hyperlink ref="C64" r:id="rId102"/>
+    <hyperlink ref="E65" r:id="rId103"/>
+    <hyperlink ref="E66" r:id="rId104"/>
+    <hyperlink ref="C66" r:id="rId105"/>
+    <hyperlink ref="E67" r:id="rId106"/>
+    <hyperlink ref="C67" r:id="rId107"/>
+    <hyperlink ref="E68" r:id="rId108"/>
+    <hyperlink ref="C68" r:id="rId109"/>
+    <hyperlink ref="E69" r:id="rId110"/>
+    <hyperlink ref="C69" r:id="rId111"/>
+    <hyperlink ref="E70" r:id="rId112"/>
+    <hyperlink ref="C70" r:id="rId113"/>
+    <hyperlink ref="C65" r:id="rId114"/>
+    <hyperlink ref="E71" r:id="rId115"/>
+    <hyperlink ref="C71" r:id="rId116"/>
+    <hyperlink ref="E72" r:id="rId117"/>
+    <hyperlink ref="E73" r:id="rId118"/>
+    <hyperlink ref="C73" r:id="rId119"/>
+    <hyperlink ref="E74" r:id="rId120"/>
+    <hyperlink ref="C74" r:id="rId121"/>
+    <hyperlink ref="E75" r:id="rId122"/>
+    <hyperlink ref="C75" r:id="rId123"/>
+    <hyperlink ref="E76" r:id="rId124"/>
+    <hyperlink ref="C76" r:id="rId125"/>
+    <hyperlink ref="E77" r:id="rId126"/>
+    <hyperlink ref="C77" r:id="rId127"/>
+    <hyperlink ref="C72" r:id="rId128"/>
+    <hyperlink ref="E78" r:id="rId129"/>
+    <hyperlink ref="C78" r:id="rId130"/>
+    <hyperlink ref="E79" r:id="rId131"/>
+    <hyperlink ref="E80" r:id="rId132"/>
+    <hyperlink ref="C80" r:id="rId133"/>
+    <hyperlink ref="E81" r:id="rId134"/>
+    <hyperlink ref="C81" r:id="rId135"/>
+    <hyperlink ref="E82" r:id="rId136"/>
+    <hyperlink ref="C82" r:id="rId137"/>
+    <hyperlink ref="E83" r:id="rId138"/>
+    <hyperlink ref="C83" r:id="rId139"/>
+    <hyperlink ref="E84" r:id="rId140"/>
+    <hyperlink ref="C84" r:id="rId141"/>
+    <hyperlink ref="C79" r:id="rId142"/>
+    <hyperlink ref="E85" r:id="rId143"/>
+    <hyperlink ref="C85" r:id="rId144"/>
+    <hyperlink ref="E86" r:id="rId145"/>
+    <hyperlink ref="C86" r:id="rId146"/>
+    <hyperlink ref="E87" r:id="rId147"/>
+    <hyperlink ref="E88" r:id="rId148"/>
+    <hyperlink ref="C88" r:id="rId149"/>
+    <hyperlink ref="E89" r:id="rId150"/>
+    <hyperlink ref="C89" r:id="rId151"/>
+    <hyperlink ref="E90" r:id="rId152"/>
+    <hyperlink ref="C90" r:id="rId153"/>
+    <hyperlink ref="E91" r:id="rId154"/>
+    <hyperlink ref="C91" r:id="rId155"/>
+    <hyperlink ref="C87" r:id="rId156"/>
+    <hyperlink ref="E92" r:id="rId157"/>
+    <hyperlink ref="C92" r:id="rId158"/>
+    <hyperlink ref="E93" r:id="rId159"/>
+    <hyperlink ref="C93" r:id="rId160"/>
+    <hyperlink ref="E94" r:id="rId161"/>
+    <hyperlink ref="E95" r:id="rId162"/>
+    <hyperlink ref="C95" r:id="rId163"/>
+    <hyperlink ref="E96" r:id="rId164"/>
+    <hyperlink ref="C96" r:id="rId165"/>
+    <hyperlink ref="E97" r:id="rId166"/>
+    <hyperlink ref="C97" r:id="rId167"/>
+    <hyperlink ref="E98" r:id="rId168"/>
+    <hyperlink ref="C98" r:id="rId169"/>
+    <hyperlink ref="C94" r:id="rId170"/>
+    <hyperlink ref="E99" r:id="rId171"/>
+    <hyperlink ref="C99" r:id="rId172"/>
+    <hyperlink ref="E100" r:id="rId173"/>
+    <hyperlink ref="C100" r:id="rId174"/>
+    <hyperlink ref="E101" r:id="rId175"/>
+    <hyperlink ref="E102" r:id="rId176"/>
+    <hyperlink ref="C102" r:id="rId177"/>
+    <hyperlink ref="E103" r:id="rId178"/>
+    <hyperlink ref="C103" r:id="rId179"/>
+    <hyperlink ref="E104" r:id="rId180"/>
+    <hyperlink ref="C104" r:id="rId181"/>
+    <hyperlink ref="E105" r:id="rId182"/>
+    <hyperlink ref="C105" r:id="rId183"/>
+    <hyperlink ref="C101" r:id="rId184"/>
+    <hyperlink ref="E106" r:id="rId185"/>
+    <hyperlink ref="C106" r:id="rId186"/>
+    <hyperlink ref="C107" r:id="rId187" display="http://172.20.92.19/Login/LogOn?ReturnUrl=%2f"/>
+    <hyperlink ref="E107" r:id="rId188"/>
     <hyperlink ref="C25" r:id="rId189" display="http://172.20.92.19/Login/LogOn?ReturnUrl=%2f"/>
     <hyperlink ref="E25" r:id="rId190"/>
     <hyperlink ref="E24" r:id="rId191"/>
     <hyperlink ref="C24" r:id="rId192"/>
     <hyperlink ref="E7" r:id="rId193"/>
     <hyperlink ref="C7" r:id="rId194"/>
-    <hyperlink ref="E107" r:id="rId195"/>
-    <hyperlink ref="C107" r:id="rId196"/>
-    <hyperlink ref="E108" r:id="rId197"/>
-    <hyperlink ref="C108" r:id="rId198"/>
+    <hyperlink ref="E108" r:id="rId195"/>
+    <hyperlink ref="C108" r:id="rId196"/>
+    <hyperlink ref="E109" r:id="rId197"/>
+    <hyperlink ref="C109" r:id="rId198"/>
     <hyperlink ref="C27" r:id="rId199" display="http://172.20.92.19/Login/LogOn?ReturnUrl=%2f"/>
     <hyperlink ref="E27" r:id="rId200"/>
     <hyperlink ref="C26" r:id="rId201" display="http://172.20.92.19/Login/LogOn?ReturnUrl=%2f"/>
     <hyperlink ref="E26" r:id="rId202"/>
     <hyperlink ref="C28" r:id="rId203" display="http://172.20.92.19/Login/LogOn?ReturnUrl=%2f"/>
     <hyperlink ref="E28" r:id="rId204"/>
+    <hyperlink ref="C29" r:id="rId205" display="http://172.20.92.19/Login/LogOn?ReturnUrl=%2f"/>
+    <hyperlink ref="E29" r:id="rId206"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId205"/>
+  <pageSetup orientation="portrait" r:id="rId207"/>
 </worksheet>
 </file>
 
@@ -7674,7 +7882,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7710,7 +7918,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7724,7 +7932,7 @@
         <v>103</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -7738,7 +7946,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7752,7 +7960,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7766,7 +7974,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7780,14 +7988,16 @@
         <v>103</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="5" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -7811,7 +8021,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7853,7 +8063,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7870,7 +8080,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7887,7 +8097,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7904,7 +8114,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7921,7 +8131,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7938,7 +8148,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7946,7 +8156,9 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="5" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -7994,7 +8206,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8037,7 +8249,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -8047,7 +8259,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8056,7 +8268,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8065,7 +8277,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8074,7 +8286,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8083,7 +8295,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8091,7 +8303,9 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="5" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -8131,7 +8345,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8181,7 +8395,7 @@
         <v>136</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8199,7 +8413,7 @@
       </c>
       <c r="E3" s="40"/>
       <c r="F3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8219,7 +8433,7 @@
         <v>136</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8237,7 +8451,7 @@
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8257,7 +8471,7 @@
         <v>136</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8275,7 +8489,7 @@
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8284,7 +8498,9 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -8405,7 +8621,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G7"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8461,7 +8677,7 @@
         <v>136</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8482,7 +8698,7 @@
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -8505,7 +8721,7 @@
         <v>136</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -8526,7 +8742,7 @@
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -8549,7 +8765,7 @@
         <v>136</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -8570,7 +8786,7 @@
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8580,7 +8796,9 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="5" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -8625,7 +8843,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8661,7 +8879,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8669,7 +8887,7 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8677,7 +8895,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8685,7 +8903,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8693,7 +8911,7 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8701,14 +8919,16 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="5" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -8744,7 +8964,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8778,7 +8998,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8792,7 +9012,7 @@
         <v>103</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8806,7 +9026,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8820,7 +9040,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8834,7 +9054,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8848,14 +9068,16 @@
         <v>103</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="5" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -8891,7 +9113,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8931,7 +9153,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8948,7 +9170,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8965,7 +9187,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8982,7 +9204,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8999,7 +9221,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -9016,7 +9238,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -9024,7 +9246,9 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="5" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -9436,7 +9660,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9491,7 +9715,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>108</v>
@@ -9509,7 +9733,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -9521,7 +9745,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -9533,7 +9757,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -9545,7 +9769,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -9557,7 +9781,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -9568,7 +9792,9 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -9727,7 +9953,7 @@
   <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9801,7 +10027,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>108</v>
@@ -9847,7 +10073,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>108</v>
@@ -9893,7 +10119,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>108</v>
@@ -9939,7 +10165,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>108</v>
@@ -9985,7 +10211,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>108</v>
@@ -10031,7 +10257,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>108</v>
@@ -10068,7 +10294,9 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -10223,7 +10451,7 @@
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10304,7 +10532,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>108</v>
@@ -10353,7 +10581,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>108</v>
@@ -10402,7 +10630,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>108</v>
@@ -10451,7 +10679,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>108</v>
@@ -10500,7 +10728,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>108</v>
@@ -10549,7 +10777,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>108</v>
@@ -10587,7 +10815,9 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -10762,10 +10992,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10776,177 +11006,293 @@
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>115</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="F2" s="19">
-        <v>200</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="C2" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="F2" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="H2" s="19">
+        <v>201</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I2" s="19">
-        <v>200</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="K2" s="19">
+        <v>201</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>115</v>
       </c>
       <c r="B3" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="F3" s="21">
+        <v>319</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="H3" s="21">
         <v>300</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="I3" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="J3" s="51" t="s">
+        <v>321</v>
+      </c>
+      <c r="K3" s="21">
+        <v>300</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="19">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="H4" s="19">
+        <v>200</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="21">
+      <c r="K4" s="19">
+        <v>200</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="21">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="H5" s="21">
         <v>300</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="I5" s="20" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5" t="s">
+      <c r="J5" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="21">
+        <v>300</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="19">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="H6" s="19">
+        <v>200</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="19">
+        <v>200</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="21">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="H7" s="21">
+        <v>300</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" s="21">
+        <v>300</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -10957,8 +11303,10 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -10969,8 +11317,10 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -10981,8 +11331,10 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -10993,9 +11345,12 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11004,7 +11359,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11066,7 +11421,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="F2" s="19">
         <v>200</v>
@@ -11098,7 +11453,7 @@
         <v>213</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="F3" s="21">
         <v>300</v>
@@ -11122,7 +11477,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -11136,7 +11491,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -11150,7 +11505,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -11164,7 +11519,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -11177,7 +11532,9 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -11242,7 +11599,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11304,7 +11661,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="F2" s="19">
         <v>200</v>
@@ -11336,7 +11693,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="F3" s="21">
         <v>3</v>
@@ -11368,7 +11725,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="F4" s="19">
         <v>200</v>
@@ -11400,7 +11757,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="F5" s="21">
         <v>3</v>
@@ -11432,7 +11789,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="F6" s="19">
         <v>200</v>
@@ -11464,7 +11821,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="F7" s="21">
         <v>3</v>
@@ -11486,7 +11843,9 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -11548,10 +11907,10 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11559,8 +11918,8 @@
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
@@ -11581,7 +11940,7 @@
       <c r="D1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="88" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="17" t="s">
@@ -11620,7 +11979,7 @@
         <v>103</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="G2" s="19">
         <v>5</v>
@@ -11655,7 +12014,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="G3" s="21">
         <v>3</v>
@@ -11690,7 +12049,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="G4" s="19">
         <v>6</v>
@@ -11725,7 +12084,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="G5" s="21">
         <v>3</v>
@@ -11760,7 +12119,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="G6" s="19">
         <v>8</v>
@@ -11795,7 +12154,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="G7" s="21">
         <v>3</v>
@@ -11818,8 +12177,10 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -11881,26 +12242,38 @@
     <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="46"/>
     </row>
-    <row r="17" spans="3:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="44"/>
     </row>
-    <row r="18" spans="3:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="45"/>
     </row>
-    <row r="19" spans="3:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="44"/>
     </row>
-    <row r="20" spans="3:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="45"/>
-    </row>
-    <row r="21" spans="3:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="3:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="44"/>
-    </row>
-    <row r="22" spans="3:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="3:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="45"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="3:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="3:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="3:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11909,7 +12282,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11962,7 +12335,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E2" s="21">
         <v>3</v>
@@ -11991,7 +12364,7 @@
         <v>103</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="E3" s="21">
         <v>4</v>
@@ -12020,7 +12393,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="E4" s="21">
         <v>5</v>
@@ -12049,7 +12422,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="E5" s="21">
         <v>6</v>
@@ -12078,7 +12451,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="E6" s="21">
         <v>7</v>
@@ -12107,7 +12480,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="E7" s="21">
         <v>8</v>
@@ -12129,7 +12502,9 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -12190,7 +12565,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12251,7 +12626,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="F2" s="19">
         <v>5</v>
@@ -12283,7 +12658,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="F3" s="21">
         <v>6</v>
@@ -12315,7 +12690,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="F4" s="19">
         <v>7</v>
@@ -12347,7 +12722,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="F5" s="21">
         <v>8</v>
@@ -12379,7 +12754,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="F6" s="19">
         <v>9</v>
@@ -12411,7 +12786,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="F7" s="21">
         <v>10</v>
@@ -12434,7 +12809,9 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -12499,7 +12876,7 @@
   <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12619,7 +12996,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>82</v>
@@ -12628,7 +13005,7 @@
         <v>84</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>86</v>
@@ -13009,8 +13386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13128,7 +13505,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>211</v>
@@ -13160,7 +13537,7 @@
       </c>
       <c r="N2" s="11" t="str">
         <f>C2</f>
-        <v>L782</v>
+        <v>L797</v>
       </c>
       <c r="O2" s="11">
         <v>1000000</v>
@@ -13176,7 +13553,7 @@
       </c>
       <c r="S2" s="11" t="str">
         <f>C2</f>
-        <v>L782</v>
+        <v>L797</v>
       </c>
       <c r="T2" s="11" t="s">
         <v>224</v>
@@ -13204,8 +13581,6 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -13242,8 +13617,12 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="H4">
+        <v>250655</v>
+      </c>
+      <c r="I4">
+        <v>62690938091</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -13531,7 +13910,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13615,7 +13994,7 @@
         <v>276</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>45</v>
@@ -13644,7 +14023,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>41</v>
@@ -13656,7 +14035,7 @@
         <v>136</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>45</v>
@@ -13685,7 +14064,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>41</v>
@@ -13698,7 +14077,7 @@
         <v>136</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>45</v>
@@ -13727,7 +14106,7 @@
         <v>36</v>
       </c>
       <c r="B5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>42</v>
@@ -13738,7 +14117,7 @@
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
       <c r="G5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>45</v>
@@ -13767,7 +14146,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>41</v>
@@ -13780,7 +14159,7 @@
         <v>136</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>45</v>
@@ -13809,7 +14188,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>42</v>
@@ -13820,7 +14199,7 @@
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>45</v>
@@ -13845,18 +14224,46 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="A8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E8" s="51"/>
+      <c r="F8" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="7">
+        <v>62239543269</v>
+      </c>
+      <c r="J8" s="7">
+        <v>255005</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="7">
+        <v>20000</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -13993,9 +14400,10 @@
     <hyperlink ref="H6" r:id="rId4" display="P@ssw0rd"/>
     <hyperlink ref="H7" r:id="rId5" display="P@ssw0rd"/>
     <hyperlink ref="H3" r:id="rId6" display="P@ssw0rd"/>
+    <hyperlink ref="H8" r:id="rId7" display="P@ssw0rd"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -14004,7 +14412,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14081,16 +14489,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="E2" s="39" t="s">
         <v>190</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>224</v>
@@ -14120,7 +14528,7 @@
         <v>192</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14302,7 +14710,7 @@
   <dimension ref="A1:BK4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14572,8 +14980,8 @@
       <c r="D2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="26">
-        <v>12</v>
+      <c r="E2" s="26" t="s">
+        <v>344</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>64</v>
@@ -14609,7 +15017,7 @@
         <v>78</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="R2" s="11" t="s">
         <v>82</v>
@@ -14618,7 +15026,7 @@
         <v>84</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>86</v>
@@ -14763,8 +15171,8 @@
       <c r="D3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="26">
-        <v>14</v>
+      <c r="E3" s="26" t="s">
+        <v>345</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>64</v>
@@ -14800,7 +15208,7 @@
         <v>78</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="R3" s="11" t="s">
         <v>82</v>
@@ -14809,7 +15217,7 @@
         <v>84</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>86</v>
@@ -14906,7 +15314,7 @@
       </c>
       <c r="AZ3" s="72" t="str">
         <f>Q3</f>
-        <v>Test10_Entityaa14</v>
+        <v>Test11_Entityaa16</v>
       </c>
       <c r="BA3" s="73" t="s">
         <v>109</v>
@@ -15049,7 +15457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+    <sheetView topLeftCell="AO1" workbookViewId="0">
       <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
@@ -15284,7 +15692,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>64</v>
@@ -15398,7 +15806,7 @@
         <v>105</v>
       </c>
       <c r="AQ2" s="7" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="AR2" s="51" t="s">
         <v>247</v>
@@ -15786,7 +16194,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15804,7 +16212,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D1" s="17"/>
     </row>
@@ -15816,7 +16224,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D2" s="20"/>
     </row>
@@ -15912,6 +16320,170 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="I2" s="91" t="s">
+        <v>337</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="21">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <v>2</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="21">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21">
+        <v>3</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21">
+        <v>4</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
+        <v>5</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15920,7 +16492,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15997,7 +16569,7 @@
         <v>136</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>45</v>
@@ -16036,7 +16608,7 @@
       </c>
       <c r="E3" s="40"/>
       <c r="F3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>45</v>
@@ -16077,7 +16649,7 @@
         <v>136</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>45</v>
@@ -16116,7 +16688,7 @@
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -16157,7 +16729,7 @@
         <v>136</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>45</v>
@@ -16196,7 +16768,7 @@
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>45</v>
@@ -16226,7 +16798,9 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -16283,7 +16857,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G7"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16294,7 +16868,7 @@
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -16367,7 +16941,7 @@
         <v>136</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>45</v>
@@ -16409,7 +16983,7 @@
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>45</v>
@@ -16453,7 +17027,7 @@
         <v>136</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>45</v>
@@ -16495,7 +17069,7 @@
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>45</v>
@@ -16539,7 +17113,7 @@
         <v>136</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>45</v>
@@ -16581,7 +17155,7 @@
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>45</v>
@@ -16612,7 +17186,9 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -16671,7 +17247,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16741,7 +17317,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
@@ -16779,7 +17355,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>45</v>
@@ -16809,7 +17385,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -16825,7 +17401,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -16841,7 +17417,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -16857,7 +17433,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -16872,7 +17448,9 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -16923,7 +17501,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16986,7 +17564,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>45</v>
@@ -17024,7 +17602,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>45</v>
@@ -17062,7 +17640,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>45</v>
@@ -17100,7 +17678,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>45</v>
@@ -17138,7 +17716,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>45</v>
@@ -17176,7 +17754,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>45</v>
@@ -17205,7 +17783,9 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -17260,7 +17840,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17329,7 +17909,7 @@
         <v>103</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>45</v>
@@ -17370,7 +17950,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>45</v>
@@ -17411,7 +17991,7 @@
         <v>103</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>45</v>
@@ -17452,7 +18032,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -17493,7 +18073,7 @@
         <v>103</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>45</v>
@@ -17534,7 +18114,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>45</v>
@@ -17564,7 +18144,9 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>

--- a/Test data/TestData.xlsx
+++ b/Test data/TestData.xlsx
@@ -52,13 +52,14 @@
     <sheet name="B2BSetup" sheetId="55" r:id="rId43"/>
     <sheet name="ACBEbtryClass" sheetId="56" r:id="rId44"/>
     <sheet name="Sheet1" sheetId="57" r:id="rId45"/>
+    <sheet name="Sheet2" sheetId="58" r:id="rId46"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3051" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="421">
   <si>
     <t>Password</t>
   </si>
@@ -1239,9 +1240,6 @@
     <t>User015</t>
   </si>
   <si>
-    <t>2964/214410/01</t>
-  </si>
-  <si>
     <t>Collections Xchange0002</t>
   </si>
   <si>
@@ -1266,7 +1264,64 @@
     <t>No collections adding</t>
   </si>
   <si>
-    <t>NewEntity0065</t>
+    <t>Environment2</t>
+  </si>
+  <si>
+    <t>Xcelerate_SMI-31249</t>
+  </si>
+  <si>
+    <t>ISO QA Description</t>
+  </si>
+  <si>
+    <t>AAb32</t>
+  </si>
+  <si>
+    <t>AAb33</t>
+  </si>
+  <si>
+    <t>25-05-2017</t>
+  </si>
+  <si>
+    <t>2964/214184/20</t>
+  </si>
+  <si>
+    <t>NewEntity021</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>creating batch file</t>
+  </si>
+  <si>
+    <t>Batch processed</t>
+  </si>
+  <si>
+    <t>Batch file created</t>
+  </si>
+  <si>
+    <t>Batch sent</t>
+  </si>
+  <si>
+    <t>op2</t>
+  </si>
+  <si>
+    <t>op3</t>
+  </si>
+  <si>
+    <t>op1</t>
+  </si>
+  <si>
+    <t>op4</t>
+  </si>
+  <si>
+    <t>User022</t>
+  </si>
+  <si>
+    <t>NewEntity022</t>
+  </si>
+  <si>
+    <t>2964/214422/01</t>
   </si>
 </sst>
 </file>
@@ -5596,8 +5651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5610,6 +5665,7 @@
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5629,12 +5685,15 @@
         <v>0</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>176</v>
+        <v>401</v>
       </c>
       <c r="G1" s="59" t="s">
         <v>177</v>
       </c>
       <c r="H1" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="59" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5663,6 +5722,7 @@
       <c r="H2" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -5689,6 +5749,7 @@
       <c r="H3" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -5709,6 +5770,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
       <c r="K4">
         <v>1978</v>
       </c>
@@ -5732,6 +5794,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
       <c r="L5">
         <v>1</v>
       </c>
@@ -5761,6 +5824,7 @@
       <c r="H6" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -5787,6 +5851,7 @@
       <c r="H7" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -5811,6 +5876,7 @@
       <c r="H8" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -5831,6 +5897,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -5851,6 +5918,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -5871,6 +5939,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -5891,6 +5960,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -5911,6 +5981,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -5931,6 +6002,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -5951,6 +6023,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -5971,8 +6044,9 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>126</v>
       </c>
@@ -5991,8 +6065,9 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>128</v>
       </c>
@@ -6011,8 +6086,9 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>129</v>
       </c>
@@ -6031,8 +6107,9 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>130</v>
       </c>
@@ -6051,8 +6128,9 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>131</v>
       </c>
@@ -6071,8 +6149,9 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>132</v>
       </c>
@@ -6093,8 +6172,9 @@
         <v>200</v>
       </c>
       <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>137</v>
       </c>
@@ -6113,8 +6193,9 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>337</v>
       </c>
@@ -6139,8 +6220,9 @@
       <c r="H24" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>201</v>
       </c>
@@ -6165,8 +6247,9 @@
       <c r="H25" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>293</v>
       </c>
@@ -6191,8 +6274,9 @@
       <c r="H26" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>292</v>
       </c>
@@ -6215,8 +6299,9 @@
       <c r="H27" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>336</v>
       </c>
@@ -6235,8 +6320,9 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>338</v>
       </c>
@@ -6255,8 +6341,9 @@
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>347</v>
       </c>
@@ -6279,8 +6366,11 @@
       <c r="H30" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>144</v>
       </c>
@@ -6299,8 +6389,9 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>144</v>
       </c>
@@ -6319,6 +6410,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
@@ -6339,6 +6431,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
@@ -6359,6 +6452,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
@@ -6379,6 +6473,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
@@ -6399,6 +6494,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
@@ -6419,6 +6515,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
@@ -6439,6 +6536,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -6459,6 +6557,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
@@ -6479,6 +6578,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
@@ -6499,6 +6599,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -6519,6 +6620,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
@@ -6539,6 +6641,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
@@ -6559,6 +6662,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
       <c r="K44">
         <v>2017</v>
       </c>
@@ -6585,6 +6689,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
       <c r="K45">
         <v>2018</v>
       </c>
@@ -6608,6 +6713,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
@@ -6628,6 +6734,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
@@ -6648,8 +6755,9 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>148</v>
       </c>
@@ -6668,8 +6776,9 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>148</v>
       </c>
@@ -6688,8 +6797,9 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>147</v>
       </c>
@@ -6708,8 +6818,9 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>150</v>
       </c>
@@ -6728,8 +6839,9 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>150</v>
       </c>
@@ -6748,8 +6860,9 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>150</v>
       </c>
@@ -6768,8 +6881,9 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>150</v>
       </c>
@@ -6788,8 +6902,9 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>150</v>
       </c>
@@ -6808,8 +6923,9 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>150</v>
       </c>
@@ -6828,8 +6944,9 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="7"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>149</v>
       </c>
@@ -6848,8 +6965,9 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="7"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>157</v>
       </c>
@@ -6868,8 +6986,9 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="7"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>157</v>
       </c>
@@ -6888,8 +7007,9 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>157</v>
       </c>
@@ -6908,8 +7028,9 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>157</v>
       </c>
@@ -6928,8 +7049,9 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>157</v>
       </c>
@@ -6948,8 +7070,9 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>157</v>
       </c>
@@ -6968,8 +7091,9 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>156</v>
       </c>
@@ -6988,8 +7112,9 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>155</v>
       </c>
@@ -7008,8 +7133,9 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>155</v>
       </c>
@@ -7028,8 +7154,9 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>155</v>
       </c>
@@ -7048,8 +7175,9 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="7"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>155</v>
       </c>
@@ -7068,8 +7196,9 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>155</v>
       </c>
@@ -7088,8 +7217,9 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="7"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>155</v>
       </c>
@@ -7108,8 +7238,9 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>154</v>
       </c>
@@ -7128,8 +7259,9 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="7"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>165</v>
       </c>
@@ -7148,8 +7280,9 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="7"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>165</v>
       </c>
@@ -7168,8 +7301,9 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="7"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>165</v>
       </c>
@@ -7188,8 +7322,9 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="7"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>165</v>
       </c>
@@ -7208,8 +7343,9 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="7"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>165</v>
       </c>
@@ -7228,8 +7364,9 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="7"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>165</v>
       </c>
@@ -7248,8 +7385,9 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="7"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>164</v>
       </c>
@@ -7268,8 +7406,9 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="7"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>163</v>
       </c>
@@ -7288,8 +7427,9 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="7"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>163</v>
       </c>
@@ -7308,8 +7448,9 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="7"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>163</v>
       </c>
@@ -7328,8 +7469,9 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="7"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>163</v>
       </c>
@@ -7348,8 +7490,9 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="7"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>163</v>
       </c>
@@ -7368,8 +7511,9 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="7"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>163</v>
       </c>
@@ -7388,8 +7532,9 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="7"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>162</v>
       </c>
@@ -7408,8 +7553,9 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="7"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>161</v>
       </c>
@@ -7428,8 +7574,9 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="7"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>161</v>
       </c>
@@ -7448,8 +7595,9 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="7"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>161</v>
       </c>
@@ -7468,8 +7616,9 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="7"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>161</v>
       </c>
@@ -7488,8 +7637,9 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="7"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>161</v>
       </c>
@@ -7508,8 +7658,9 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="7"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>161</v>
       </c>
@@ -7528,8 +7679,9 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="7"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>160</v>
       </c>
@@ -7548,8 +7700,9 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="7"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>159</v>
       </c>
@@ -7568,8 +7721,9 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="7"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>159</v>
       </c>
@@ -7588,8 +7742,9 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="7"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>159</v>
       </c>
@@ -7608,8 +7763,9 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" s="7"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>159</v>
       </c>
@@ -7628,8 +7784,9 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" s="7"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>159</v>
       </c>
@@ -7648,8 +7805,9 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" s="7"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>159</v>
       </c>
@@ -7668,8 +7826,9 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" s="7"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>158</v>
       </c>
@@ -7688,8 +7847,9 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" s="7"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>153</v>
       </c>
@@ -7708,8 +7868,9 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" s="7"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>153</v>
       </c>
@@ -7728,8 +7889,9 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" s="7"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>153</v>
       </c>
@@ -7748,8 +7910,9 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" s="7"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>153</v>
       </c>
@@ -7768,8 +7931,9 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" s="7"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>153</v>
       </c>
@@ -7788,8 +7952,9 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" s="7"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>153</v>
       </c>
@@ -7808,8 +7973,9 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106" s="7"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>152</v>
       </c>
@@ -7828,8 +7994,9 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107" s="7"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="38" t="s">
         <v>189</v>
       </c>
@@ -7854,8 +8021,9 @@
       <c r="H108" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" s="7"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>233</v>
       </c>
@@ -7878,8 +8046,9 @@
       <c r="H109" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109" s="7"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>233</v>
       </c>
@@ -7902,6 +8071,7 @@
       <c r="H110" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="I110" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13643,8 +13813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14998,8 +15168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15091,6 +15261,7 @@
     <col min="96" max="96" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="17" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="14.5703125" customWidth="1"/>
+    <col min="106" max="106" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:112" s="99" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15445,7 +15616,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>341</v>
+        <v>405</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>64</v>
@@ -15669,7 +15840,7 @@
         <v>80</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>342</v>
+        <v>404</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>64</v>
@@ -16007,9 +16178,14 @@
       <c r="CR4" s="7"/>
     </row>
     <row r="5" spans="1:112" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="Q6" s="52" t="s">
+        <v>408</v>
+      </c>
+    </row>
     <row r="7" spans="1:112" x14ac:dyDescent="0.25">
       <c r="Q7" s="52" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:112" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16062,7 +16238,7 @@
         <v>78</v>
       </c>
       <c r="Q8" s="52" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>82</v>
@@ -16071,7 +16247,7 @@
         <v>84</v>
       </c>
       <c r="T8" s="52" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>86</v>
@@ -16145,14 +16321,14 @@
       <c r="AR8" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="AS8" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="AT8" s="7">
-        <v>62239543269</v>
-      </c>
-      <c r="AU8" s="7" t="s">
-        <v>108</v>
+      <c r="AS8" s="99" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT8" s="99">
+        <v>62006676772</v>
+      </c>
+      <c r="AU8" s="99" t="s">
+        <v>403</v>
       </c>
       <c r="AV8" s="39" t="s">
         <v>250</v>
@@ -16213,7 +16389,7 @@
         <v>190</v>
       </c>
       <c r="CV8" s="52" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="CW8" s="7" t="s">
         <v>386</v>
@@ -16230,8 +16406,8 @@
       <c r="DA8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="DB8" s="39" t="s">
-        <v>217</v>
+      <c r="DB8" s="99" t="s">
+        <v>403</v>
       </c>
       <c r="DC8">
         <v>16445</v>
@@ -16311,7 +16487,7 @@
         <v>84</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>346</v>
+        <v>407</v>
       </c>
       <c r="U9" s="11" t="s">
         <v>86</v>
@@ -16691,7 +16867,7 @@
         <v>80</v>
       </c>
       <c r="E11" s="107" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>348</v>
@@ -16950,10 +17126,10 @@
         <v>371</v>
       </c>
       <c r="CK11" s="19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="CL11" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="CM11" s="11" t="s">
         <v>225</v>
@@ -16968,7 +17144,7 @@
         <v>331</v>
       </c>
       <c r="CQ11" s="106" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="CR11" s="5" t="s">
         <v>390</v>
@@ -17097,10 +17273,10 @@
         <v>372</v>
       </c>
       <c r="CK12" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="CL12" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CM12" s="11" t="s">
         <v>225</v>
@@ -17115,7 +17291,7 @@
         <v>330</v>
       </c>
       <c r="CQ12" s="106" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="CR12" s="7"/>
       <c r="CS12" s="7"/>
@@ -17282,6 +17458,9 @@
       <c r="DH13" s="7"/>
     </row>
     <row r="14" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="E14" s="107" t="s">
+        <v>392</v>
+      </c>
       <c r="BL14" s="42"/>
       <c r="BM14" s="42"/>
       <c r="BN14" s="42"/>
@@ -17332,9 +17511,12 @@
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="CL20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="CW20" s="99"/>
+      <c r="CZ20" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="21" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
@@ -17350,6 +17532,9 @@
       <c r="CN21">
         <v>10.029999999999999</v>
       </c>
+      <c r="CZ21" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
@@ -17365,6 +17550,9 @@
       </c>
       <c r="CR22" s="99"/>
       <c r="CW22" s="99"/>
+      <c r="CZ22" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="23" spans="1:106" x14ac:dyDescent="0.25">
       <c r="CL23">
@@ -17375,6 +17563,9 @@
       </c>
       <c r="CU23" s="99"/>
       <c r="CY23" s="99"/>
+      <c r="CZ23" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="24" spans="1:106" x14ac:dyDescent="0.25">
       <c r="CJ24">
@@ -17386,6 +17577,9 @@
       </c>
       <c r="CN24">
         <v>10.039999999999999</v>
+      </c>
+      <c r="CZ24" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:106" x14ac:dyDescent="0.25">
@@ -18351,7 +18545,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J2"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18508,10 +18702,10 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CQ4"/>
+  <dimension ref="A1:CQ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19375,6 +19569,63 @@
       <c r="CP4" s="7"/>
       <c r="CQ4" s="7"/>
     </row>
+    <row r="18" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>2338.69</v>
+      </c>
+      <c r="N18">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="19" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>416</v>
+      </c>
+      <c r="G19">
+        <f>3*5725.5</f>
+        <v>17176.5</v>
+      </c>
+      <c r="N19">
+        <v>29666</v>
+      </c>
+      <c r="O19">
+        <v>-2419</v>
+      </c>
+    </row>
+    <row r="20" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G20">
+        <f>4294.13*3+16*242.9</f>
+        <v>16768.79</v>
+      </c>
+      <c r="N20">
+        <v>872000</v>
+      </c>
+    </row>
+    <row r="21" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>415</v>
+      </c>
+      <c r="G21">
+        <f>3339.88*3+16*477.13</f>
+        <v>17653.72</v>
+      </c>
+      <c r="I21">
+        <f>17176.5-16768.79</f>
+        <v>407.70999999999913</v>
+      </c>
+    </row>
+    <row r="22" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>417</v>
+      </c>
+      <c r="G22">
+        <f>1431.38*12</f>
+        <v>17176.560000000001</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1"/>
@@ -19382,6 +19633,288 @@
     <hyperlink ref="S2" r:id="rId3" display="P@ssw0rd"/>
     <hyperlink ref="S3" r:id="rId4" display="P@ssw0rd"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F4:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>17</v>
+      </c>
+      <c r="I20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>19</v>
+      </c>
+      <c r="I22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>21</v>
+      </c>
+      <c r="I24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>22</v>
+      </c>
+      <c r="I25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>23</v>
+      </c>
+      <c r="I26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>24</v>
+      </c>
+      <c r="I27">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Test data/TestData.xlsx
+++ b/Test data/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srinir.SOLARSYSTEM\Desktop\Seleniumworkspace\Xcelerate_Maven\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001169E3-7C16-4632-AEEE-CF83C769C6D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84910530-4DDC-43C2-A28A-C3D3AF8E2876}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,43 +16,43 @@
     <sheet name="Mercury" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
     <sheet name="story1" sheetId="53" r:id="rId3"/>
-    <sheet name="Dashboard" sheetId="3" r:id="rId4"/>
-    <sheet name="CollPeriodBalances_MCC" sheetId="4" r:id="rId5"/>
-    <sheet name="CollPeriodBalances_MCC_MUMD" sheetId="21" r:id="rId6"/>
-    <sheet name="CollPeriodBalances_MCC_SUMD" sheetId="22" r:id="rId7"/>
-    <sheet name="CollPeriodBalances_MCC_Ext" sheetId="15" r:id="rId8"/>
-    <sheet name="CollPeriodBalances_MCC_Ext_MUMD" sheetId="48" r:id="rId9"/>
-    <sheet name="CollPeriodBalances_MCC_Ext_SUMD" sheetId="47" r:id="rId10"/>
-    <sheet name="CollPeriodBalances_MCP" sheetId="5" r:id="rId11"/>
-    <sheet name="CollPeriodBalances_MCP_MUMD" sheetId="46" r:id="rId12"/>
-    <sheet name="CollPeriodBalances_MCP_SUMD" sheetId="51" r:id="rId13"/>
-    <sheet name="CollPeriodBalances_MCP_Ext" sheetId="16" r:id="rId14"/>
-    <sheet name="CollPeriodBalances_MCP_Ext_MUMD" sheetId="44" r:id="rId15"/>
-    <sheet name="CollPeriodBalances_MCP_Ext_SUMD" sheetId="43" r:id="rId16"/>
-    <sheet name="CollectionImport" sheetId="6" r:id="rId17"/>
-    <sheet name="CollectionImport_MUMD" sheetId="25" r:id="rId18"/>
-    <sheet name="CollectionImport_SUMD" sheetId="26" r:id="rId19"/>
-    <sheet name="CollectionImport_Ext" sheetId="17" r:id="rId20"/>
-    <sheet name="CollectionImport_Ext_MUMD" sheetId="40" r:id="rId21"/>
-    <sheet name="CollectionImport_Ext_SUMD" sheetId="39" r:id="rId22"/>
-    <sheet name="PaymentImport" sheetId="7" r:id="rId23"/>
-    <sheet name="PaymentImport_MUMD" sheetId="27" r:id="rId24"/>
-    <sheet name="PaymentImport_SUMD" sheetId="28" r:id="rId25"/>
-    <sheet name="PaymentImport_Ext" sheetId="18" r:id="rId26"/>
-    <sheet name="PaymentImport_Ext_MUMD" sheetId="36" r:id="rId27"/>
-    <sheet name="PaymentImport_Ext_SUMD" sheetId="35" r:id="rId28"/>
-    <sheet name="NewUser_creation" sheetId="9" r:id="rId29"/>
-    <sheet name="NominatedPayments" sheetId="11" r:id="rId30"/>
-    <sheet name="NominatedPayments_MUMD" sheetId="34" r:id="rId31"/>
-    <sheet name="NominatedPayments_SUMD" sheetId="33" r:id="rId32"/>
-    <sheet name="Journals" sheetId="12" r:id="rId33"/>
-    <sheet name="Journals_Ext" sheetId="19" r:id="rId34"/>
-    <sheet name="Journals_MUMD" sheetId="32" r:id="rId35"/>
-    <sheet name="Journals_SUMD" sheetId="31" r:id="rId36"/>
-    <sheet name="Journals_Ext_MUMD" sheetId="30" r:id="rId37"/>
-    <sheet name="Journals_Ext_SUMD" sheetId="29" r:id="rId38"/>
-    <sheet name="NewEntity_creation" sheetId="10" r:id="rId39"/>
-    <sheet name="BankAccountCreation" sheetId="20" r:id="rId40"/>
+    <sheet name="BankAccountCreation" sheetId="20" r:id="rId4"/>
+    <sheet name="Dashboard" sheetId="3" r:id="rId5"/>
+    <sheet name="CollPeriodBalances_MCC" sheetId="4" r:id="rId6"/>
+    <sheet name="CollPeriodBalances_MCC_MUMD" sheetId="21" r:id="rId7"/>
+    <sheet name="CollPeriodBalances_MCC_SUMD" sheetId="22" r:id="rId8"/>
+    <sheet name="CollPeriodBalances_MCC_Ext" sheetId="15" r:id="rId9"/>
+    <sheet name="CollPeriodBalances_MCC_Ext_MUMD" sheetId="48" r:id="rId10"/>
+    <sheet name="CollPeriodBalances_MCC_Ext_SUMD" sheetId="47" r:id="rId11"/>
+    <sheet name="CollPeriodBalances_MCP" sheetId="5" r:id="rId12"/>
+    <sheet name="CollPeriodBalances_MCP_MUMD" sheetId="46" r:id="rId13"/>
+    <sheet name="CollPeriodBalances_MCP_SUMD" sheetId="51" r:id="rId14"/>
+    <sheet name="CollPeriodBalances_MCP_Ext" sheetId="16" r:id="rId15"/>
+    <sheet name="CollPeriodBalances_MCP_Ext_MUMD" sheetId="44" r:id="rId16"/>
+    <sheet name="CollPeriodBalances_MCP_Ext_SUMD" sheetId="43" r:id="rId17"/>
+    <sheet name="CollectionImport" sheetId="6" r:id="rId18"/>
+    <sheet name="CollectionImport_MUMD" sheetId="25" r:id="rId19"/>
+    <sheet name="CollectionImport_SUMD" sheetId="26" r:id="rId20"/>
+    <sheet name="CollectionImport_Ext" sheetId="17" r:id="rId21"/>
+    <sheet name="CollectionImport_Ext_MUMD" sheetId="40" r:id="rId22"/>
+    <sheet name="CollectionImport_Ext_SUMD" sheetId="39" r:id="rId23"/>
+    <sheet name="PaymentImport" sheetId="7" r:id="rId24"/>
+    <sheet name="PaymentImport_MUMD" sheetId="27" r:id="rId25"/>
+    <sheet name="PaymentImport_SUMD" sheetId="28" r:id="rId26"/>
+    <sheet name="PaymentImport_Ext" sheetId="18" r:id="rId27"/>
+    <sheet name="PaymentImport_Ext_MUMD" sheetId="36" r:id="rId28"/>
+    <sheet name="PaymentImport_Ext_SUMD" sheetId="35" r:id="rId29"/>
+    <sheet name="NewUser_creation" sheetId="9" r:id="rId30"/>
+    <sheet name="NominatedPayments" sheetId="11" r:id="rId31"/>
+    <sheet name="NominatedPayments_MUMD" sheetId="34" r:id="rId32"/>
+    <sheet name="NominatedPayments_SUMD" sheetId="33" r:id="rId33"/>
+    <sheet name="Journals" sheetId="12" r:id="rId34"/>
+    <sheet name="Journals_Ext" sheetId="19" r:id="rId35"/>
+    <sheet name="Journals_MUMD" sheetId="32" r:id="rId36"/>
+    <sheet name="Journals_SUMD" sheetId="31" r:id="rId37"/>
+    <sheet name="Journals_Ext_MUMD" sheetId="30" r:id="rId38"/>
+    <sheet name="Journals_Ext_SUMD" sheetId="29" r:id="rId39"/>
+    <sheet name="NewEntity_creation" sheetId="10" r:id="rId40"/>
     <sheet name="ISOPAIN" sheetId="52" r:id="rId41"/>
     <sheet name="QuoteCreation" sheetId="54" r:id="rId42"/>
     <sheet name="B2BSetup" sheetId="55" r:id="rId43"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3771" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="436">
   <si>
     <t>Password</t>
   </si>
@@ -1080,9 +1080,6 @@
     <t>Tc_27_ISO_AcbEntryclassSetup</t>
   </si>
   <si>
-    <t>L805</t>
-  </si>
-  <si>
     <t>test15</t>
   </si>
   <si>
@@ -1320,57 +1317,6 @@
     <t>User022</t>
   </si>
   <si>
-    <t>NewEntity022</t>
-  </si>
-  <si>
-    <t>sept</t>
-  </si>
-  <si>
-    <t>dec</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>sham</t>
-  </si>
-  <si>
-    <t>hyd flats</t>
-  </si>
-  <si>
-    <t>nlg prop value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sa prop </t>
-  </si>
-  <si>
-    <t>lic</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>NewEntity0211</t>
-  </si>
-  <si>
-    <t>User012</t>
-  </si>
-  <si>
-    <t>Prod</t>
-  </si>
-  <si>
     <t>User023</t>
   </si>
   <si>
@@ -1422,16 +1368,22 @@
     <t>01/03/2021 TO 31/03/2021</t>
   </si>
   <si>
-    <t>User244</t>
-  </si>
-  <si>
-    <t>2964/214244/21</t>
-  </si>
-  <si>
-    <t>NewEntity245</t>
-  </si>
-  <si>
-    <t>2964/214245/21</t>
+    <t>NewEntity254</t>
+  </si>
+  <si>
+    <t>L817</t>
+  </si>
+  <si>
+    <t>ambledown financial services</t>
+  </si>
+  <si>
+    <t>User258</t>
+  </si>
+  <si>
+    <t>NewEntity258</t>
+  </si>
+  <si>
+    <t>2964/214258/21</t>
   </si>
 </sst>
 </file>
@@ -2361,8 +2313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:E16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,6 +2599,345 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1173782</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1155</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="7">
+        <v>100</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1173782</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1155</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="7">
+        <v>200</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1173782</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1155</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="7">
+        <v>300</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1173782</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1155</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="7">
+        <v>400</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1173782</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1155</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="7">
+        <v>500</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1173782</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1155</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="7">
+        <v>600</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" display="P@ssw0rd" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" display="P@ssw0rd" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" display="P@ssw0rd" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" display="P@ssw0rd" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" display="P@ssw0rd" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" display="P@ssw0rd" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
@@ -3041,7 +3332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
@@ -3363,7 +3654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
@@ -3869,7 +4160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
@@ -4395,7 +4686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
@@ -4670,7 +4961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
@@ -5061,7 +5352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
@@ -5489,7 +5780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -5656,7 +5947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -5839,260 +6130,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:G22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11">
-        <v>3</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11">
-        <v>5</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="11">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="42"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="42"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="42"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="42"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="42"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="42"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="42"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M126"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6126,28 +6169,28 @@
         <v>0</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="G1" s="59" t="s">
         <v>177</v>
       </c>
       <c r="H1" s="59" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="I1" s="59" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J1" s="59" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="K1" s="110" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="L1" s="110" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="M1" s="110" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6173,7 +6216,7 @@
         <v>42</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="I2" s="7"/>
     </row>
@@ -6200,7 +6243,7 @@
         <v>178</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="I3" s="7"/>
     </row>
@@ -6269,7 +6312,7 @@
         <v>179</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="I6" s="7"/>
     </row>
@@ -6296,7 +6339,7 @@
         <v>179</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="I7" s="7"/>
     </row>
@@ -6321,7 +6364,7 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="I8" s="7"/>
     </row>
@@ -6365,7 +6408,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="I10" s="7"/>
     </row>
@@ -6667,7 +6710,7 @@
         <v>179</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="I24" s="7"/>
     </row>
@@ -6694,7 +6737,7 @@
         <v>179</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="I25" s="7"/>
     </row>
@@ -6721,7 +6764,7 @@
         <v>178</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="I26" s="7"/>
     </row>
@@ -6746,7 +6789,7 @@
       </c>
       <c r="G27" s="38"/>
       <c r="H27" s="7" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="I27" s="7"/>
     </row>
@@ -6794,7 +6837,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B30" s="91">
         <v>1</v>
@@ -6813,19 +6856,19 @@
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="K30" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="L30" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -8468,7 +8511,7 @@
         <v>179</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="I108" s="7"/>
     </row>
@@ -8493,7 +8536,7 @@
       </c>
       <c r="G109" s="7"/>
       <c r="H109" s="7" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="I109" s="7"/>
     </row>
@@ -8518,7 +8561,7 @@
       </c>
       <c r="G110" s="7"/>
       <c r="H110" s="7" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="I110" s="7"/>
     </row>
@@ -8796,6 +8839,254 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="42"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="42"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="42"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="42"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="42"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="42"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -8904,7 +9195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -9043,7 +9334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -9228,7 +9519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -9367,7 +9658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
@@ -9643,7 +9934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
@@ -9865,7 +10156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -9986,7 +10277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -10135,7 +10426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -10331,362 +10622,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1:P12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="67" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" customWidth="1"/>
-    <col min="16" max="16" width="69.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="11">
-        <v>112539761</v>
-      </c>
-      <c r="J2" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="K2" s="11">
-        <v>123697854</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="11">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="11">
-        <v>112539761</v>
-      </c>
-      <c r="J3" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="K3" s="11">
-        <v>123697854</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-1B00-000000000000}"/>
-    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-1B00-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:GV53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
@@ -10978,34 +10918,34 @@
         <v>296</v>
       </c>
       <c r="BM1" s="52" t="s">
+        <v>371</v>
+      </c>
+      <c r="BN1" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="BO1" s="52" t="s">
         <v>372</v>
       </c>
-      <c r="BN1" s="52" t="s">
-        <v>369</v>
-      </c>
-      <c r="BO1" s="52" t="s">
-        <v>373</v>
-      </c>
       <c r="BP1" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="BQ1" s="52" t="s">
         <v>345</v>
       </c>
-      <c r="BQ1" s="52" t="s">
-        <v>346</v>
-      </c>
       <c r="BR1" s="52" t="s">
+        <v>347</v>
+      </c>
+      <c r="BS1" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="BS1" s="59" t="s">
+      <c r="BT1" s="59" t="s">
         <v>349</v>
-      </c>
-      <c r="BT1" s="59" t="s">
-        <v>350</v>
       </c>
       <c r="BU1" s="59" t="s">
         <v>43</v>
       </c>
       <c r="BV1" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BW1" s="92" t="s">
         <v>135</v>
@@ -11014,22 +10954,22 @@
         <v>44</v>
       </c>
       <c r="BY1" s="93" t="s">
+        <v>357</v>
+      </c>
+      <c r="BZ1" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="BZ1" s="41" t="s">
+      <c r="CA1" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="CA1" s="41" t="s">
+      <c r="CB1" s="41" t="s">
         <v>360</v>
-      </c>
-      <c r="CB1" s="41" t="s">
-        <v>361</v>
       </c>
       <c r="CC1" s="41" t="s">
         <v>12</v>
       </c>
       <c r="CD1" s="41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="CE1" s="41" t="s">
         <v>49</v>
@@ -11041,7 +10981,7 @@
         <v>51</v>
       </c>
       <c r="CH1" s="94" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="CI1" s="52" t="s">
         <v>52</v>
@@ -11086,10 +11026,10 @@
         <v>184</v>
       </c>
       <c r="CW1" s="62" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="CX1" s="52" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CY1" s="62" t="s">
         <v>276</v>
@@ -11131,7 +11071,7 @@
         <v>112</v>
       </c>
       <c r="DL1" s="17" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="DM1" s="18" t="s">
         <v>114</v>
@@ -11151,7 +11091,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>64</v>
@@ -11187,7 +11127,7 @@
         <v>78</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R2" s="11" t="s">
         <v>82</v>
@@ -11196,7 +11136,7 @@
         <v>84</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>86</v>
@@ -11375,7 +11315,7 @@
         <v>80</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>64</v>
@@ -11411,7 +11351,7 @@
         <v>78</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R3" s="11" t="s">
         <v>82</v>
@@ -11420,7 +11360,7 @@
         <v>84</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>86</v>
@@ -11714,25 +11654,28 @@
     </row>
     <row r="5" spans="1:204" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q5" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:204" x14ac:dyDescent="0.25">
       <c r="Q6" s="52" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:204" x14ac:dyDescent="0.25">
       <c r="P7" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q7" s="52" t="s">
-        <v>330</v>
+        <v>430</v>
+      </c>
+      <c r="R7" s="52" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:204" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -11744,7 +11687,7 @@
         <v>80</v>
       </c>
       <c r="E8" s="100" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>64</v>
@@ -11780,7 +11723,7 @@
         <v>78</v>
       </c>
       <c r="Q8" s="52" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>82</v>
@@ -11789,7 +11732,7 @@
         <v>84</v>
       </c>
       <c r="T8" s="52" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>86</v>
@@ -11864,13 +11807,13 @@
         <v>246</v>
       </c>
       <c r="AS8" s="99" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AT8" s="99">
         <v>62006676772</v>
       </c>
       <c r="AU8" s="99" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AV8" s="39" t="s">
         <v>249</v>
@@ -11922,19 +11865,19 @@
       </c>
       <c r="BY8" s="9"/>
       <c r="CS8" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CT8" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="CU8" s="39" t="s">
         <v>190</v>
       </c>
       <c r="CV8" s="52" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="CW8" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CX8" s="51" t="s">
         <v>192</v>
@@ -11949,7 +11892,7 @@
         <v>45</v>
       </c>
       <c r="DB8" s="52" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="DC8">
         <v>16445</v>
@@ -11975,8 +11918,8 @@
       <c r="DJ8" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="DK8" s="51" t="s">
-        <v>438</v>
+      <c r="DK8" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="DL8" s="21">
         <v>201</v>
@@ -12074,7 +12017,7 @@
     </row>
     <row r="9" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B9" s="11">
         <v>2</v>
@@ -12086,7 +12029,7 @@
         <v>80</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>64</v>
@@ -12122,7 +12065,7 @@
         <v>78</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R9" s="11" t="s">
         <v>82</v>
@@ -12131,7 +12074,7 @@
         <v>84</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="U9" s="11" t="s">
         <v>86</v>
@@ -12340,8 +12283,8 @@
       <c r="DJ9" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="DK9" s="51" t="s">
-        <v>437</v>
+      <c r="DK9" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="DL9" s="21">
         <v>300</v>
@@ -12352,7 +12295,7 @@
     </row>
     <row r="10" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B10" s="7">
         <v>3</v>
@@ -12517,8 +12460,8 @@
       <c r="DJ10" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="DK10" s="51" t="s">
-        <v>437</v>
+      <c r="DK10" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="DL10" s="21">
         <v>200</v>
@@ -12529,22 +12472,22 @@
     </row>
     <row r="11" spans="1:204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B11" s="11">
         <v>4</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="107" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>66</v>
@@ -12577,7 +12520,7 @@
         <v>78</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R11" s="11" t="s">
         <v>82</v>
@@ -12586,7 +12529,7 @@
         <v>84</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U11" s="11" t="s">
         <v>86</v>
@@ -12719,10 +12662,10 @@
         <v>30</v>
       </c>
       <c r="BL11" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="BM11" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="BN11" s="19" t="str">
         <f>BL11</f>
@@ -12733,13 +12676,13 @@
         <v>fileName</v>
       </c>
       <c r="BP11" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BQ11" s="101" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BR11" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BS11" s="11" t="str">
         <f>BP11</f>
@@ -12761,10 +12704,10 @@
         <v>ago</v>
       </c>
       <c r="BX11" s="101" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="BY11" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="BZ11" s="11">
         <v>62006676772</v>
@@ -12782,28 +12725,28 @@
         <v>100.05</v>
       </c>
       <c r="CE11" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="CF11" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="CF11" s="11" t="s">
-        <v>357</v>
-      </c>
       <c r="CG11" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="CH11" s="11" t="s">
         <v>363</v>
-      </c>
-      <c r="CH11" s="11" t="s">
-        <v>364</v>
       </c>
       <c r="CI11" s="11" t="s">
         <v>173</v>
       </c>
       <c r="CJ11" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CK11" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="CL11" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="CM11" s="11" t="s">
         <v>224</v>
@@ -12818,16 +12761,16 @@
         <v>328</v>
       </c>
       <c r="CQ11" s="106" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="CR11" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="CS11" s="7"/>
       <c r="CT11" s="7"/>
       <c r="CU11" s="39"/>
       <c r="CV11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="CW11" s="7"/>
       <c r="CX11" s="7"/>
@@ -12853,7 +12796,7 @@
         <v>116</v>
       </c>
       <c r="DK11" s="5" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="DL11" s="21">
         <v>3</v>
@@ -12864,7 +12807,7 @@
     </row>
     <row r="12" spans="1:204" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B12" s="7">
         <v>5</v>
@@ -12872,7 +12815,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="107" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -12961,13 +12904,13 @@
       <c r="CH12" s="7"/>
       <c r="CI12" s="7"/>
       <c r="CJ12" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CK12" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="CL12" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="CM12" s="11" t="s">
         <v>224</v>
@@ -12982,7 +12925,7 @@
         <v>327</v>
       </c>
       <c r="CQ12" s="106" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="CR12" s="7"/>
       <c r="CS12" s="7"/>
@@ -13011,8 +12954,8 @@
       <c r="DJ12" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="DK12" s="51" t="s">
-        <v>437</v>
+      <c r="DK12" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="DL12" s="21">
         <v>200</v>
@@ -13023,7 +12966,7 @@
     </row>
     <row r="13" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B13" s="7">
         <v>6</v>
@@ -13031,7 +12974,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="107" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -13098,16 +13041,16 @@
       <c r="BP13" s="7"/>
       <c r="BQ13" s="7"/>
       <c r="BR13" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BS13" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BT13" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BU13" s="51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="BV13" s="61" t="str">
         <f>BR13</f>
@@ -13134,7 +13077,7 @@
       <c r="CH13" s="7"/>
       <c r="CI13" s="7"/>
       <c r="CJ13" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="CK13" s="7"/>
       <c r="CL13" s="7"/>
@@ -13170,8 +13113,8 @@
       <c r="DJ13" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="DK13" s="51" t="s">
-        <v>437</v>
+      <c r="DK13" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="DL13" s="21">
         <v>300</v>
@@ -13182,7 +13125,7 @@
     </row>
     <row r="14" spans="1:204" x14ac:dyDescent="0.25">
       <c r="E14" s="107" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BL14" s="42"/>
       <c r="BM14" s="42"/>
@@ -13220,112 +13163,54 @@
     <row r="16" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="49"/>
-      <c r="M16" t="s">
-        <v>429</v>
-      </c>
-      <c r="N16" s="52" t="s">
-        <v>403</v>
-      </c>
-      <c r="P16" t="s">
-        <v>430</v>
-      </c>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
     </row>
     <row r="17" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="49"/>
       <c r="H17" s="99"/>
-      <c r="M17" s="107" t="s">
-        <v>387</v>
-      </c>
-      <c r="N17" s="52" t="s">
-        <v>394</v>
-      </c>
+      <c r="L17" s="42"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
     </row>
     <row r="18" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="49"/>
-      <c r="L18" t="s">
-        <v>430</v>
-      </c>
-      <c r="M18" t="s">
-        <v>413</v>
-      </c>
-      <c r="N18" s="52" t="s">
-        <v>414</v>
-      </c>
-      <c r="T18">
-        <v>11715</v>
-      </c>
-      <c r="U18">
-        <f>T19-T18</f>
-        <v>62007</v>
-      </c>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="46"/>
+      <c r="P18" s="42"/>
       <c r="CU18" s="99"/>
     </row>
     <row r="19" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
-      <c r="N19" s="52" t="s">
-        <v>428</v>
-      </c>
-      <c r="R19" t="s">
-        <v>415</v>
-      </c>
-      <c r="T19">
-        <v>73722</v>
-      </c>
-      <c r="U19">
-        <f t="shared" ref="U19:U38" si="0">T20-T19</f>
-        <v>49150</v>
-      </c>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="46"/>
+      <c r="P19" s="42"/>
     </row>
     <row r="20" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
-      <c r="T20">
-        <v>122872</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="0"/>
-        <v>25205</v>
-      </c>
-      <c r="AH20">
-        <v>3</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>421</v>
-      </c>
-      <c r="AJ20">
-        <v>4.5</v>
-      </c>
       <c r="CL20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CW20" s="99"/>
       <c r="CZ20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="42"/>
       <c r="I21" s="99"/>
-      <c r="T21">
-        <v>148077</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="0"/>
-        <v>78335</v>
-      </c>
-      <c r="AH21">
-        <v>1.25</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>422</v>
-      </c>
-      <c r="AJ21">
-        <v>1.75</v>
-      </c>
       <c r="BF21" s="99"/>
       <c r="CJ21">
         <v>40.19</v>
@@ -13337,34 +13222,12 @@
         <v>10.029999999999999</v>
       </c>
       <c r="CZ21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
       <c r="B22" s="42"/>
-      <c r="R22" t="s">
-        <v>416</v>
-      </c>
-      <c r="S22">
-        <v>2017</v>
-      </c>
-      <c r="T22">
-        <v>226412</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="0"/>
-        <v>-14157</v>
-      </c>
-      <c r="AH22">
-        <v>1.5</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>423</v>
-      </c>
-      <c r="AJ22">
-        <v>2</v>
-      </c>
       <c r="CJ22">
         <v>60.3</v>
       </c>
@@ -13377,26 +13240,10 @@
       <c r="CR22" s="99"/>
       <c r="CW22" s="99"/>
       <c r="CZ22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="T23">
-        <v>212255</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="0"/>
-        <v>37346</v>
-      </c>
-      <c r="AH23">
-        <v>1.25</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>424</v>
-      </c>
-      <c r="AJ23">
-        <v>3</v>
-      </c>
       <c r="CL23">
         <v>10.050000000000001</v>
       </c>
@@ -13406,30 +13253,10 @@
       <c r="CU23" s="99"/>
       <c r="CY23" s="99"/>
       <c r="CZ23" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="T24">
-        <v>249601</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="0"/>
-        <v>19463</v>
-      </c>
-      <c r="W24">
-        <f>12577.93*2</f>
-        <v>25155.86</v>
-      </c>
-      <c r="AH24">
-        <v>1.5</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>425</v>
-      </c>
-      <c r="AJ24">
-        <v>1.5</v>
-      </c>
       <c r="CJ24">
         <f>SUM(CJ21:CJ23)</f>
         <v>100.49</v>
@@ -13441,30 +13268,10 @@
         <v>10.039999999999999</v>
       </c>
       <c r="CZ24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="T25">
-        <v>269064</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="0"/>
-        <v>76523</v>
-      </c>
-      <c r="W25">
-        <f>10567.93*2</f>
-        <v>21135.86</v>
-      </c>
-      <c r="AH25">
-        <v>1</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>427</v>
-      </c>
-      <c r="AJ25">
-        <v>1.25</v>
-      </c>
       <c r="CL25">
         <v>10.08</v>
       </c>
@@ -13473,37 +13280,6 @@
       </c>
     </row>
     <row r="26" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="I26">
-        <v>68302</v>
-      </c>
-      <c r="T26">
-        <v>345587</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="0"/>
-        <v>48230</v>
-      </c>
-      <c r="X26">
-        <f>W25+W28</f>
-        <v>39931.72</v>
-      </c>
-      <c r="Y26">
-        <f>W24+W27</f>
-        <v>46971.72</v>
-      </c>
-      <c r="Z26">
-        <f>Y26-X26</f>
-        <v>7040</v>
-      </c>
-      <c r="AH26">
-        <v>0.5</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>426</v>
-      </c>
-      <c r="AJ26">
-        <v>1</v>
-      </c>
       <c r="CL26">
         <v>10.09</v>
       </c>
@@ -13516,20 +13292,6 @@
       <c r="DB26" s="99"/>
     </row>
     <row r="27" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="T27">
-        <v>393817</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="0"/>
-        <v>35898</v>
-      </c>
-      <c r="W27">
-        <f>10907.93*2</f>
-        <v>21815.86</v>
-      </c>
-      <c r="AC27">
-        <v>10813</v>
-      </c>
       <c r="BD27" s="99"/>
       <c r="CL27">
         <v>10.01</v>
@@ -13540,25 +13302,6 @@
       <c r="CU27" s="99"/>
     </row>
     <row r="28" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="T28">
-        <v>429715</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="0"/>
-        <v>37975</v>
-      </c>
-      <c r="W28">
-        <f>9397.93*2</f>
-        <v>18795.86</v>
-      </c>
-      <c r="AH28">
-        <f>SUM(AH20:AH27)</f>
-        <v>10</v>
-      </c>
-      <c r="AJ28">
-        <f>SUM(AJ20:AJ27)</f>
-        <v>15</v>
-      </c>
       <c r="CL28">
         <v>10.02</v>
       </c>
@@ -13567,16 +13310,6 @@
       </c>
     </row>
     <row r="29" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="T29">
-        <v>467690</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="0"/>
-        <v>61411</v>
-      </c>
-      <c r="AC29">
-        <v>9643</v>
-      </c>
       <c r="BC29" s="99"/>
       <c r="BG29" s="99"/>
       <c r="CL29">
@@ -13589,13 +13322,6 @@
       <c r="CZ29" s="99"/>
     </row>
     <row r="30" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="T30">
-        <v>529101</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="0"/>
-        <v>49514</v>
-      </c>
       <c r="CL30">
         <v>10.039999999999999</v>
       </c>
@@ -13604,79 +13330,7 @@
       </c>
       <c r="CX30" s="99"/>
     </row>
-    <row r="31" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="T31">
-        <v>578615</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="0"/>
-        <v>58587</v>
-      </c>
-    </row>
-    <row r="32" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="T32">
-        <v>637202</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="0"/>
-        <v>28548</v>
-      </c>
-      <c r="W32">
-        <f>12931.93*2</f>
-        <v>25863.86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="T33">
-        <v>665750</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="0"/>
-        <v>78038</v>
-      </c>
-      <c r="W33">
-        <f>10921.93*2</f>
-        <v>21843.86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="R34" t="s">
-        <v>416</v>
-      </c>
-      <c r="S34">
-        <v>2018</v>
-      </c>
-      <c r="T34">
-        <v>743788</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="0"/>
-        <v>41742</v>
-      </c>
-      <c r="X34">
-        <f>W32+W36</f>
-        <v>48387.72</v>
-      </c>
-      <c r="Y34">
-        <f>W33+W37</f>
-        <v>41347.72</v>
-      </c>
-      <c r="Z34">
-        <f>X34-Y34</f>
-        <v>7040</v>
-      </c>
-    </row>
     <row r="35" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="R35" t="s">
-        <v>417</v>
-      </c>
-      <c r="T35">
-        <v>785530</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="0"/>
-        <v>56787</v>
-      </c>
       <c r="CL35">
         <f>SUM(CL20:CL34)</f>
         <v>100.49000000000001</v>
@@ -13686,386 +13340,173 @@
         <v>100.48999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="R36" t="s">
-        <v>418</v>
-      </c>
-      <c r="T36">
-        <v>842317</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="0"/>
-        <v>55931</v>
-      </c>
-      <c r="W36">
-        <f>11261.93*2</f>
-        <v>22523.86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="R37" t="s">
-        <v>419</v>
-      </c>
-      <c r="T37">
-        <v>898248</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="0"/>
-        <v>51413</v>
-      </c>
-      <c r="W37">
-        <f>9751.93*2</f>
-        <v>19503.86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="R38" t="s">
-        <v>420</v>
-      </c>
-      <c r="T38">
-        <v>949661</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="0"/>
-        <v>-949661</v>
-      </c>
-    </row>
-    <row r="41" spans="1:92" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:92" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="84" t="s">
-        <v>273</v>
-      </c>
-      <c r="F42" s="86" t="s">
-        <v>135</v>
-      </c>
-      <c r="G42" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="I42" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="J42" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="K42" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="L42" s="18" t="s">
-        <v>114</v>
-      </c>
+    <row r="42" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A42" s="108"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="108"/>
+      <c r="K42" s="108"/>
+      <c r="L42" s="108"/>
     </row>
     <row r="43" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="19">
-        <v>1</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E43" s="51"/>
-      <c r="F43" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="H43" s="19">
-        <v>201</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="K43" s="19">
-        <v>201</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>116</v>
-      </c>
+      <c r="A43" s="48"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="48"/>
     </row>
     <row r="44" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="21">
-        <v>1</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="D44" s="51" t="s">
-        <v>299</v>
-      </c>
-      <c r="E44" s="51" t="s">
-        <v>304</v>
-      </c>
-      <c r="F44" s="51" t="s">
-        <v>305</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="H44" s="21">
-        <v>300</v>
-      </c>
-      <c r="I44" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="K44" s="21">
-        <v>300</v>
-      </c>
-      <c r="L44" s="20" t="s">
-        <v>116</v>
-      </c>
+      <c r="A44" s="48"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="48"/>
     </row>
     <row r="45" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="19">
-        <v>3</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="D45" s="51" t="s">
-        <v>300</v>
-      </c>
-      <c r="E45" s="51" t="s">
-        <v>309</v>
-      </c>
-      <c r="F45" s="51" t="s">
-        <v>310</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="H45" s="19">
-        <v>200</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="K45" s="19">
-        <v>200</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>116</v>
-      </c>
+      <c r="A45" s="48"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="48"/>
     </row>
     <row r="46" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="21">
-        <v>4</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="D46" s="51" t="s">
-        <v>301</v>
-      </c>
-      <c r="E46" s="51" t="s">
-        <v>306</v>
-      </c>
-      <c r="F46" s="51" t="s">
-        <v>311</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="H46" s="21">
-        <v>300</v>
-      </c>
-      <c r="I46" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="K46" s="21">
-        <v>300</v>
-      </c>
-      <c r="L46" s="20" t="s">
-        <v>116</v>
-      </c>
+      <c r="A46" s="48"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="48"/>
     </row>
     <row r="47" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B47" s="19">
-        <v>5</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="D47" s="51" t="s">
-        <v>302</v>
-      </c>
-      <c r="E47" s="51" t="s">
-        <v>312</v>
-      </c>
-      <c r="F47" s="51" t="s">
-        <v>307</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="H47" s="19">
-        <v>200</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="K47" s="19">
-        <v>200</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>116</v>
-      </c>
+      <c r="A47" s="48"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="48"/>
     </row>
     <row r="48" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="21">
-        <v>6</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="D48" s="51" t="s">
-        <v>303</v>
-      </c>
-      <c r="E48" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="F48" s="51" t="s">
-        <v>308</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="H48" s="21">
-        <v>300</v>
-      </c>
-      <c r="I48" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="K48" s="21">
-        <v>300</v>
-      </c>
-      <c r="L48" s="20" t="s">
-        <v>116</v>
-      </c>
+      <c r="A48" s="48"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="48"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14087,6 +13528,357 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="11">
+        <v>112539761</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" s="11">
+        <v>123697854</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="11">
+        <v>112539761</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" s="11">
+        <v>123697854</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-1B00-000000000000}"/>
+    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-1B00-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -14121,7 +13913,7 @@
         <v>43</v>
       </c>
       <c r="E1" s="96" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>44</v>
@@ -14150,7 +13942,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>329</v>
@@ -14271,7 +14063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:AB12"/>
   <sheetViews>
@@ -14769,7 +14561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:AC22"/>
   <sheetViews>
@@ -15313,7 +15105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
@@ -15391,7 +15183,7 @@
         <v>315</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="H2" s="19">
         <v>201</v>
@@ -15400,7 +15192,7 @@
         <v>116</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="K2" s="19">
         <v>201</v>
@@ -15429,7 +15221,7 @@
         <v>305</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="H3" s="21">
         <v>300</v>
@@ -15438,7 +15230,7 @@
         <v>116</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="K3" s="21">
         <v>300</v>
@@ -15467,7 +15259,7 @@
         <v>310</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="H4" s="19">
         <v>200</v>
@@ -15476,7 +15268,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="K4" s="19">
         <v>200</v>
@@ -15505,7 +15297,7 @@
         <v>311</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="H5" s="21">
         <v>300</v>
@@ -15514,7 +15306,7 @@
         <v>116</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="K5" s="21">
         <v>300</v>
@@ -15543,7 +15335,7 @@
         <v>307</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="H6" s="19">
         <v>200</v>
@@ -15552,7 +15344,7 @@
         <v>116</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="K6" s="19">
         <v>200</v>
@@ -15581,7 +15373,7 @@
         <v>308</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="H7" s="21">
         <v>300</v>
@@ -15590,7 +15382,7 @@
         <v>116</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="K7" s="21">
         <v>300</v>
@@ -15607,7 +15399,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="5" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -15678,7 +15470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -15918,7 +15710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -16229,7 +16021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -16601,7 +16393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
@@ -16884,7 +16676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -17195,644 +16987,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="18" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" customWidth="1"/>
-    <col min="26" max="26" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" s="11">
-        <v>1686</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="R2" s="11">
-        <v>112539768</v>
-      </c>
-      <c r="S2" s="11">
-        <v>843353667</v>
-      </c>
-      <c r="T2" s="11">
-        <v>117893246</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="7">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="7">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
-  <dimension ref="A1:AB12"/>
-  <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17950,7 +17110,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>334</v>
+        <v>431</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>211</v>
@@ -17965,10 +17125,10 @@
         <v>30</v>
       </c>
       <c r="H2">
-        <v>1155</v>
+        <v>250655</v>
       </c>
       <c r="I2">
-        <v>1173782</v>
+        <v>62690938091</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>210</v>
@@ -17982,7 +17142,7 @@
       </c>
       <c r="N2" s="11" t="str">
         <f>C2</f>
-        <v>L805</v>
+        <v>L817</v>
       </c>
       <c r="O2" s="11">
         <v>1000000</v>
@@ -17998,7 +17158,7 @@
       </c>
       <c r="S2" s="11" t="str">
         <f>C2</f>
-        <v>L805</v>
+        <v>L817</v>
       </c>
       <c r="T2" s="11" t="s">
         <v>223</v>
@@ -18026,6 +17186,12 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
+      <c r="H3">
+        <v>1155</v>
+      </c>
+      <c r="I3">
+        <v>1173782</v>
+      </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -18102,8 +17268,12 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="7">
+        <v>250655</v>
+      </c>
+      <c r="I5" s="7">
+        <v>62239543269</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -18347,6 +17517,515 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+  <dimension ref="A1:AB12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="18" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="11">
+        <v>1686</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="R2" s="11">
+        <v>112539768</v>
+      </c>
+      <c r="S2" s="11">
+        <v>843353667</v>
+      </c>
+      <c r="T2" s="11">
+        <v>117893246</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18395,10 +18074,10 @@
         <v>184</v>
       </c>
       <c r="G1" s="62" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I1" s="62" t="s">
         <v>276</v>
@@ -18439,19 +18118,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E2" s="39" t="s">
         <v>190</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H2" s="51" t="s">
         <v>192</v>
@@ -19033,7 +18712,7 @@
         <v>105</v>
       </c>
       <c r="AQ2" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AR2" s="51" t="s">
         <v>246</v>
@@ -19451,7 +19130,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D2" s="20"/>
     </row>
@@ -19610,7 +19289,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>108</v>
@@ -19914,34 +19593,34 @@
         <v>296</v>
       </c>
       <c r="BM1" s="52" t="s">
+        <v>371</v>
+      </c>
+      <c r="BN1" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="BO1" s="52" t="s">
         <v>372</v>
       </c>
-      <c r="BN1" s="52" t="s">
-        <v>369</v>
-      </c>
-      <c r="BO1" s="52" t="s">
-        <v>373</v>
-      </c>
       <c r="BP1" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="BQ1" s="52" t="s">
         <v>345</v>
       </c>
-      <c r="BQ1" s="52" t="s">
-        <v>346</v>
-      </c>
       <c r="BR1" s="52" t="s">
+        <v>347</v>
+      </c>
+      <c r="BS1" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="BS1" s="59" t="s">
+      <c r="BT1" s="59" t="s">
         <v>349</v>
-      </c>
-      <c r="BT1" s="59" t="s">
-        <v>350</v>
       </c>
       <c r="BU1" s="59" t="s">
         <v>43</v>
       </c>
       <c r="BV1" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BW1" s="92" t="s">
         <v>135</v>
@@ -19950,16 +19629,16 @@
         <v>44</v>
       </c>
       <c r="BY1" s="93" t="s">
+        <v>357</v>
+      </c>
+      <c r="BZ1" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="BZ1" s="41" t="s">
+      <c r="CA1" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="CA1" s="41" t="s">
+      <c r="CB1" s="41" t="s">
         <v>360</v>
-      </c>
-      <c r="CB1" s="41" t="s">
-        <v>361</v>
       </c>
       <c r="CC1" s="41" t="s">
         <v>12</v>
@@ -19974,7 +19653,7 @@
         <v>51</v>
       </c>
       <c r="CG1" s="94" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="CH1" s="52" t="s">
         <v>52</v>
@@ -20021,7 +19700,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>64</v>
@@ -20057,7 +19736,7 @@
         <v>78</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R2" s="11" t="s">
         <v>82</v>
@@ -20066,7 +19745,7 @@
         <v>84</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>86</v>
@@ -20244,7 +19923,7 @@
         <v>80</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>64</v>
@@ -20280,7 +19959,7 @@
         <v>78</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R3" s="11" t="s">
         <v>82</v>
@@ -20289,7 +19968,7 @@
         <v>84</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>86</v>
@@ -20589,7 +20268,7 @@
     </row>
     <row r="19" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G19">
         <f>3*5725.5</f>
@@ -20604,7 +20283,7 @@
     </row>
     <row r="20" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G20">
         <f>4294.13*3+16*242.9</f>
@@ -20616,7 +20295,7 @@
     </row>
     <row r="21" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G21">
         <f>3339.88*3+16*477.13</f>
@@ -20629,7 +20308,7 @@
     </row>
     <row r="22" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G22">
         <f>1431.38*12</f>
@@ -20662,7 +20341,7 @@
   <sheetData>
     <row r="4" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -20954,6 +20633,129 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
@@ -21455,7 +21257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
@@ -21823,12 +21625,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22210,10 +22012,11 @@
     <hyperlink ref="H7" r:id="rId6" display="P@ssw0rd" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId7"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
@@ -22465,343 +22268,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="7">
-        <v>1173782</v>
-      </c>
-      <c r="H2" s="7">
-        <v>1155</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="7">
-        <v>100</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="7">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1173782</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1155</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="7">
-        <v>200</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="7">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1173782</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1155</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="7">
-        <v>300</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="7">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1173782</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1155</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="7">
-        <v>400</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="7">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1173782</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1155</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="7">
-        <v>500</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1173782</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1155</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="7">
-        <v>600</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="P@ssw0rd" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" display="P@ssw0rd" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" display="P@ssw0rd" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="F5" r:id="rId4" display="P@ssw0rd" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="F6" r:id="rId5" display="P@ssw0rd" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="F7" r:id="rId6" display="P@ssw0rd" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Test data/TestData.xlsx
+++ b/Test data/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srinir.SOLARSYSTEM\Desktop\Seleniumworkspace\Xcelerate_Maven\Test data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qsurehosting-my.sharepoint.com/personal/srinir_qsure_co_za/Documents/Desktop/New folder (2)/Seleniumworkspace/Xcelerate_Maven/Test data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84910530-4DDC-43C2-A28A-C3D3AF8E2876}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{84910530-4DDC-43C2-A28A-C3D3AF8E2876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1330FB6-C273-42DD-A9E9-067756FF863B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1329,9 +1329,6 @@
     <t>2968/211111/98</t>
   </si>
   <si>
-    <t>Xcelerate</t>
-  </si>
-  <si>
     <t>2020-03-01 TO 2020-04-15</t>
   </si>
   <si>
@@ -1377,13 +1374,16 @@
     <t>ambledown financial services</t>
   </si>
   <si>
-    <t>User258</t>
-  </si>
-  <si>
-    <t>NewEntity258</t>
-  </si>
-  <si>
-    <t>2964/214258/21</t>
+    <t>NewEntity259</t>
+  </si>
+  <si>
+    <t>2964/214259/21</t>
+  </si>
+  <si>
+    <t>Xcelerate_PROD</t>
+  </si>
+  <si>
+    <t>User261</t>
   </si>
 </sst>
 </file>
@@ -6135,7 +6135,7 @@
   <dimension ref="A1:M126"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6169,28 +6169,28 @@
         <v>0</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="G1" s="59" t="s">
         <v>177</v>
       </c>
       <c r="H1" s="59" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="I1" s="59" t="s">
         <v>395</v>
       </c>
       <c r="J1" s="59" t="s">
+        <v>420</v>
+      </c>
+      <c r="K1" s="110" t="s">
         <v>421</v>
       </c>
-      <c r="K1" s="110" t="s">
-        <v>422</v>
-      </c>
       <c r="L1" s="110" t="s">
+        <v>423</v>
+      </c>
+      <c r="M1" s="110" t="s">
         <v>424</v>
-      </c>
-      <c r="M1" s="110" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6216,7 +6216,7 @@
         <v>42</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="I2" s="7"/>
     </row>
@@ -6243,7 +6243,7 @@
         <v>178</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="I3" s="7"/>
     </row>
@@ -6312,7 +6312,7 @@
         <v>179</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="I6" s="7"/>
     </row>
@@ -6339,7 +6339,7 @@
         <v>179</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="I7" s="7"/>
     </row>
@@ -6364,7 +6364,7 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="I8" s="7"/>
     </row>
@@ -6408,7 +6408,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="I10" s="7"/>
     </row>
@@ -6710,7 +6710,7 @@
         <v>179</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="I24" s="7"/>
     </row>
@@ -6737,7 +6737,7 @@
         <v>179</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="I25" s="7"/>
     </row>
@@ -6764,7 +6764,7 @@
         <v>178</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="I26" s="7"/>
     </row>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="G27" s="38"/>
       <c r="H27" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="I27" s="7"/>
     </row>
@@ -6846,7 +6846,7 @@
         <v>180</v>
       </c>
       <c r="D30" s="91" t="s">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>16</v>
@@ -6856,19 +6856,19 @@
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>396</v>
       </c>
       <c r="J30" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="K30" t="s">
+        <v>422</v>
+      </c>
+      <c r="L30" t="s">
         <v>426</v>
-      </c>
-      <c r="K30" t="s">
-        <v>423</v>
-      </c>
-      <c r="L30" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -8511,7 +8511,7 @@
         <v>179</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="I108" s="7"/>
     </row>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="G109" s="7"/>
       <c r="H109" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="I109" s="7"/>
     </row>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="G110" s="7"/>
       <c r="H110" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="I110" s="7"/>
     </row>
@@ -10626,8 +10626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:GV53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11071,7 +11071,7 @@
         <v>112</v>
       </c>
       <c r="DL1" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="DM1" s="18" t="s">
         <v>114</v>
@@ -11667,10 +11667,10 @@
         <v>402</v>
       </c>
       <c r="Q7" s="52" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R7" s="52" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:204" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11723,7 +11723,7 @@
         <v>78</v>
       </c>
       <c r="Q8" s="52" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>82</v>
@@ -11732,7 +11732,7 @@
         <v>84</v>
       </c>
       <c r="T8" s="52" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>86</v>
@@ -11919,7 +11919,7 @@
         <v>116</v>
       </c>
       <c r="DK8" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="DL8" s="21">
         <v>201</v>
@@ -12284,7 +12284,7 @@
         <v>116</v>
       </c>
       <c r="DK9" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="DL9" s="21">
         <v>300</v>
@@ -12461,7 +12461,7 @@
         <v>116</v>
       </c>
       <c r="DK10" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="DL10" s="21">
         <v>200</v>
@@ -12484,7 +12484,7 @@
         <v>80</v>
       </c>
       <c r="E11" s="107" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>342</v>
@@ -12796,7 +12796,7 @@
         <v>116</v>
       </c>
       <c r="DK11" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="DL11" s="21">
         <v>3</v>
@@ -12955,7 +12955,7 @@
         <v>116</v>
       </c>
       <c r="DK12" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="DL12" s="21">
         <v>200</v>
@@ -13114,7 +13114,7 @@
         <v>116</v>
       </c>
       <c r="DK13" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="DL13" s="21">
         <v>300</v>
@@ -15183,7 +15183,7 @@
         <v>315</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H2" s="19">
         <v>201</v>
@@ -15192,7 +15192,7 @@
         <v>116</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K2" s="19">
         <v>201</v>
@@ -15221,7 +15221,7 @@
         <v>305</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H3" s="21">
         <v>300</v>
@@ -15230,7 +15230,7 @@
         <v>116</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K3" s="21">
         <v>300</v>
@@ -15259,7 +15259,7 @@
         <v>310</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H4" s="19">
         <v>200</v>
@@ -15268,7 +15268,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K4" s="19">
         <v>200</v>
@@ -15297,7 +15297,7 @@
         <v>311</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H5" s="21">
         <v>300</v>
@@ -15306,7 +15306,7 @@
         <v>116</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K5" s="21">
         <v>300</v>
@@ -15335,7 +15335,7 @@
         <v>307</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H6" s="19">
         <v>200</v>
@@ -15344,7 +15344,7 @@
         <v>116</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K6" s="19">
         <v>200</v>
@@ -15373,7 +15373,7 @@
         <v>308</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H7" s="21">
         <v>300</v>
@@ -15382,7 +15382,7 @@
         <v>116</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K7" s="21">
         <v>300</v>
@@ -15399,7 +15399,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -17110,7 +17110,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>211</v>

--- a/Test data/TestData.xlsx
+++ b/Test data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qsurehosting-my.sharepoint.com/personal/srinir_qsure_co_za/Documents/Desktop/New folder (2)/Seleniumworkspace/Xcelerate_Maven/Test data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{84910530-4DDC-43C2-A28A-C3D3AF8E2876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1330FB6-C273-42DD-A9E9-067756FF863B}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{84910530-4DDC-43C2-A28A-C3D3AF8E2876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD35CC52-7023-4440-B897-49D453E012E0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1383,7 +1383,7 @@
     <t>Xcelerate_PROD</t>
   </si>
   <si>
-    <t>User261</t>
+    <t>User263</t>
   </si>
 </sst>
 </file>
